--- a/data/resazurin/metadata/metadata_batch2.xlsx
+++ b/data/resazurin/metadata/metadata_batch2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10209"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/resazurin/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD4EBD5A-CBB7-F54D-B896-5C4ABC57BB1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07423563-AC28-314C-B024-8E9D3280DAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6960" yWindow="1040" windowWidth="19460" windowHeight="17840" xr2:uid="{F9B76D48-E646-9D48-9AB8-3319F507EDF2}"/>
+    <workbookView xWindow="6960" yWindow="760" windowWidth="19460" windowHeight="17760" xr2:uid="{F9B76D48-E646-9D48-9AB8-3319F507EDF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1352" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="120">
   <si>
     <t>date</t>
   </si>
@@ -393,6 +393,9 @@
   </si>
   <si>
     <t>20C</t>
+  </si>
+  <si>
+    <t>36C</t>
   </si>
 </sst>
 </file>
@@ -770,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7159BF13-8618-0540-AFAB-AF0D60C37565}">
-  <dimension ref="A1:H193"/>
+  <dimension ref="A1:K385"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D193" sqref="D193"/>
+    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
+      <selection activeCell="C379" sqref="C379"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -5802,6 +5805,5376 @@
         <v>7</v>
       </c>
     </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194">
+        <v>20250313</v>
+      </c>
+      <c r="B194" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" t="s">
+        <v>118</v>
+      </c>
+      <c r="D194" t="s">
+        <v>109</v>
+      </c>
+      <c r="E194" t="s">
+        <v>109</v>
+      </c>
+      <c r="F194" t="s">
+        <v>109</v>
+      </c>
+      <c r="G194" t="s">
+        <v>8</v>
+      </c>
+      <c r="H194" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195">
+        <v>20250313</v>
+      </c>
+      <c r="B195" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" t="s">
+        <v>118</v>
+      </c>
+      <c r="D195" t="s">
+        <v>109</v>
+      </c>
+      <c r="E195" t="s">
+        <v>109</v>
+      </c>
+      <c r="F195" t="s">
+        <v>109</v>
+      </c>
+      <c r="G195" t="s">
+        <v>9</v>
+      </c>
+      <c r="H195" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196">
+        <v>20250313</v>
+      </c>
+      <c r="B196" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" t="s">
+        <v>118</v>
+      </c>
+      <c r="D196" t="s">
+        <v>109</v>
+      </c>
+      <c r="E196" t="s">
+        <v>109</v>
+      </c>
+      <c r="F196" t="s">
+        <v>109</v>
+      </c>
+      <c r="G196" t="s">
+        <v>10</v>
+      </c>
+      <c r="H196" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197">
+        <v>20250313</v>
+      </c>
+      <c r="B197" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" t="s">
+        <v>118</v>
+      </c>
+      <c r="D197" t="s">
+        <v>111</v>
+      </c>
+      <c r="E197" t="s">
+        <v>112</v>
+      </c>
+      <c r="F197" t="s">
+        <v>116</v>
+      </c>
+      <c r="G197" t="s">
+        <v>11</v>
+      </c>
+      <c r="H197" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198">
+        <v>20250313</v>
+      </c>
+      <c r="B198" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" t="s">
+        <v>118</v>
+      </c>
+      <c r="D198" t="s">
+        <v>111</v>
+      </c>
+      <c r="E198" t="s">
+        <v>112</v>
+      </c>
+      <c r="F198" t="s">
+        <v>116</v>
+      </c>
+      <c r="G198" t="s">
+        <v>12</v>
+      </c>
+      <c r="H198" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199">
+        <v>20250313</v>
+      </c>
+      <c r="B199" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" t="s">
+        <v>118</v>
+      </c>
+      <c r="D199" t="s">
+        <v>111</v>
+      </c>
+      <c r="E199" t="s">
+        <v>112</v>
+      </c>
+      <c r="F199" t="s">
+        <v>116</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200">
+        <v>20250313</v>
+      </c>
+      <c r="B200" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" t="s">
+        <v>118</v>
+      </c>
+      <c r="D200" t="s">
+        <v>111</v>
+      </c>
+      <c r="E200" t="s">
+        <v>112</v>
+      </c>
+      <c r="F200" t="s">
+        <v>116</v>
+      </c>
+      <c r="G200" t="s">
+        <v>14</v>
+      </c>
+      <c r="H200" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201">
+        <v>20250313</v>
+      </c>
+      <c r="B201" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" t="s">
+        <v>118</v>
+      </c>
+      <c r="D201" t="s">
+        <v>111</v>
+      </c>
+      <c r="E201" t="s">
+        <v>112</v>
+      </c>
+      <c r="F201" t="s">
+        <v>116</v>
+      </c>
+      <c r="G201" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202">
+        <v>20250313</v>
+      </c>
+      <c r="B202" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" t="s">
+        <v>118</v>
+      </c>
+      <c r="D202" t="s">
+        <v>111</v>
+      </c>
+      <c r="E202" t="s">
+        <v>112</v>
+      </c>
+      <c r="F202" t="s">
+        <v>116</v>
+      </c>
+      <c r="G202" t="s">
+        <v>16</v>
+      </c>
+      <c r="H202" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203">
+        <v>20250313</v>
+      </c>
+      <c r="B203" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" t="s">
+        <v>118</v>
+      </c>
+      <c r="D203" t="s">
+        <v>111</v>
+      </c>
+      <c r="E203" t="s">
+        <v>112</v>
+      </c>
+      <c r="F203" t="s">
+        <v>116</v>
+      </c>
+      <c r="G203" t="s">
+        <v>17</v>
+      </c>
+      <c r="H203" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204">
+        <v>20250313</v>
+      </c>
+      <c r="B204" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" t="s">
+        <v>118</v>
+      </c>
+      <c r="D204" t="s">
+        <v>111</v>
+      </c>
+      <c r="E204" t="s">
+        <v>112</v>
+      </c>
+      <c r="F204" t="s">
+        <v>116</v>
+      </c>
+      <c r="G204" t="s">
+        <v>18</v>
+      </c>
+      <c r="H204" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205">
+        <v>20250313</v>
+      </c>
+      <c r="B205" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" t="s">
+        <v>118</v>
+      </c>
+      <c r="D205" t="s">
+        <v>111</v>
+      </c>
+      <c r="E205" t="s">
+        <v>112</v>
+      </c>
+      <c r="F205" t="s">
+        <v>116</v>
+      </c>
+      <c r="G205" t="s">
+        <v>19</v>
+      </c>
+      <c r="H205" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206">
+        <v>20250313</v>
+      </c>
+      <c r="B206" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" t="s">
+        <v>118</v>
+      </c>
+      <c r="D206" t="s">
+        <v>111</v>
+      </c>
+      <c r="E206" t="s">
+        <v>112</v>
+      </c>
+      <c r="F206" t="s">
+        <v>116</v>
+      </c>
+      <c r="G206" t="s">
+        <v>20</v>
+      </c>
+      <c r="H206" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207">
+        <v>20250313</v>
+      </c>
+      <c r="B207" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" t="s">
+        <v>118</v>
+      </c>
+      <c r="D207" t="s">
+        <v>111</v>
+      </c>
+      <c r="E207" t="s">
+        <v>112</v>
+      </c>
+      <c r="F207" t="s">
+        <v>116</v>
+      </c>
+      <c r="G207" t="s">
+        <v>21</v>
+      </c>
+      <c r="H207" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208">
+        <v>20250313</v>
+      </c>
+      <c r="B208" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" t="s">
+        <v>118</v>
+      </c>
+      <c r="D208" t="s">
+        <v>111</v>
+      </c>
+      <c r="E208" t="s">
+        <v>112</v>
+      </c>
+      <c r="F208" t="s">
+        <v>116</v>
+      </c>
+      <c r="G208" t="s">
+        <v>22</v>
+      </c>
+      <c r="H208" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209">
+        <v>20250313</v>
+      </c>
+      <c r="B209" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" t="s">
+        <v>118</v>
+      </c>
+      <c r="D209" t="s">
+        <v>111</v>
+      </c>
+      <c r="E209" t="s">
+        <v>112</v>
+      </c>
+      <c r="F209" t="s">
+        <v>116</v>
+      </c>
+      <c r="G209" t="s">
+        <v>23</v>
+      </c>
+      <c r="H209" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210">
+        <v>20250313</v>
+      </c>
+      <c r="B210" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" t="s">
+        <v>118</v>
+      </c>
+      <c r="D210" t="s">
+        <v>111</v>
+      </c>
+      <c r="E210" t="s">
+        <v>112</v>
+      </c>
+      <c r="F210" t="s">
+        <v>116</v>
+      </c>
+      <c r="G210" t="s">
+        <v>24</v>
+      </c>
+      <c r="H210" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211">
+        <v>20250313</v>
+      </c>
+      <c r="B211" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" t="s">
+        <v>118</v>
+      </c>
+      <c r="D211" t="s">
+        <v>111</v>
+      </c>
+      <c r="E211" t="s">
+        <v>112</v>
+      </c>
+      <c r="F211" t="s">
+        <v>116</v>
+      </c>
+      <c r="G211" t="s">
+        <v>25</v>
+      </c>
+      <c r="H211" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212">
+        <v>20250313</v>
+      </c>
+      <c r="B212" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" t="s">
+        <v>118</v>
+      </c>
+      <c r="D212" t="s">
+        <v>111</v>
+      </c>
+      <c r="E212" t="s">
+        <v>112</v>
+      </c>
+      <c r="F212" t="s">
+        <v>116</v>
+      </c>
+      <c r="G212" t="s">
+        <v>26</v>
+      </c>
+      <c r="H212" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213">
+        <v>20250313</v>
+      </c>
+      <c r="B213" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" t="s">
+        <v>118</v>
+      </c>
+      <c r="D213" t="s">
+        <v>111</v>
+      </c>
+      <c r="E213" t="s">
+        <v>112</v>
+      </c>
+      <c r="F213" t="s">
+        <v>116</v>
+      </c>
+      <c r="G213" t="s">
+        <v>27</v>
+      </c>
+      <c r="H213" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214">
+        <v>20250313</v>
+      </c>
+      <c r="B214" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" t="s">
+        <v>118</v>
+      </c>
+      <c r="D214" t="s">
+        <v>111</v>
+      </c>
+      <c r="E214" t="s">
+        <v>112</v>
+      </c>
+      <c r="F214" t="s">
+        <v>116</v>
+      </c>
+      <c r="G214" t="s">
+        <v>28</v>
+      </c>
+      <c r="H214" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215">
+        <v>20250313</v>
+      </c>
+      <c r="B215" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" t="s">
+        <v>118</v>
+      </c>
+      <c r="D215" t="s">
+        <v>111</v>
+      </c>
+      <c r="E215" t="s">
+        <v>112</v>
+      </c>
+      <c r="F215" t="s">
+        <v>116</v>
+      </c>
+      <c r="G215" t="s">
+        <v>29</v>
+      </c>
+      <c r="H215" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216">
+        <v>20250313</v>
+      </c>
+      <c r="B216" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" t="s">
+        <v>118</v>
+      </c>
+      <c r="D216" t="s">
+        <v>111</v>
+      </c>
+      <c r="E216" t="s">
+        <v>112</v>
+      </c>
+      <c r="F216" t="s">
+        <v>116</v>
+      </c>
+      <c r="G216" t="s">
+        <v>30</v>
+      </c>
+      <c r="H216" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217">
+        <v>20250313</v>
+      </c>
+      <c r="B217" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" t="s">
+        <v>118</v>
+      </c>
+      <c r="D217" t="s">
+        <v>111</v>
+      </c>
+      <c r="E217" t="s">
+        <v>112</v>
+      </c>
+      <c r="F217" t="s">
+        <v>116</v>
+      </c>
+      <c r="G217" t="s">
+        <v>31</v>
+      </c>
+      <c r="H217" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218">
+        <v>20250313</v>
+      </c>
+      <c r="B218" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" t="s">
+        <v>118</v>
+      </c>
+      <c r="D218" t="s">
+        <v>109</v>
+      </c>
+      <c r="E218" t="s">
+        <v>109</v>
+      </c>
+      <c r="F218" t="s">
+        <v>109</v>
+      </c>
+      <c r="G218" t="s">
+        <v>32</v>
+      </c>
+      <c r="H218" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219">
+        <v>20250313</v>
+      </c>
+      <c r="B219" t="s">
+        <v>5</v>
+      </c>
+      <c r="C219" t="s">
+        <v>118</v>
+      </c>
+      <c r="D219" t="s">
+        <v>109</v>
+      </c>
+      <c r="E219" t="s">
+        <v>109</v>
+      </c>
+      <c r="F219" t="s">
+        <v>109</v>
+      </c>
+      <c r="G219" t="s">
+        <v>33</v>
+      </c>
+      <c r="H219" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220">
+        <v>20250313</v>
+      </c>
+      <c r="B220" t="s">
+        <v>5</v>
+      </c>
+      <c r="C220" t="s">
+        <v>118</v>
+      </c>
+      <c r="D220" t="s">
+        <v>109</v>
+      </c>
+      <c r="E220" t="s">
+        <v>109</v>
+      </c>
+      <c r="F220" t="s">
+        <v>109</v>
+      </c>
+      <c r="G220" t="s">
+        <v>34</v>
+      </c>
+      <c r="H220" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221">
+        <v>20250313</v>
+      </c>
+      <c r="B221" t="s">
+        <v>5</v>
+      </c>
+      <c r="C221" t="s">
+        <v>118</v>
+      </c>
+      <c r="D221" t="s">
+        <v>6</v>
+      </c>
+      <c r="E221" t="s">
+        <v>108</v>
+      </c>
+      <c r="F221" t="s">
+        <v>116</v>
+      </c>
+      <c r="G221" t="s">
+        <v>35</v>
+      </c>
+      <c r="H221" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222">
+        <v>20250313</v>
+      </c>
+      <c r="B222" t="s">
+        <v>5</v>
+      </c>
+      <c r="C222" t="s">
+        <v>118</v>
+      </c>
+      <c r="D222" t="s">
+        <v>6</v>
+      </c>
+      <c r="E222" t="s">
+        <v>108</v>
+      </c>
+      <c r="F222" t="s">
+        <v>116</v>
+      </c>
+      <c r="G222" t="s">
+        <v>36</v>
+      </c>
+      <c r="H222" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223">
+        <v>20250313</v>
+      </c>
+      <c r="B223" t="s">
+        <v>5</v>
+      </c>
+      <c r="C223" t="s">
+        <v>118</v>
+      </c>
+      <c r="D223" t="s">
+        <v>6</v>
+      </c>
+      <c r="E223" t="s">
+        <v>108</v>
+      </c>
+      <c r="F223" t="s">
+        <v>116</v>
+      </c>
+      <c r="G223" t="s">
+        <v>37</v>
+      </c>
+      <c r="H223" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224">
+        <v>20250313</v>
+      </c>
+      <c r="B224" t="s">
+        <v>5</v>
+      </c>
+      <c r="C224" t="s">
+        <v>118</v>
+      </c>
+      <c r="D224" t="s">
+        <v>6</v>
+      </c>
+      <c r="E224" t="s">
+        <v>108</v>
+      </c>
+      <c r="F224" t="s">
+        <v>116</v>
+      </c>
+      <c r="G224" t="s">
+        <v>38</v>
+      </c>
+      <c r="H224" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A225">
+        <v>20250313</v>
+      </c>
+      <c r="B225" t="s">
+        <v>5</v>
+      </c>
+      <c r="C225" t="s">
+        <v>118</v>
+      </c>
+      <c r="D225" t="s">
+        <v>6</v>
+      </c>
+      <c r="E225" t="s">
+        <v>108</v>
+      </c>
+      <c r="F225" t="s">
+        <v>116</v>
+      </c>
+      <c r="G225" t="s">
+        <v>39</v>
+      </c>
+      <c r="H225" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A226">
+        <v>20250313</v>
+      </c>
+      <c r="B226" t="s">
+        <v>5</v>
+      </c>
+      <c r="C226" t="s">
+        <v>118</v>
+      </c>
+      <c r="D226" t="s">
+        <v>6</v>
+      </c>
+      <c r="E226" t="s">
+        <v>108</v>
+      </c>
+      <c r="F226" t="s">
+        <v>116</v>
+      </c>
+      <c r="G226" t="s">
+        <v>40</v>
+      </c>
+      <c r="H226" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A227">
+        <v>20250313</v>
+      </c>
+      <c r="B227" t="s">
+        <v>5</v>
+      </c>
+      <c r="C227" t="s">
+        <v>118</v>
+      </c>
+      <c r="D227" t="s">
+        <v>6</v>
+      </c>
+      <c r="E227" t="s">
+        <v>108</v>
+      </c>
+      <c r="F227" t="s">
+        <v>116</v>
+      </c>
+      <c r="G227" t="s">
+        <v>41</v>
+      </c>
+      <c r="H227" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A228">
+        <v>20250313</v>
+      </c>
+      <c r="B228" t="s">
+        <v>5</v>
+      </c>
+      <c r="C228" t="s">
+        <v>118</v>
+      </c>
+      <c r="D228" t="s">
+        <v>6</v>
+      </c>
+      <c r="E228" t="s">
+        <v>108</v>
+      </c>
+      <c r="F228" t="s">
+        <v>116</v>
+      </c>
+      <c r="G228" t="s">
+        <v>42</v>
+      </c>
+      <c r="H228" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A229">
+        <v>20250313</v>
+      </c>
+      <c r="B229" t="s">
+        <v>5</v>
+      </c>
+      <c r="C229" t="s">
+        <v>118</v>
+      </c>
+      <c r="D229" t="s">
+        <v>6</v>
+      </c>
+      <c r="E229" t="s">
+        <v>108</v>
+      </c>
+      <c r="F229" t="s">
+        <v>116</v>
+      </c>
+      <c r="G229" t="s">
+        <v>43</v>
+      </c>
+      <c r="H229" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A230">
+        <v>20250313</v>
+      </c>
+      <c r="B230" t="s">
+        <v>5</v>
+      </c>
+      <c r="C230" t="s">
+        <v>118</v>
+      </c>
+      <c r="D230" t="s">
+        <v>6</v>
+      </c>
+      <c r="E230" t="s">
+        <v>108</v>
+      </c>
+      <c r="F230" t="s">
+        <v>116</v>
+      </c>
+      <c r="G230" t="s">
+        <v>48</v>
+      </c>
+      <c r="H230" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A231">
+        <v>20250313</v>
+      </c>
+      <c r="B231" t="s">
+        <v>5</v>
+      </c>
+      <c r="C231" t="s">
+        <v>118</v>
+      </c>
+      <c r="D231" t="s">
+        <v>6</v>
+      </c>
+      <c r="E231" t="s">
+        <v>108</v>
+      </c>
+      <c r="F231" t="s">
+        <v>116</v>
+      </c>
+      <c r="G231" t="s">
+        <v>49</v>
+      </c>
+      <c r="H231" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A232">
+        <v>20250313</v>
+      </c>
+      <c r="B232" t="s">
+        <v>5</v>
+      </c>
+      <c r="C232" t="s">
+        <v>118</v>
+      </c>
+      <c r="D232" t="s">
+        <v>6</v>
+      </c>
+      <c r="E232" t="s">
+        <v>108</v>
+      </c>
+      <c r="F232" t="s">
+        <v>116</v>
+      </c>
+      <c r="G232" t="s">
+        <v>50</v>
+      </c>
+      <c r="H232" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A233">
+        <v>20250313</v>
+      </c>
+      <c r="B233" t="s">
+        <v>5</v>
+      </c>
+      <c r="C233" t="s">
+        <v>118</v>
+      </c>
+      <c r="D233" t="s">
+        <v>6</v>
+      </c>
+      <c r="E233" t="s">
+        <v>108</v>
+      </c>
+      <c r="F233" t="s">
+        <v>116</v>
+      </c>
+      <c r="G233" t="s">
+        <v>51</v>
+      </c>
+      <c r="H233" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A234">
+        <v>20250313</v>
+      </c>
+      <c r="B234" t="s">
+        <v>5</v>
+      </c>
+      <c r="C234" t="s">
+        <v>118</v>
+      </c>
+      <c r="D234" t="s">
+        <v>6</v>
+      </c>
+      <c r="E234" t="s">
+        <v>108</v>
+      </c>
+      <c r="F234" t="s">
+        <v>116</v>
+      </c>
+      <c r="G234" t="s">
+        <v>52</v>
+      </c>
+      <c r="H234" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A235">
+        <v>20250313</v>
+      </c>
+      <c r="B235" t="s">
+        <v>5</v>
+      </c>
+      <c r="C235" t="s">
+        <v>118</v>
+      </c>
+      <c r="D235" t="s">
+        <v>6</v>
+      </c>
+      <c r="E235" t="s">
+        <v>108</v>
+      </c>
+      <c r="F235" t="s">
+        <v>116</v>
+      </c>
+      <c r="G235" t="s">
+        <v>53</v>
+      </c>
+      <c r="H235" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A236">
+        <v>20250313</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+      <c r="C236" t="s">
+        <v>118</v>
+      </c>
+      <c r="D236" t="s">
+        <v>6</v>
+      </c>
+      <c r="E236" t="s">
+        <v>108</v>
+      </c>
+      <c r="F236" t="s">
+        <v>116</v>
+      </c>
+      <c r="G236" t="s">
+        <v>54</v>
+      </c>
+      <c r="H236" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A237">
+        <v>20250313</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+      <c r="C237" t="s">
+        <v>118</v>
+      </c>
+      <c r="D237" t="s">
+        <v>6</v>
+      </c>
+      <c r="E237" t="s">
+        <v>108</v>
+      </c>
+      <c r="F237" t="s">
+        <v>116</v>
+      </c>
+      <c r="G237" t="s">
+        <v>55</v>
+      </c>
+      <c r="H237" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A238">
+        <v>20250313</v>
+      </c>
+      <c r="B238" t="s">
+        <v>5</v>
+      </c>
+      <c r="C238" t="s">
+        <v>118</v>
+      </c>
+      <c r="D238" t="s">
+        <v>6</v>
+      </c>
+      <c r="E238" t="s">
+        <v>108</v>
+      </c>
+      <c r="F238" t="s">
+        <v>116</v>
+      </c>
+      <c r="G238" t="s">
+        <v>56</v>
+      </c>
+      <c r="H238" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A239">
+        <v>20250313</v>
+      </c>
+      <c r="B239" t="s">
+        <v>5</v>
+      </c>
+      <c r="C239" t="s">
+        <v>118</v>
+      </c>
+      <c r="D239" t="s">
+        <v>6</v>
+      </c>
+      <c r="E239" t="s">
+        <v>108</v>
+      </c>
+      <c r="F239" t="s">
+        <v>116</v>
+      </c>
+      <c r="G239" t="s">
+        <v>57</v>
+      </c>
+      <c r="H239" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A240">
+        <v>20250313</v>
+      </c>
+      <c r="B240" t="s">
+        <v>5</v>
+      </c>
+      <c r="C240" t="s">
+        <v>118</v>
+      </c>
+      <c r="D240" t="s">
+        <v>6</v>
+      </c>
+      <c r="E240" t="s">
+        <v>108</v>
+      </c>
+      <c r="F240" t="s">
+        <v>116</v>
+      </c>
+      <c r="G240" t="s">
+        <v>58</v>
+      </c>
+      <c r="H240" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A241">
+        <v>20250313</v>
+      </c>
+      <c r="B241" t="s">
+        <v>5</v>
+      </c>
+      <c r="C241" t="s">
+        <v>118</v>
+      </c>
+      <c r="D241" t="s">
+        <v>6</v>
+      </c>
+      <c r="E241" t="s">
+        <v>108</v>
+      </c>
+      <c r="F241" t="s">
+        <v>116</v>
+      </c>
+      <c r="G241" t="s">
+        <v>59</v>
+      </c>
+      <c r="H241" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A242">
+        <v>20250313</v>
+      </c>
+      <c r="B242" t="s">
+        <v>5</v>
+      </c>
+      <c r="C242" t="s">
+        <v>118</v>
+      </c>
+      <c r="D242" t="s">
+        <v>109</v>
+      </c>
+      <c r="E242" t="s">
+        <v>109</v>
+      </c>
+      <c r="F242" t="s">
+        <v>109</v>
+      </c>
+      <c r="G242" t="s">
+        <v>60</v>
+      </c>
+      <c r="H242" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A243">
+        <v>20250313</v>
+      </c>
+      <c r="B243" t="s">
+        <v>5</v>
+      </c>
+      <c r="C243" t="s">
+        <v>118</v>
+      </c>
+      <c r="D243" t="s">
+        <v>109</v>
+      </c>
+      <c r="E243" t="s">
+        <v>109</v>
+      </c>
+      <c r="F243" t="s">
+        <v>109</v>
+      </c>
+      <c r="G243" t="s">
+        <v>61</v>
+      </c>
+      <c r="H243" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A244">
+        <v>20250313</v>
+      </c>
+      <c r="B244" t="s">
+        <v>5</v>
+      </c>
+      <c r="C244" t="s">
+        <v>118</v>
+      </c>
+      <c r="D244" t="s">
+        <v>109</v>
+      </c>
+      <c r="E244" t="s">
+        <v>109</v>
+      </c>
+      <c r="F244" t="s">
+        <v>109</v>
+      </c>
+      <c r="G244" t="s">
+        <v>62</v>
+      </c>
+      <c r="H244" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A245">
+        <v>20250313</v>
+      </c>
+      <c r="B245" t="s">
+        <v>5</v>
+      </c>
+      <c r="C245" t="s">
+        <v>118</v>
+      </c>
+      <c r="D245" t="s">
+        <v>111</v>
+      </c>
+      <c r="E245" t="s">
+        <v>113</v>
+      </c>
+      <c r="F245" t="s">
+        <v>117</v>
+      </c>
+      <c r="G245" t="s">
+        <v>63</v>
+      </c>
+      <c r="H245" t="s">
+        <v>7</v>
+      </c>
+      <c r="J245" t="s">
+        <v>6</v>
+      </c>
+      <c r="K245" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A246">
+        <v>20250313</v>
+      </c>
+      <c r="B246" t="s">
+        <v>5</v>
+      </c>
+      <c r="C246" t="s">
+        <v>118</v>
+      </c>
+      <c r="D246" t="s">
+        <v>111</v>
+      </c>
+      <c r="E246" t="s">
+        <v>113</v>
+      </c>
+      <c r="F246" t="s">
+        <v>117</v>
+      </c>
+      <c r="G246" t="s">
+        <v>64</v>
+      </c>
+      <c r="H246" t="s">
+        <v>7</v>
+      </c>
+      <c r="J246" t="s">
+        <v>6</v>
+      </c>
+      <c r="K246" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A247">
+        <v>20250313</v>
+      </c>
+      <c r="B247" t="s">
+        <v>5</v>
+      </c>
+      <c r="C247" t="s">
+        <v>118</v>
+      </c>
+      <c r="D247" t="s">
+        <v>111</v>
+      </c>
+      <c r="E247" t="s">
+        <v>113</v>
+      </c>
+      <c r="F247" t="s">
+        <v>117</v>
+      </c>
+      <c r="G247" t="s">
+        <v>65</v>
+      </c>
+      <c r="H247" t="s">
+        <v>7</v>
+      </c>
+      <c r="J247" t="s">
+        <v>6</v>
+      </c>
+      <c r="K247" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A248">
+        <v>20250313</v>
+      </c>
+      <c r="B248" t="s">
+        <v>5</v>
+      </c>
+      <c r="C248" t="s">
+        <v>118</v>
+      </c>
+      <c r="D248" t="s">
+        <v>111</v>
+      </c>
+      <c r="E248" t="s">
+        <v>113</v>
+      </c>
+      <c r="F248" t="s">
+        <v>117</v>
+      </c>
+      <c r="G248" t="s">
+        <v>66</v>
+      </c>
+      <c r="H248" t="s">
+        <v>7</v>
+      </c>
+      <c r="J248" t="s">
+        <v>6</v>
+      </c>
+      <c r="K248" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A249">
+        <v>20250313</v>
+      </c>
+      <c r="B249" t="s">
+        <v>5</v>
+      </c>
+      <c r="C249" t="s">
+        <v>118</v>
+      </c>
+      <c r="D249" t="s">
+        <v>111</v>
+      </c>
+      <c r="E249" t="s">
+        <v>113</v>
+      </c>
+      <c r="F249" t="s">
+        <v>117</v>
+      </c>
+      <c r="G249" t="s">
+        <v>67</v>
+      </c>
+      <c r="H249" t="s">
+        <v>7</v>
+      </c>
+      <c r="J249" t="s">
+        <v>6</v>
+      </c>
+      <c r="K249" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A250">
+        <v>20250313</v>
+      </c>
+      <c r="B250" t="s">
+        <v>5</v>
+      </c>
+      <c r="C250" t="s">
+        <v>118</v>
+      </c>
+      <c r="D250" t="s">
+        <v>111</v>
+      </c>
+      <c r="E250" t="s">
+        <v>113</v>
+      </c>
+      <c r="F250" t="s">
+        <v>117</v>
+      </c>
+      <c r="G250" t="s">
+        <v>68</v>
+      </c>
+      <c r="H250" t="s">
+        <v>7</v>
+      </c>
+      <c r="J250" t="s">
+        <v>6</v>
+      </c>
+      <c r="K250" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A251">
+        <v>20250313</v>
+      </c>
+      <c r="B251" t="s">
+        <v>5</v>
+      </c>
+      <c r="C251" t="s">
+        <v>118</v>
+      </c>
+      <c r="D251" t="s">
+        <v>111</v>
+      </c>
+      <c r="E251" t="s">
+        <v>113</v>
+      </c>
+      <c r="F251" t="s">
+        <v>117</v>
+      </c>
+      <c r="G251" t="s">
+        <v>69</v>
+      </c>
+      <c r="H251" t="s">
+        <v>7</v>
+      </c>
+      <c r="J251" t="s">
+        <v>6</v>
+      </c>
+      <c r="K251" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A252">
+        <v>20250313</v>
+      </c>
+      <c r="B252" t="s">
+        <v>5</v>
+      </c>
+      <c r="C252" t="s">
+        <v>118</v>
+      </c>
+      <c r="D252" t="s">
+        <v>111</v>
+      </c>
+      <c r="E252" t="s">
+        <v>113</v>
+      </c>
+      <c r="F252" t="s">
+        <v>117</v>
+      </c>
+      <c r="G252" t="s">
+        <v>70</v>
+      </c>
+      <c r="H252" t="s">
+        <v>7</v>
+      </c>
+      <c r="J252" t="s">
+        <v>6</v>
+      </c>
+      <c r="K252" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A253">
+        <v>20250313</v>
+      </c>
+      <c r="B253" t="s">
+        <v>5</v>
+      </c>
+      <c r="C253" t="s">
+        <v>118</v>
+      </c>
+      <c r="D253" t="s">
+        <v>111</v>
+      </c>
+      <c r="E253" t="s">
+        <v>113</v>
+      </c>
+      <c r="F253" t="s">
+        <v>117</v>
+      </c>
+      <c r="G253" t="s">
+        <v>71</v>
+      </c>
+      <c r="H253" t="s">
+        <v>7</v>
+      </c>
+      <c r="J253" t="s">
+        <v>6</v>
+      </c>
+      <c r="K253" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A254">
+        <v>20250313</v>
+      </c>
+      <c r="B254" t="s">
+        <v>5</v>
+      </c>
+      <c r="C254" t="s">
+        <v>118</v>
+      </c>
+      <c r="D254" t="s">
+        <v>111</v>
+      </c>
+      <c r="E254" t="s">
+        <v>113</v>
+      </c>
+      <c r="F254" t="s">
+        <v>117</v>
+      </c>
+      <c r="G254" t="s">
+        <v>72</v>
+      </c>
+      <c r="H254" t="s">
+        <v>7</v>
+      </c>
+      <c r="J254" t="s">
+        <v>6</v>
+      </c>
+      <c r="K254" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A255">
+        <v>20250313</v>
+      </c>
+      <c r="B255" t="s">
+        <v>5</v>
+      </c>
+      <c r="C255" t="s">
+        <v>118</v>
+      </c>
+      <c r="D255" t="s">
+        <v>111</v>
+      </c>
+      <c r="E255" t="s">
+        <v>113</v>
+      </c>
+      <c r="F255" t="s">
+        <v>117</v>
+      </c>
+      <c r="G255" t="s">
+        <v>73</v>
+      </c>
+      <c r="H255" t="s">
+        <v>7</v>
+      </c>
+      <c r="J255" t="s">
+        <v>6</v>
+      </c>
+      <c r="K255" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A256">
+        <v>20250313</v>
+      </c>
+      <c r="B256" t="s">
+        <v>5</v>
+      </c>
+      <c r="C256" t="s">
+        <v>118</v>
+      </c>
+      <c r="D256" t="s">
+        <v>111</v>
+      </c>
+      <c r="E256" t="s">
+        <v>113</v>
+      </c>
+      <c r="F256" t="s">
+        <v>117</v>
+      </c>
+      <c r="G256" t="s">
+        <v>74</v>
+      </c>
+      <c r="H256" t="s">
+        <v>7</v>
+      </c>
+      <c r="J256" t="s">
+        <v>6</v>
+      </c>
+      <c r="K256" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A257">
+        <v>20250313</v>
+      </c>
+      <c r="B257" t="s">
+        <v>5</v>
+      </c>
+      <c r="C257" t="s">
+        <v>118</v>
+      </c>
+      <c r="D257" t="s">
+        <v>111</v>
+      </c>
+      <c r="E257" t="s">
+        <v>113</v>
+      </c>
+      <c r="F257" t="s">
+        <v>117</v>
+      </c>
+      <c r="G257" t="s">
+        <v>75</v>
+      </c>
+      <c r="H257" t="s">
+        <v>7</v>
+      </c>
+      <c r="J257" t="s">
+        <v>6</v>
+      </c>
+      <c r="K257" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A258">
+        <v>20250313</v>
+      </c>
+      <c r="B258" t="s">
+        <v>5</v>
+      </c>
+      <c r="C258" t="s">
+        <v>118</v>
+      </c>
+      <c r="D258" t="s">
+        <v>111</v>
+      </c>
+      <c r="E258" t="s">
+        <v>113</v>
+      </c>
+      <c r="F258" t="s">
+        <v>117</v>
+      </c>
+      <c r="G258" t="s">
+        <v>76</v>
+      </c>
+      <c r="H258" t="s">
+        <v>7</v>
+      </c>
+      <c r="J258" t="s">
+        <v>6</v>
+      </c>
+      <c r="K258" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A259">
+        <v>20250313</v>
+      </c>
+      <c r="B259" t="s">
+        <v>5</v>
+      </c>
+      <c r="C259" t="s">
+        <v>118</v>
+      </c>
+      <c r="D259" t="s">
+        <v>111</v>
+      </c>
+      <c r="E259" t="s">
+        <v>113</v>
+      </c>
+      <c r="F259" t="s">
+        <v>117</v>
+      </c>
+      <c r="G259" t="s">
+        <v>77</v>
+      </c>
+      <c r="H259" t="s">
+        <v>7</v>
+      </c>
+      <c r="J259" t="s">
+        <v>6</v>
+      </c>
+      <c r="K259" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A260">
+        <v>20250313</v>
+      </c>
+      <c r="B260" t="s">
+        <v>5</v>
+      </c>
+      <c r="C260" t="s">
+        <v>118</v>
+      </c>
+      <c r="D260" t="s">
+        <v>111</v>
+      </c>
+      <c r="E260" t="s">
+        <v>113</v>
+      </c>
+      <c r="F260" t="s">
+        <v>117</v>
+      </c>
+      <c r="G260" t="s">
+        <v>78</v>
+      </c>
+      <c r="H260" t="s">
+        <v>7</v>
+      </c>
+      <c r="J260" t="s">
+        <v>6</v>
+      </c>
+      <c r="K260" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A261">
+        <v>20250313</v>
+      </c>
+      <c r="B261" t="s">
+        <v>5</v>
+      </c>
+      <c r="C261" t="s">
+        <v>118</v>
+      </c>
+      <c r="D261" t="s">
+        <v>111</v>
+      </c>
+      <c r="E261" t="s">
+        <v>113</v>
+      </c>
+      <c r="F261" t="s">
+        <v>117</v>
+      </c>
+      <c r="G261" t="s">
+        <v>79</v>
+      </c>
+      <c r="H261" t="s">
+        <v>7</v>
+      </c>
+      <c r="J261" t="s">
+        <v>6</v>
+      </c>
+      <c r="K261" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A262">
+        <v>20250313</v>
+      </c>
+      <c r="B262" t="s">
+        <v>5</v>
+      </c>
+      <c r="C262" t="s">
+        <v>118</v>
+      </c>
+      <c r="D262" t="s">
+        <v>111</v>
+      </c>
+      <c r="E262" t="s">
+        <v>113</v>
+      </c>
+      <c r="F262" t="s">
+        <v>117</v>
+      </c>
+      <c r="G262" t="s">
+        <v>80</v>
+      </c>
+      <c r="H262" t="s">
+        <v>7</v>
+      </c>
+      <c r="J262" t="s">
+        <v>6</v>
+      </c>
+      <c r="K262" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A263">
+        <v>20250313</v>
+      </c>
+      <c r="B263" t="s">
+        <v>5</v>
+      </c>
+      <c r="C263" t="s">
+        <v>118</v>
+      </c>
+      <c r="D263" t="s">
+        <v>111</v>
+      </c>
+      <c r="E263" t="s">
+        <v>113</v>
+      </c>
+      <c r="F263" t="s">
+        <v>117</v>
+      </c>
+      <c r="G263" t="s">
+        <v>81</v>
+      </c>
+      <c r="H263" t="s">
+        <v>7</v>
+      </c>
+      <c r="J263" t="s">
+        <v>6</v>
+      </c>
+      <c r="K263" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A264">
+        <v>20250313</v>
+      </c>
+      <c r="B264" t="s">
+        <v>5</v>
+      </c>
+      <c r="C264" t="s">
+        <v>118</v>
+      </c>
+      <c r="D264" t="s">
+        <v>111</v>
+      </c>
+      <c r="E264" t="s">
+        <v>113</v>
+      </c>
+      <c r="F264" t="s">
+        <v>117</v>
+      </c>
+      <c r="G264" t="s">
+        <v>82</v>
+      </c>
+      <c r="H264" t="s">
+        <v>7</v>
+      </c>
+      <c r="J264" t="s">
+        <v>6</v>
+      </c>
+      <c r="K264" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A265">
+        <v>20250313</v>
+      </c>
+      <c r="B265" t="s">
+        <v>5</v>
+      </c>
+      <c r="C265" t="s">
+        <v>118</v>
+      </c>
+      <c r="D265" t="s">
+        <v>111</v>
+      </c>
+      <c r="E265" t="s">
+        <v>113</v>
+      </c>
+      <c r="F265" t="s">
+        <v>117</v>
+      </c>
+      <c r="G265" t="s">
+        <v>83</v>
+      </c>
+      <c r="H265" t="s">
+        <v>7</v>
+      </c>
+      <c r="J265" t="s">
+        <v>6</v>
+      </c>
+      <c r="K265" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A266">
+        <v>20250313</v>
+      </c>
+      <c r="B266" t="s">
+        <v>5</v>
+      </c>
+      <c r="C266" t="s">
+        <v>118</v>
+      </c>
+      <c r="D266" t="s">
+        <v>109</v>
+      </c>
+      <c r="E266" t="s">
+        <v>109</v>
+      </c>
+      <c r="F266" t="s">
+        <v>109</v>
+      </c>
+      <c r="G266" t="s">
+        <v>84</v>
+      </c>
+      <c r="H266" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A267">
+        <v>20250313</v>
+      </c>
+      <c r="B267" t="s">
+        <v>5</v>
+      </c>
+      <c r="C267" t="s">
+        <v>118</v>
+      </c>
+      <c r="D267" t="s">
+        <v>109</v>
+      </c>
+      <c r="E267" t="s">
+        <v>109</v>
+      </c>
+      <c r="F267" t="s">
+        <v>109</v>
+      </c>
+      <c r="G267" t="s">
+        <v>85</v>
+      </c>
+      <c r="H267" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A268">
+        <v>20250313</v>
+      </c>
+      <c r="B268" t="s">
+        <v>5</v>
+      </c>
+      <c r="C268" t="s">
+        <v>118</v>
+      </c>
+      <c r="D268" t="s">
+        <v>109</v>
+      </c>
+      <c r="E268" t="s">
+        <v>109</v>
+      </c>
+      <c r="F268" t="s">
+        <v>109</v>
+      </c>
+      <c r="G268" t="s">
+        <v>86</v>
+      </c>
+      <c r="H268" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A269">
+        <v>20250313</v>
+      </c>
+      <c r="B269" t="s">
+        <v>5</v>
+      </c>
+      <c r="C269" t="s">
+        <v>118</v>
+      </c>
+      <c r="D269" t="s">
+        <v>6</v>
+      </c>
+      <c r="E269" t="s">
+        <v>110</v>
+      </c>
+      <c r="F269" t="s">
+        <v>117</v>
+      </c>
+      <c r="G269" t="s">
+        <v>87</v>
+      </c>
+      <c r="H269" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A270">
+        <v>20250313</v>
+      </c>
+      <c r="B270" t="s">
+        <v>5</v>
+      </c>
+      <c r="C270" t="s">
+        <v>118</v>
+      </c>
+      <c r="D270" t="s">
+        <v>6</v>
+      </c>
+      <c r="E270" t="s">
+        <v>110</v>
+      </c>
+      <c r="F270" t="s">
+        <v>117</v>
+      </c>
+      <c r="G270" t="s">
+        <v>88</v>
+      </c>
+      <c r="H270" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A271">
+        <v>20250313</v>
+      </c>
+      <c r="B271" t="s">
+        <v>5</v>
+      </c>
+      <c r="C271" t="s">
+        <v>118</v>
+      </c>
+      <c r="D271" t="s">
+        <v>6</v>
+      </c>
+      <c r="E271" t="s">
+        <v>110</v>
+      </c>
+      <c r="F271" t="s">
+        <v>117</v>
+      </c>
+      <c r="G271" t="s">
+        <v>89</v>
+      </c>
+      <c r="H271" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A272">
+        <v>20250313</v>
+      </c>
+      <c r="B272" t="s">
+        <v>5</v>
+      </c>
+      <c r="C272" t="s">
+        <v>118</v>
+      </c>
+      <c r="D272" t="s">
+        <v>6</v>
+      </c>
+      <c r="E272" t="s">
+        <v>110</v>
+      </c>
+      <c r="F272" t="s">
+        <v>117</v>
+      </c>
+      <c r="G272" t="s">
+        <v>90</v>
+      </c>
+      <c r="H272" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A273">
+        <v>20250313</v>
+      </c>
+      <c r="B273" t="s">
+        <v>5</v>
+      </c>
+      <c r="C273" t="s">
+        <v>118</v>
+      </c>
+      <c r="D273" t="s">
+        <v>6</v>
+      </c>
+      <c r="E273" t="s">
+        <v>110</v>
+      </c>
+      <c r="F273" t="s">
+        <v>117</v>
+      </c>
+      <c r="G273" t="s">
+        <v>91</v>
+      </c>
+      <c r="H273" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A274">
+        <v>20250313</v>
+      </c>
+      <c r="B274" t="s">
+        <v>5</v>
+      </c>
+      <c r="C274" t="s">
+        <v>118</v>
+      </c>
+      <c r="D274" t="s">
+        <v>6</v>
+      </c>
+      <c r="E274" t="s">
+        <v>110</v>
+      </c>
+      <c r="F274" t="s">
+        <v>117</v>
+      </c>
+      <c r="G274" t="s">
+        <v>92</v>
+      </c>
+      <c r="H274" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A275">
+        <v>20250313</v>
+      </c>
+      <c r="B275" t="s">
+        <v>5</v>
+      </c>
+      <c r="C275" t="s">
+        <v>118</v>
+      </c>
+      <c r="D275" t="s">
+        <v>6</v>
+      </c>
+      <c r="E275" t="s">
+        <v>110</v>
+      </c>
+      <c r="F275" t="s">
+        <v>117</v>
+      </c>
+      <c r="G275" t="s">
+        <v>93</v>
+      </c>
+      <c r="H275" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A276">
+        <v>20250313</v>
+      </c>
+      <c r="B276" t="s">
+        <v>5</v>
+      </c>
+      <c r="C276" t="s">
+        <v>118</v>
+      </c>
+      <c r="D276" t="s">
+        <v>6</v>
+      </c>
+      <c r="E276" t="s">
+        <v>110</v>
+      </c>
+      <c r="F276" t="s">
+        <v>117</v>
+      </c>
+      <c r="G276" t="s">
+        <v>94</v>
+      </c>
+      <c r="H276" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A277">
+        <v>20250313</v>
+      </c>
+      <c r="B277" t="s">
+        <v>5</v>
+      </c>
+      <c r="C277" t="s">
+        <v>118</v>
+      </c>
+      <c r="D277" t="s">
+        <v>6</v>
+      </c>
+      <c r="E277" t="s">
+        <v>110</v>
+      </c>
+      <c r="F277" t="s">
+        <v>117</v>
+      </c>
+      <c r="G277" t="s">
+        <v>95</v>
+      </c>
+      <c r="H277" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A278">
+        <v>20250313</v>
+      </c>
+      <c r="B278" t="s">
+        <v>5</v>
+      </c>
+      <c r="C278" t="s">
+        <v>118</v>
+      </c>
+      <c r="D278" t="s">
+        <v>6</v>
+      </c>
+      <c r="E278" t="s">
+        <v>110</v>
+      </c>
+      <c r="F278" t="s">
+        <v>117</v>
+      </c>
+      <c r="G278" t="s">
+        <v>96</v>
+      </c>
+      <c r="H278" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A279">
+        <v>20250313</v>
+      </c>
+      <c r="B279" t="s">
+        <v>5</v>
+      </c>
+      <c r="C279" t="s">
+        <v>118</v>
+      </c>
+      <c r="D279" t="s">
+        <v>6</v>
+      </c>
+      <c r="E279" t="s">
+        <v>110</v>
+      </c>
+      <c r="F279" t="s">
+        <v>117</v>
+      </c>
+      <c r="G279" t="s">
+        <v>97</v>
+      </c>
+      <c r="H279" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A280">
+        <v>20250313</v>
+      </c>
+      <c r="B280" t="s">
+        <v>5</v>
+      </c>
+      <c r="C280" t="s">
+        <v>118</v>
+      </c>
+      <c r="D280" t="s">
+        <v>6</v>
+      </c>
+      <c r="E280" t="s">
+        <v>110</v>
+      </c>
+      <c r="F280" t="s">
+        <v>117</v>
+      </c>
+      <c r="G280" t="s">
+        <v>98</v>
+      </c>
+      <c r="H280" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A281">
+        <v>20250313</v>
+      </c>
+      <c r="B281" t="s">
+        <v>5</v>
+      </c>
+      <c r="C281" t="s">
+        <v>118</v>
+      </c>
+      <c r="D281" t="s">
+        <v>6</v>
+      </c>
+      <c r="E281" t="s">
+        <v>110</v>
+      </c>
+      <c r="F281" t="s">
+        <v>117</v>
+      </c>
+      <c r="G281" t="s">
+        <v>99</v>
+      </c>
+      <c r="H281" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A282">
+        <v>20250313</v>
+      </c>
+      <c r="B282" t="s">
+        <v>5</v>
+      </c>
+      <c r="C282" t="s">
+        <v>118</v>
+      </c>
+      <c r="D282" t="s">
+        <v>6</v>
+      </c>
+      <c r="E282" t="s">
+        <v>110</v>
+      </c>
+      <c r="F282" t="s">
+        <v>117</v>
+      </c>
+      <c r="G282" t="s">
+        <v>100</v>
+      </c>
+      <c r="H282" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A283">
+        <v>20250313</v>
+      </c>
+      <c r="B283" t="s">
+        <v>5</v>
+      </c>
+      <c r="C283" t="s">
+        <v>118</v>
+      </c>
+      <c r="D283" t="s">
+        <v>6</v>
+      </c>
+      <c r="E283" t="s">
+        <v>110</v>
+      </c>
+      <c r="F283" t="s">
+        <v>117</v>
+      </c>
+      <c r="G283" t="s">
+        <v>101</v>
+      </c>
+      <c r="H283" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A284">
+        <v>20250313</v>
+      </c>
+      <c r="B284" t="s">
+        <v>5</v>
+      </c>
+      <c r="C284" t="s">
+        <v>118</v>
+      </c>
+      <c r="D284" t="s">
+        <v>6</v>
+      </c>
+      <c r="E284" t="s">
+        <v>110</v>
+      </c>
+      <c r="F284" t="s">
+        <v>117</v>
+      </c>
+      <c r="G284" t="s">
+        <v>102</v>
+      </c>
+      <c r="H284" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A285">
+        <v>20250313</v>
+      </c>
+      <c r="B285" t="s">
+        <v>5</v>
+      </c>
+      <c r="C285" t="s">
+        <v>118</v>
+      </c>
+      <c r="D285" t="s">
+        <v>6</v>
+      </c>
+      <c r="E285" t="s">
+        <v>110</v>
+      </c>
+      <c r="F285" t="s">
+        <v>117</v>
+      </c>
+      <c r="G285" t="s">
+        <v>103</v>
+      </c>
+      <c r="H285" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A286">
+        <v>20250313</v>
+      </c>
+      <c r="B286" t="s">
+        <v>5</v>
+      </c>
+      <c r="C286" t="s">
+        <v>118</v>
+      </c>
+      <c r="D286" t="s">
+        <v>6</v>
+      </c>
+      <c r="E286" t="s">
+        <v>110</v>
+      </c>
+      <c r="F286" t="s">
+        <v>117</v>
+      </c>
+      <c r="G286" t="s">
+        <v>104</v>
+      </c>
+      <c r="H286" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A287">
+        <v>20250313</v>
+      </c>
+      <c r="B287" t="s">
+        <v>5</v>
+      </c>
+      <c r="C287" t="s">
+        <v>118</v>
+      </c>
+      <c r="D287" t="s">
+        <v>6</v>
+      </c>
+      <c r="E287" t="s">
+        <v>110</v>
+      </c>
+      <c r="F287" t="s">
+        <v>117</v>
+      </c>
+      <c r="G287" t="s">
+        <v>105</v>
+      </c>
+      <c r="H287" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A288">
+        <v>20250313</v>
+      </c>
+      <c r="B288" t="s">
+        <v>5</v>
+      </c>
+      <c r="C288" t="s">
+        <v>118</v>
+      </c>
+      <c r="D288" t="s">
+        <v>6</v>
+      </c>
+      <c r="E288" t="s">
+        <v>110</v>
+      </c>
+      <c r="F288" t="s">
+        <v>117</v>
+      </c>
+      <c r="G288" t="s">
+        <v>106</v>
+      </c>
+      <c r="H288" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A289">
+        <v>20250313</v>
+      </c>
+      <c r="B289" t="s">
+        <v>5</v>
+      </c>
+      <c r="C289" t="s">
+        <v>118</v>
+      </c>
+      <c r="D289" t="s">
+        <v>6</v>
+      </c>
+      <c r="E289" t="s">
+        <v>110</v>
+      </c>
+      <c r="F289" t="s">
+        <v>117</v>
+      </c>
+      <c r="G289" t="s">
+        <v>107</v>
+      </c>
+      <c r="H289" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A290">
+        <v>20250313</v>
+      </c>
+      <c r="B290" t="s">
+        <v>45</v>
+      </c>
+      <c r="C290" t="s">
+        <v>119</v>
+      </c>
+      <c r="D290" t="s">
+        <v>109</v>
+      </c>
+      <c r="E290" t="s">
+        <v>109</v>
+      </c>
+      <c r="F290" t="s">
+        <v>109</v>
+      </c>
+      <c r="G290" t="s">
+        <v>8</v>
+      </c>
+      <c r="H290" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A291">
+        <v>20250313</v>
+      </c>
+      <c r="B291" t="s">
+        <v>45</v>
+      </c>
+      <c r="C291" t="s">
+        <v>119</v>
+      </c>
+      <c r="D291" t="s">
+        <v>109</v>
+      </c>
+      <c r="E291" t="s">
+        <v>109</v>
+      </c>
+      <c r="F291" t="s">
+        <v>109</v>
+      </c>
+      <c r="G291" t="s">
+        <v>9</v>
+      </c>
+      <c r="H291" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A292">
+        <v>20250313</v>
+      </c>
+      <c r="B292" t="s">
+        <v>45</v>
+      </c>
+      <c r="C292" t="s">
+        <v>119</v>
+      </c>
+      <c r="D292" t="s">
+        <v>109</v>
+      </c>
+      <c r="E292" t="s">
+        <v>109</v>
+      </c>
+      <c r="F292" t="s">
+        <v>109</v>
+      </c>
+      <c r="G292" t="s">
+        <v>10</v>
+      </c>
+      <c r="H292" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A293">
+        <v>20250313</v>
+      </c>
+      <c r="B293" t="s">
+        <v>45</v>
+      </c>
+      <c r="C293" t="s">
+        <v>119</v>
+      </c>
+      <c r="D293" t="s">
+        <v>111</v>
+      </c>
+      <c r="E293" t="s">
+        <v>112</v>
+      </c>
+      <c r="F293" t="s">
+        <v>116</v>
+      </c>
+      <c r="G293" t="s">
+        <v>11</v>
+      </c>
+      <c r="H293" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A294">
+        <v>20250313</v>
+      </c>
+      <c r="B294" t="s">
+        <v>45</v>
+      </c>
+      <c r="C294" t="s">
+        <v>119</v>
+      </c>
+      <c r="D294" t="s">
+        <v>111</v>
+      </c>
+      <c r="E294" t="s">
+        <v>112</v>
+      </c>
+      <c r="F294" t="s">
+        <v>116</v>
+      </c>
+      <c r="G294" t="s">
+        <v>12</v>
+      </c>
+      <c r="H294" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A295">
+        <v>20250313</v>
+      </c>
+      <c r="B295" t="s">
+        <v>45</v>
+      </c>
+      <c r="C295" t="s">
+        <v>119</v>
+      </c>
+      <c r="D295" t="s">
+        <v>111</v>
+      </c>
+      <c r="E295" t="s">
+        <v>112</v>
+      </c>
+      <c r="F295" t="s">
+        <v>116</v>
+      </c>
+      <c r="G295" t="s">
+        <v>13</v>
+      </c>
+      <c r="H295" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A296">
+        <v>20250313</v>
+      </c>
+      <c r="B296" t="s">
+        <v>45</v>
+      </c>
+      <c r="C296" t="s">
+        <v>119</v>
+      </c>
+      <c r="D296" t="s">
+        <v>111</v>
+      </c>
+      <c r="E296" t="s">
+        <v>112</v>
+      </c>
+      <c r="F296" t="s">
+        <v>116</v>
+      </c>
+      <c r="G296" t="s">
+        <v>14</v>
+      </c>
+      <c r="H296" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A297">
+        <v>20250313</v>
+      </c>
+      <c r="B297" t="s">
+        <v>45</v>
+      </c>
+      <c r="C297" t="s">
+        <v>119</v>
+      </c>
+      <c r="D297" t="s">
+        <v>111</v>
+      </c>
+      <c r="E297" t="s">
+        <v>112</v>
+      </c>
+      <c r="F297" t="s">
+        <v>116</v>
+      </c>
+      <c r="G297" t="s">
+        <v>15</v>
+      </c>
+      <c r="H297" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A298">
+        <v>20250313</v>
+      </c>
+      <c r="B298" t="s">
+        <v>45</v>
+      </c>
+      <c r="C298" t="s">
+        <v>119</v>
+      </c>
+      <c r="D298" t="s">
+        <v>111</v>
+      </c>
+      <c r="E298" t="s">
+        <v>112</v>
+      </c>
+      <c r="F298" t="s">
+        <v>116</v>
+      </c>
+      <c r="G298" t="s">
+        <v>16</v>
+      </c>
+      <c r="H298" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A299">
+        <v>20250313</v>
+      </c>
+      <c r="B299" t="s">
+        <v>45</v>
+      </c>
+      <c r="C299" t="s">
+        <v>119</v>
+      </c>
+      <c r="D299" t="s">
+        <v>111</v>
+      </c>
+      <c r="E299" t="s">
+        <v>112</v>
+      </c>
+      <c r="F299" t="s">
+        <v>116</v>
+      </c>
+      <c r="G299" t="s">
+        <v>17</v>
+      </c>
+      <c r="H299" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A300">
+        <v>20250313</v>
+      </c>
+      <c r="B300" t="s">
+        <v>45</v>
+      </c>
+      <c r="C300" t="s">
+        <v>119</v>
+      </c>
+      <c r="D300" t="s">
+        <v>111</v>
+      </c>
+      <c r="E300" t="s">
+        <v>112</v>
+      </c>
+      <c r="F300" t="s">
+        <v>116</v>
+      </c>
+      <c r="G300" t="s">
+        <v>18</v>
+      </c>
+      <c r="H300" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A301">
+        <v>20250313</v>
+      </c>
+      <c r="B301" t="s">
+        <v>45</v>
+      </c>
+      <c r="C301" t="s">
+        <v>119</v>
+      </c>
+      <c r="D301" t="s">
+        <v>111</v>
+      </c>
+      <c r="E301" t="s">
+        <v>112</v>
+      </c>
+      <c r="F301" t="s">
+        <v>116</v>
+      </c>
+      <c r="G301" t="s">
+        <v>19</v>
+      </c>
+      <c r="H301" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A302">
+        <v>20250313</v>
+      </c>
+      <c r="B302" t="s">
+        <v>45</v>
+      </c>
+      <c r="C302" t="s">
+        <v>119</v>
+      </c>
+      <c r="D302" t="s">
+        <v>111</v>
+      </c>
+      <c r="E302" t="s">
+        <v>112</v>
+      </c>
+      <c r="F302" t="s">
+        <v>116</v>
+      </c>
+      <c r="G302" t="s">
+        <v>20</v>
+      </c>
+      <c r="H302" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A303">
+        <v>20250313</v>
+      </c>
+      <c r="B303" t="s">
+        <v>45</v>
+      </c>
+      <c r="C303" t="s">
+        <v>119</v>
+      </c>
+      <c r="D303" t="s">
+        <v>111</v>
+      </c>
+      <c r="E303" t="s">
+        <v>112</v>
+      </c>
+      <c r="F303" t="s">
+        <v>116</v>
+      </c>
+      <c r="G303" t="s">
+        <v>21</v>
+      </c>
+      <c r="H303" t="s">
+        <v>7</v>
+      </c>
+      <c r="J303" t="s">
+        <v>6</v>
+      </c>
+      <c r="K303" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A304">
+        <v>20250313</v>
+      </c>
+      <c r="B304" t="s">
+        <v>45</v>
+      </c>
+      <c r="C304" t="s">
+        <v>119</v>
+      </c>
+      <c r="D304" t="s">
+        <v>111</v>
+      </c>
+      <c r="E304" t="s">
+        <v>112</v>
+      </c>
+      <c r="F304" t="s">
+        <v>116</v>
+      </c>
+      <c r="G304" t="s">
+        <v>22</v>
+      </c>
+      <c r="H304" t="s">
+        <v>7</v>
+      </c>
+      <c r="J304" t="s">
+        <v>6</v>
+      </c>
+      <c r="K304" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A305">
+        <v>20250313</v>
+      </c>
+      <c r="B305" t="s">
+        <v>45</v>
+      </c>
+      <c r="C305" t="s">
+        <v>119</v>
+      </c>
+      <c r="D305" t="s">
+        <v>111</v>
+      </c>
+      <c r="E305" t="s">
+        <v>112</v>
+      </c>
+      <c r="F305" t="s">
+        <v>116</v>
+      </c>
+      <c r="G305" t="s">
+        <v>23</v>
+      </c>
+      <c r="H305" t="s">
+        <v>7</v>
+      </c>
+      <c r="J305" t="s">
+        <v>6</v>
+      </c>
+      <c r="K305" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A306">
+        <v>20250313</v>
+      </c>
+      <c r="B306" t="s">
+        <v>45</v>
+      </c>
+      <c r="C306" t="s">
+        <v>119</v>
+      </c>
+      <c r="D306" t="s">
+        <v>111</v>
+      </c>
+      <c r="E306" t="s">
+        <v>112</v>
+      </c>
+      <c r="F306" t="s">
+        <v>116</v>
+      </c>
+      <c r="G306" t="s">
+        <v>24</v>
+      </c>
+      <c r="H306" t="s">
+        <v>7</v>
+      </c>
+      <c r="J306" t="s">
+        <v>6</v>
+      </c>
+      <c r="K306" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A307">
+        <v>20250313</v>
+      </c>
+      <c r="B307" t="s">
+        <v>45</v>
+      </c>
+      <c r="C307" t="s">
+        <v>119</v>
+      </c>
+      <c r="D307" t="s">
+        <v>111</v>
+      </c>
+      <c r="E307" t="s">
+        <v>112</v>
+      </c>
+      <c r="F307" t="s">
+        <v>116</v>
+      </c>
+      <c r="G307" t="s">
+        <v>25</v>
+      </c>
+      <c r="H307" t="s">
+        <v>7</v>
+      </c>
+      <c r="J307" t="s">
+        <v>6</v>
+      </c>
+      <c r="K307" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A308">
+        <v>20250313</v>
+      </c>
+      <c r="B308" t="s">
+        <v>45</v>
+      </c>
+      <c r="C308" t="s">
+        <v>119</v>
+      </c>
+      <c r="D308" t="s">
+        <v>111</v>
+      </c>
+      <c r="E308" t="s">
+        <v>112</v>
+      </c>
+      <c r="F308" t="s">
+        <v>116</v>
+      </c>
+      <c r="G308" t="s">
+        <v>26</v>
+      </c>
+      <c r="H308" t="s">
+        <v>7</v>
+      </c>
+      <c r="J308" t="s">
+        <v>6</v>
+      </c>
+      <c r="K308" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A309">
+        <v>20250313</v>
+      </c>
+      <c r="B309" t="s">
+        <v>45</v>
+      </c>
+      <c r="C309" t="s">
+        <v>119</v>
+      </c>
+      <c r="D309" t="s">
+        <v>111</v>
+      </c>
+      <c r="E309" t="s">
+        <v>112</v>
+      </c>
+      <c r="F309" t="s">
+        <v>116</v>
+      </c>
+      <c r="G309" t="s">
+        <v>27</v>
+      </c>
+      <c r="H309" t="s">
+        <v>7</v>
+      </c>
+      <c r="J309" t="s">
+        <v>6</v>
+      </c>
+      <c r="K309" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A310">
+        <v>20250313</v>
+      </c>
+      <c r="B310" t="s">
+        <v>45</v>
+      </c>
+      <c r="C310" t="s">
+        <v>119</v>
+      </c>
+      <c r="D310" t="s">
+        <v>111</v>
+      </c>
+      <c r="E310" t="s">
+        <v>112</v>
+      </c>
+      <c r="F310" t="s">
+        <v>116</v>
+      </c>
+      <c r="G310" t="s">
+        <v>28</v>
+      </c>
+      <c r="H310" t="s">
+        <v>7</v>
+      </c>
+      <c r="J310" t="s">
+        <v>6</v>
+      </c>
+      <c r="K310" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A311">
+        <v>20250313</v>
+      </c>
+      <c r="B311" t="s">
+        <v>45</v>
+      </c>
+      <c r="C311" t="s">
+        <v>119</v>
+      </c>
+      <c r="D311" t="s">
+        <v>111</v>
+      </c>
+      <c r="E311" t="s">
+        <v>112</v>
+      </c>
+      <c r="F311" t="s">
+        <v>116</v>
+      </c>
+      <c r="G311" t="s">
+        <v>29</v>
+      </c>
+      <c r="H311" t="s">
+        <v>7</v>
+      </c>
+      <c r="J311" t="s">
+        <v>6</v>
+      </c>
+      <c r="K311" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A312">
+        <v>20250313</v>
+      </c>
+      <c r="B312" t="s">
+        <v>45</v>
+      </c>
+      <c r="C312" t="s">
+        <v>119</v>
+      </c>
+      <c r="D312" t="s">
+        <v>111</v>
+      </c>
+      <c r="E312" t="s">
+        <v>112</v>
+      </c>
+      <c r="F312" t="s">
+        <v>116</v>
+      </c>
+      <c r="G312" t="s">
+        <v>30</v>
+      </c>
+      <c r="H312" t="s">
+        <v>7</v>
+      </c>
+      <c r="J312" t="s">
+        <v>6</v>
+      </c>
+      <c r="K312" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A313">
+        <v>20250313</v>
+      </c>
+      <c r="B313" t="s">
+        <v>45</v>
+      </c>
+      <c r="C313" t="s">
+        <v>119</v>
+      </c>
+      <c r="D313" t="s">
+        <v>111</v>
+      </c>
+      <c r="E313" t="s">
+        <v>112</v>
+      </c>
+      <c r="F313" t="s">
+        <v>116</v>
+      </c>
+      <c r="G313" t="s">
+        <v>31</v>
+      </c>
+      <c r="H313" t="s">
+        <v>7</v>
+      </c>
+      <c r="J313" t="s">
+        <v>6</v>
+      </c>
+      <c r="K313" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A314">
+        <v>20250313</v>
+      </c>
+      <c r="B314" t="s">
+        <v>45</v>
+      </c>
+      <c r="C314" t="s">
+        <v>119</v>
+      </c>
+      <c r="D314" t="s">
+        <v>109</v>
+      </c>
+      <c r="E314" t="s">
+        <v>109</v>
+      </c>
+      <c r="F314" t="s">
+        <v>109</v>
+      </c>
+      <c r="G314" t="s">
+        <v>32</v>
+      </c>
+      <c r="H314" t="s">
+        <v>44</v>
+      </c>
+      <c r="J314" t="s">
+        <v>6</v>
+      </c>
+      <c r="K314" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A315">
+        <v>20250313</v>
+      </c>
+      <c r="B315" t="s">
+        <v>45</v>
+      </c>
+      <c r="C315" t="s">
+        <v>119</v>
+      </c>
+      <c r="D315" t="s">
+        <v>109</v>
+      </c>
+      <c r="E315" t="s">
+        <v>109</v>
+      </c>
+      <c r="F315" t="s">
+        <v>109</v>
+      </c>
+      <c r="G315" t="s">
+        <v>33</v>
+      </c>
+      <c r="H315" t="s">
+        <v>44</v>
+      </c>
+      <c r="J315" t="s">
+        <v>6</v>
+      </c>
+      <c r="K315" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A316">
+        <v>20250313</v>
+      </c>
+      <c r="B316" t="s">
+        <v>45</v>
+      </c>
+      <c r="C316" t="s">
+        <v>119</v>
+      </c>
+      <c r="D316" t="s">
+        <v>109</v>
+      </c>
+      <c r="E316" t="s">
+        <v>109</v>
+      </c>
+      <c r="F316" t="s">
+        <v>109</v>
+      </c>
+      <c r="G316" t="s">
+        <v>34</v>
+      </c>
+      <c r="H316" t="s">
+        <v>44</v>
+      </c>
+      <c r="J316" t="s">
+        <v>6</v>
+      </c>
+      <c r="K316" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A317">
+        <v>20250313</v>
+      </c>
+      <c r="B317" t="s">
+        <v>45</v>
+      </c>
+      <c r="C317" t="s">
+        <v>119</v>
+      </c>
+      <c r="D317" t="s">
+        <v>6</v>
+      </c>
+      <c r="E317" t="s">
+        <v>108</v>
+      </c>
+      <c r="F317" t="s">
+        <v>116</v>
+      </c>
+      <c r="G317" t="s">
+        <v>35</v>
+      </c>
+      <c r="H317" t="s">
+        <v>7</v>
+      </c>
+      <c r="J317" t="s">
+        <v>6</v>
+      </c>
+      <c r="K317" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A318">
+        <v>20250313</v>
+      </c>
+      <c r="B318" t="s">
+        <v>45</v>
+      </c>
+      <c r="C318" t="s">
+        <v>119</v>
+      </c>
+      <c r="D318" t="s">
+        <v>6</v>
+      </c>
+      <c r="E318" t="s">
+        <v>108</v>
+      </c>
+      <c r="F318" t="s">
+        <v>116</v>
+      </c>
+      <c r="G318" t="s">
+        <v>36</v>
+      </c>
+      <c r="H318" t="s">
+        <v>7</v>
+      </c>
+      <c r="J318" t="s">
+        <v>6</v>
+      </c>
+      <c r="K318" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A319">
+        <v>20250313</v>
+      </c>
+      <c r="B319" t="s">
+        <v>45</v>
+      </c>
+      <c r="C319" t="s">
+        <v>119</v>
+      </c>
+      <c r="D319" t="s">
+        <v>6</v>
+      </c>
+      <c r="E319" t="s">
+        <v>108</v>
+      </c>
+      <c r="F319" t="s">
+        <v>116</v>
+      </c>
+      <c r="G319" t="s">
+        <v>37</v>
+      </c>
+      <c r="H319" t="s">
+        <v>7</v>
+      </c>
+      <c r="J319" t="s">
+        <v>6</v>
+      </c>
+      <c r="K319" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A320">
+        <v>20250313</v>
+      </c>
+      <c r="B320" t="s">
+        <v>45</v>
+      </c>
+      <c r="C320" t="s">
+        <v>119</v>
+      </c>
+      <c r="D320" t="s">
+        <v>6</v>
+      </c>
+      <c r="E320" t="s">
+        <v>108</v>
+      </c>
+      <c r="F320" t="s">
+        <v>116</v>
+      </c>
+      <c r="G320" t="s">
+        <v>38</v>
+      </c>
+      <c r="H320" t="s">
+        <v>7</v>
+      </c>
+      <c r="J320" t="s">
+        <v>6</v>
+      </c>
+      <c r="K320" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A321">
+        <v>20250313</v>
+      </c>
+      <c r="B321" t="s">
+        <v>45</v>
+      </c>
+      <c r="C321" t="s">
+        <v>119</v>
+      </c>
+      <c r="D321" t="s">
+        <v>6</v>
+      </c>
+      <c r="E321" t="s">
+        <v>108</v>
+      </c>
+      <c r="F321" t="s">
+        <v>116</v>
+      </c>
+      <c r="G321" t="s">
+        <v>39</v>
+      </c>
+      <c r="H321" t="s">
+        <v>7</v>
+      </c>
+      <c r="J321" t="s">
+        <v>6</v>
+      </c>
+      <c r="K321" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A322">
+        <v>20250313</v>
+      </c>
+      <c r="B322" t="s">
+        <v>45</v>
+      </c>
+      <c r="C322" t="s">
+        <v>119</v>
+      </c>
+      <c r="D322" t="s">
+        <v>6</v>
+      </c>
+      <c r="E322" t="s">
+        <v>108</v>
+      </c>
+      <c r="F322" t="s">
+        <v>116</v>
+      </c>
+      <c r="G322" t="s">
+        <v>40</v>
+      </c>
+      <c r="H322" t="s">
+        <v>7</v>
+      </c>
+      <c r="J322" t="s">
+        <v>6</v>
+      </c>
+      <c r="K322" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A323">
+        <v>20250313</v>
+      </c>
+      <c r="B323" t="s">
+        <v>45</v>
+      </c>
+      <c r="C323" t="s">
+        <v>119</v>
+      </c>
+      <c r="D323" t="s">
+        <v>6</v>
+      </c>
+      <c r="E323" t="s">
+        <v>108</v>
+      </c>
+      <c r="F323" t="s">
+        <v>116</v>
+      </c>
+      <c r="G323" t="s">
+        <v>41</v>
+      </c>
+      <c r="H323" t="s">
+        <v>7</v>
+      </c>
+      <c r="J323" t="s">
+        <v>6</v>
+      </c>
+      <c r="K323" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A324">
+        <v>20250313</v>
+      </c>
+      <c r="B324" t="s">
+        <v>45</v>
+      </c>
+      <c r="C324" t="s">
+        <v>119</v>
+      </c>
+      <c r="D324" t="s">
+        <v>6</v>
+      </c>
+      <c r="E324" t="s">
+        <v>108</v>
+      </c>
+      <c r="F324" t="s">
+        <v>116</v>
+      </c>
+      <c r="G324" t="s">
+        <v>42</v>
+      </c>
+      <c r="H324" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A325">
+        <v>20250313</v>
+      </c>
+      <c r="B325" t="s">
+        <v>45</v>
+      </c>
+      <c r="C325" t="s">
+        <v>119</v>
+      </c>
+      <c r="D325" t="s">
+        <v>6</v>
+      </c>
+      <c r="E325" t="s">
+        <v>108</v>
+      </c>
+      <c r="F325" t="s">
+        <v>116</v>
+      </c>
+      <c r="G325" t="s">
+        <v>43</v>
+      </c>
+      <c r="H325" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A326">
+        <v>20250313</v>
+      </c>
+      <c r="B326" t="s">
+        <v>45</v>
+      </c>
+      <c r="C326" t="s">
+        <v>119</v>
+      </c>
+      <c r="D326" t="s">
+        <v>6</v>
+      </c>
+      <c r="E326" t="s">
+        <v>108</v>
+      </c>
+      <c r="F326" t="s">
+        <v>116</v>
+      </c>
+      <c r="G326" t="s">
+        <v>48</v>
+      </c>
+      <c r="H326" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A327">
+        <v>20250313</v>
+      </c>
+      <c r="B327" t="s">
+        <v>45</v>
+      </c>
+      <c r="C327" t="s">
+        <v>119</v>
+      </c>
+      <c r="D327" t="s">
+        <v>6</v>
+      </c>
+      <c r="E327" t="s">
+        <v>108</v>
+      </c>
+      <c r="F327" t="s">
+        <v>116</v>
+      </c>
+      <c r="G327" t="s">
+        <v>49</v>
+      </c>
+      <c r="H327" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A328">
+        <v>20250313</v>
+      </c>
+      <c r="B328" t="s">
+        <v>45</v>
+      </c>
+      <c r="C328" t="s">
+        <v>119</v>
+      </c>
+      <c r="D328" t="s">
+        <v>6</v>
+      </c>
+      <c r="E328" t="s">
+        <v>108</v>
+      </c>
+      <c r="F328" t="s">
+        <v>116</v>
+      </c>
+      <c r="G328" t="s">
+        <v>50</v>
+      </c>
+      <c r="H328" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A329">
+        <v>20250313</v>
+      </c>
+      <c r="B329" t="s">
+        <v>45</v>
+      </c>
+      <c r="C329" t="s">
+        <v>119</v>
+      </c>
+      <c r="D329" t="s">
+        <v>6</v>
+      </c>
+      <c r="E329" t="s">
+        <v>108</v>
+      </c>
+      <c r="F329" t="s">
+        <v>116</v>
+      </c>
+      <c r="G329" t="s">
+        <v>51</v>
+      </c>
+      <c r="H329" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A330">
+        <v>20250313</v>
+      </c>
+      <c r="B330" t="s">
+        <v>45</v>
+      </c>
+      <c r="C330" t="s">
+        <v>119</v>
+      </c>
+      <c r="D330" t="s">
+        <v>6</v>
+      </c>
+      <c r="E330" t="s">
+        <v>108</v>
+      </c>
+      <c r="F330" t="s">
+        <v>116</v>
+      </c>
+      <c r="G330" t="s">
+        <v>52</v>
+      </c>
+      <c r="H330" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A331">
+        <v>20250313</v>
+      </c>
+      <c r="B331" t="s">
+        <v>45</v>
+      </c>
+      <c r="C331" t="s">
+        <v>119</v>
+      </c>
+      <c r="D331" t="s">
+        <v>6</v>
+      </c>
+      <c r="E331" t="s">
+        <v>108</v>
+      </c>
+      <c r="F331" t="s">
+        <v>116</v>
+      </c>
+      <c r="G331" t="s">
+        <v>53</v>
+      </c>
+      <c r="H331" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A332">
+        <v>20250313</v>
+      </c>
+      <c r="B332" t="s">
+        <v>45</v>
+      </c>
+      <c r="C332" t="s">
+        <v>119</v>
+      </c>
+      <c r="D332" t="s">
+        <v>6</v>
+      </c>
+      <c r="E332" t="s">
+        <v>108</v>
+      </c>
+      <c r="F332" t="s">
+        <v>116</v>
+      </c>
+      <c r="G332" t="s">
+        <v>54</v>
+      </c>
+      <c r="H332" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A333">
+        <v>20250313</v>
+      </c>
+      <c r="B333" t="s">
+        <v>45</v>
+      </c>
+      <c r="C333" t="s">
+        <v>119</v>
+      </c>
+      <c r="D333" t="s">
+        <v>6</v>
+      </c>
+      <c r="E333" t="s">
+        <v>108</v>
+      </c>
+      <c r="F333" t="s">
+        <v>116</v>
+      </c>
+      <c r="G333" t="s">
+        <v>55</v>
+      </c>
+      <c r="H333" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A334">
+        <v>20250313</v>
+      </c>
+      <c r="B334" t="s">
+        <v>45</v>
+      </c>
+      <c r="C334" t="s">
+        <v>119</v>
+      </c>
+      <c r="D334" t="s">
+        <v>6</v>
+      </c>
+      <c r="E334" t="s">
+        <v>108</v>
+      </c>
+      <c r="F334" t="s">
+        <v>116</v>
+      </c>
+      <c r="G334" t="s">
+        <v>56</v>
+      </c>
+      <c r="H334" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A335">
+        <v>20250313</v>
+      </c>
+      <c r="B335" t="s">
+        <v>45</v>
+      </c>
+      <c r="C335" t="s">
+        <v>119</v>
+      </c>
+      <c r="D335" t="s">
+        <v>6</v>
+      </c>
+      <c r="E335" t="s">
+        <v>108</v>
+      </c>
+      <c r="F335" t="s">
+        <v>116</v>
+      </c>
+      <c r="G335" t="s">
+        <v>57</v>
+      </c>
+      <c r="H335" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A336">
+        <v>20250313</v>
+      </c>
+      <c r="B336" t="s">
+        <v>45</v>
+      </c>
+      <c r="C336" t="s">
+        <v>119</v>
+      </c>
+      <c r="D336" t="s">
+        <v>6</v>
+      </c>
+      <c r="E336" t="s">
+        <v>108</v>
+      </c>
+      <c r="F336" t="s">
+        <v>116</v>
+      </c>
+      <c r="G336" t="s">
+        <v>58</v>
+      </c>
+      <c r="H336" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A337">
+        <v>20250313</v>
+      </c>
+      <c r="B337" t="s">
+        <v>45</v>
+      </c>
+      <c r="C337" t="s">
+        <v>119</v>
+      </c>
+      <c r="D337" t="s">
+        <v>6</v>
+      </c>
+      <c r="E337" t="s">
+        <v>108</v>
+      </c>
+      <c r="F337" t="s">
+        <v>116</v>
+      </c>
+      <c r="G337" t="s">
+        <v>59</v>
+      </c>
+      <c r="H337" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A338">
+        <v>20250313</v>
+      </c>
+      <c r="B338" t="s">
+        <v>45</v>
+      </c>
+      <c r="C338" t="s">
+        <v>119</v>
+      </c>
+      <c r="D338" t="s">
+        <v>109</v>
+      </c>
+      <c r="E338" t="s">
+        <v>109</v>
+      </c>
+      <c r="F338" t="s">
+        <v>109</v>
+      </c>
+      <c r="G338" t="s">
+        <v>60</v>
+      </c>
+      <c r="H338" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A339">
+        <v>20250313</v>
+      </c>
+      <c r="B339" t="s">
+        <v>45</v>
+      </c>
+      <c r="C339" t="s">
+        <v>119</v>
+      </c>
+      <c r="D339" t="s">
+        <v>109</v>
+      </c>
+      <c r="E339" t="s">
+        <v>109</v>
+      </c>
+      <c r="F339" t="s">
+        <v>109</v>
+      </c>
+      <c r="G339" t="s">
+        <v>61</v>
+      </c>
+      <c r="H339" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A340">
+        <v>20250313</v>
+      </c>
+      <c r="B340" t="s">
+        <v>45</v>
+      </c>
+      <c r="C340" t="s">
+        <v>119</v>
+      </c>
+      <c r="D340" t="s">
+        <v>109</v>
+      </c>
+      <c r="E340" t="s">
+        <v>109</v>
+      </c>
+      <c r="F340" t="s">
+        <v>109</v>
+      </c>
+      <c r="G340" t="s">
+        <v>62</v>
+      </c>
+      <c r="H340" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A341">
+        <v>20250313</v>
+      </c>
+      <c r="B341" t="s">
+        <v>45</v>
+      </c>
+      <c r="C341" t="s">
+        <v>119</v>
+      </c>
+      <c r="D341" t="s">
+        <v>111</v>
+      </c>
+      <c r="E341" t="s">
+        <v>113</v>
+      </c>
+      <c r="F341" t="s">
+        <v>117</v>
+      </c>
+      <c r="G341" t="s">
+        <v>63</v>
+      </c>
+      <c r="H341" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A342">
+        <v>20250313</v>
+      </c>
+      <c r="B342" t="s">
+        <v>45</v>
+      </c>
+      <c r="C342" t="s">
+        <v>119</v>
+      </c>
+      <c r="D342" t="s">
+        <v>111</v>
+      </c>
+      <c r="E342" t="s">
+        <v>113</v>
+      </c>
+      <c r="F342" t="s">
+        <v>117</v>
+      </c>
+      <c r="G342" t="s">
+        <v>64</v>
+      </c>
+      <c r="H342" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A343">
+        <v>20250313</v>
+      </c>
+      <c r="B343" t="s">
+        <v>45</v>
+      </c>
+      <c r="C343" t="s">
+        <v>119</v>
+      </c>
+      <c r="D343" t="s">
+        <v>111</v>
+      </c>
+      <c r="E343" t="s">
+        <v>113</v>
+      </c>
+      <c r="F343" t="s">
+        <v>117</v>
+      </c>
+      <c r="G343" t="s">
+        <v>65</v>
+      </c>
+      <c r="H343" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A344">
+        <v>20250313</v>
+      </c>
+      <c r="B344" t="s">
+        <v>45</v>
+      </c>
+      <c r="C344" t="s">
+        <v>119</v>
+      </c>
+      <c r="D344" t="s">
+        <v>111</v>
+      </c>
+      <c r="E344" t="s">
+        <v>113</v>
+      </c>
+      <c r="F344" t="s">
+        <v>117</v>
+      </c>
+      <c r="G344" t="s">
+        <v>66</v>
+      </c>
+      <c r="H344" t="s">
+        <v>7</v>
+      </c>
+      <c r="J344" t="s">
+        <v>6</v>
+      </c>
+      <c r="K344" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A345">
+        <v>20250313</v>
+      </c>
+      <c r="B345" t="s">
+        <v>45</v>
+      </c>
+      <c r="C345" t="s">
+        <v>119</v>
+      </c>
+      <c r="D345" t="s">
+        <v>111</v>
+      </c>
+      <c r="E345" t="s">
+        <v>113</v>
+      </c>
+      <c r="F345" t="s">
+        <v>117</v>
+      </c>
+      <c r="G345" t="s">
+        <v>67</v>
+      </c>
+      <c r="H345" t="s">
+        <v>7</v>
+      </c>
+      <c r="J345" t="s">
+        <v>6</v>
+      </c>
+      <c r="K345" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A346">
+        <v>20250313</v>
+      </c>
+      <c r="B346" t="s">
+        <v>45</v>
+      </c>
+      <c r="C346" t="s">
+        <v>119</v>
+      </c>
+      <c r="D346" t="s">
+        <v>111</v>
+      </c>
+      <c r="E346" t="s">
+        <v>113</v>
+      </c>
+      <c r="F346" t="s">
+        <v>117</v>
+      </c>
+      <c r="G346" t="s">
+        <v>68</v>
+      </c>
+      <c r="H346" t="s">
+        <v>7</v>
+      </c>
+      <c r="J346" t="s">
+        <v>6</v>
+      </c>
+      <c r="K346" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A347">
+        <v>20250313</v>
+      </c>
+      <c r="B347" t="s">
+        <v>45</v>
+      </c>
+      <c r="C347" t="s">
+        <v>119</v>
+      </c>
+      <c r="D347" t="s">
+        <v>111</v>
+      </c>
+      <c r="E347" t="s">
+        <v>113</v>
+      </c>
+      <c r="F347" t="s">
+        <v>117</v>
+      </c>
+      <c r="G347" t="s">
+        <v>69</v>
+      </c>
+      <c r="H347" t="s">
+        <v>7</v>
+      </c>
+      <c r="J347" t="s">
+        <v>6</v>
+      </c>
+      <c r="K347" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A348">
+        <v>20250313</v>
+      </c>
+      <c r="B348" t="s">
+        <v>45</v>
+      </c>
+      <c r="C348" t="s">
+        <v>119</v>
+      </c>
+      <c r="D348" t="s">
+        <v>111</v>
+      </c>
+      <c r="E348" t="s">
+        <v>113</v>
+      </c>
+      <c r="F348" t="s">
+        <v>117</v>
+      </c>
+      <c r="G348" t="s">
+        <v>70</v>
+      </c>
+      <c r="H348" t="s">
+        <v>7</v>
+      </c>
+      <c r="J348" t="s">
+        <v>6</v>
+      </c>
+      <c r="K348" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A349">
+        <v>20250313</v>
+      </c>
+      <c r="B349" t="s">
+        <v>45</v>
+      </c>
+      <c r="C349" t="s">
+        <v>119</v>
+      </c>
+      <c r="D349" t="s">
+        <v>111</v>
+      </c>
+      <c r="E349" t="s">
+        <v>113</v>
+      </c>
+      <c r="F349" t="s">
+        <v>117</v>
+      </c>
+      <c r="G349" t="s">
+        <v>71</v>
+      </c>
+      <c r="H349" t="s">
+        <v>7</v>
+      </c>
+      <c r="J349" t="s">
+        <v>6</v>
+      </c>
+      <c r="K349" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A350">
+        <v>20250313</v>
+      </c>
+      <c r="B350" t="s">
+        <v>45</v>
+      </c>
+      <c r="C350" t="s">
+        <v>119</v>
+      </c>
+      <c r="D350" t="s">
+        <v>111</v>
+      </c>
+      <c r="E350" t="s">
+        <v>113</v>
+      </c>
+      <c r="F350" t="s">
+        <v>117</v>
+      </c>
+      <c r="G350" t="s">
+        <v>72</v>
+      </c>
+      <c r="H350" t="s">
+        <v>7</v>
+      </c>
+      <c r="J350" t="s">
+        <v>6</v>
+      </c>
+      <c r="K350" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A351">
+        <v>20250313</v>
+      </c>
+      <c r="B351" t="s">
+        <v>45</v>
+      </c>
+      <c r="C351" t="s">
+        <v>119</v>
+      </c>
+      <c r="D351" t="s">
+        <v>111</v>
+      </c>
+      <c r="E351" t="s">
+        <v>113</v>
+      </c>
+      <c r="F351" t="s">
+        <v>117</v>
+      </c>
+      <c r="G351" t="s">
+        <v>73</v>
+      </c>
+      <c r="H351" t="s">
+        <v>7</v>
+      </c>
+      <c r="J351" t="s">
+        <v>6</v>
+      </c>
+      <c r="K351" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A352">
+        <v>20250313</v>
+      </c>
+      <c r="B352" t="s">
+        <v>45</v>
+      </c>
+      <c r="C352" t="s">
+        <v>119</v>
+      </c>
+      <c r="D352" t="s">
+        <v>111</v>
+      </c>
+      <c r="E352" t="s">
+        <v>113</v>
+      </c>
+      <c r="F352" t="s">
+        <v>117</v>
+      </c>
+      <c r="G352" t="s">
+        <v>74</v>
+      </c>
+      <c r="H352" t="s">
+        <v>7</v>
+      </c>
+      <c r="J352" t="s">
+        <v>6</v>
+      </c>
+      <c r="K352" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A353">
+        <v>20250313</v>
+      </c>
+      <c r="B353" t="s">
+        <v>45</v>
+      </c>
+      <c r="C353" t="s">
+        <v>119</v>
+      </c>
+      <c r="D353" t="s">
+        <v>111</v>
+      </c>
+      <c r="E353" t="s">
+        <v>113</v>
+      </c>
+      <c r="F353" t="s">
+        <v>117</v>
+      </c>
+      <c r="G353" t="s">
+        <v>75</v>
+      </c>
+      <c r="H353" t="s">
+        <v>7</v>
+      </c>
+      <c r="J353" t="s">
+        <v>6</v>
+      </c>
+      <c r="K353" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A354">
+        <v>20250313</v>
+      </c>
+      <c r="B354" t="s">
+        <v>45</v>
+      </c>
+      <c r="C354" t="s">
+        <v>119</v>
+      </c>
+      <c r="D354" t="s">
+        <v>111</v>
+      </c>
+      <c r="E354" t="s">
+        <v>113</v>
+      </c>
+      <c r="F354" t="s">
+        <v>117</v>
+      </c>
+      <c r="G354" t="s">
+        <v>76</v>
+      </c>
+      <c r="H354" t="s">
+        <v>7</v>
+      </c>
+      <c r="J354" t="s">
+        <v>6</v>
+      </c>
+      <c r="K354" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A355">
+        <v>20250313</v>
+      </c>
+      <c r="B355" t="s">
+        <v>45</v>
+      </c>
+      <c r="C355" t="s">
+        <v>119</v>
+      </c>
+      <c r="D355" t="s">
+        <v>111</v>
+      </c>
+      <c r="E355" t="s">
+        <v>113</v>
+      </c>
+      <c r="F355" t="s">
+        <v>117</v>
+      </c>
+      <c r="G355" t="s">
+        <v>77</v>
+      </c>
+      <c r="H355" t="s">
+        <v>7</v>
+      </c>
+      <c r="J355" t="s">
+        <v>6</v>
+      </c>
+      <c r="K355" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A356">
+        <v>20250313</v>
+      </c>
+      <c r="B356" t="s">
+        <v>45</v>
+      </c>
+      <c r="C356" t="s">
+        <v>119</v>
+      </c>
+      <c r="D356" t="s">
+        <v>111</v>
+      </c>
+      <c r="E356" t="s">
+        <v>113</v>
+      </c>
+      <c r="F356" t="s">
+        <v>117</v>
+      </c>
+      <c r="G356" t="s">
+        <v>78</v>
+      </c>
+      <c r="H356" t="s">
+        <v>7</v>
+      </c>
+      <c r="J356" t="s">
+        <v>6</v>
+      </c>
+      <c r="K356" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357">
+        <v>20250313</v>
+      </c>
+      <c r="B357" t="s">
+        <v>45</v>
+      </c>
+      <c r="C357" t="s">
+        <v>119</v>
+      </c>
+      <c r="D357" t="s">
+        <v>111</v>
+      </c>
+      <c r="E357" t="s">
+        <v>113</v>
+      </c>
+      <c r="F357" t="s">
+        <v>117</v>
+      </c>
+      <c r="G357" t="s">
+        <v>79</v>
+      </c>
+      <c r="H357" t="s">
+        <v>7</v>
+      </c>
+      <c r="J357" t="s">
+        <v>6</v>
+      </c>
+      <c r="K357" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358">
+        <v>20250313</v>
+      </c>
+      <c r="B358" t="s">
+        <v>45</v>
+      </c>
+      <c r="C358" t="s">
+        <v>119</v>
+      </c>
+      <c r="D358" t="s">
+        <v>111</v>
+      </c>
+      <c r="E358" t="s">
+        <v>113</v>
+      </c>
+      <c r="F358" t="s">
+        <v>117</v>
+      </c>
+      <c r="G358" t="s">
+        <v>80</v>
+      </c>
+      <c r="H358" t="s">
+        <v>7</v>
+      </c>
+      <c r="J358" t="s">
+        <v>6</v>
+      </c>
+      <c r="K358" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359">
+        <v>20250313</v>
+      </c>
+      <c r="B359" t="s">
+        <v>45</v>
+      </c>
+      <c r="C359" t="s">
+        <v>119</v>
+      </c>
+      <c r="D359" t="s">
+        <v>111</v>
+      </c>
+      <c r="E359" t="s">
+        <v>113</v>
+      </c>
+      <c r="F359" t="s">
+        <v>117</v>
+      </c>
+      <c r="G359" t="s">
+        <v>81</v>
+      </c>
+      <c r="H359" t="s">
+        <v>7</v>
+      </c>
+      <c r="J359" t="s">
+        <v>6</v>
+      </c>
+      <c r="K359" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360">
+        <v>20250313</v>
+      </c>
+      <c r="B360" t="s">
+        <v>45</v>
+      </c>
+      <c r="C360" t="s">
+        <v>119</v>
+      </c>
+      <c r="D360" t="s">
+        <v>111</v>
+      </c>
+      <c r="E360" t="s">
+        <v>113</v>
+      </c>
+      <c r="F360" t="s">
+        <v>117</v>
+      </c>
+      <c r="G360" t="s">
+        <v>82</v>
+      </c>
+      <c r="H360" t="s">
+        <v>7</v>
+      </c>
+      <c r="J360" t="s">
+        <v>6</v>
+      </c>
+      <c r="K360" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361">
+        <v>20250313</v>
+      </c>
+      <c r="B361" t="s">
+        <v>45</v>
+      </c>
+      <c r="C361" t="s">
+        <v>119</v>
+      </c>
+      <c r="D361" t="s">
+        <v>111</v>
+      </c>
+      <c r="E361" t="s">
+        <v>113</v>
+      </c>
+      <c r="F361" t="s">
+        <v>117</v>
+      </c>
+      <c r="G361" t="s">
+        <v>83</v>
+      </c>
+      <c r="H361" t="s">
+        <v>7</v>
+      </c>
+      <c r="J361" t="s">
+        <v>6</v>
+      </c>
+      <c r="K361" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362">
+        <v>20250313</v>
+      </c>
+      <c r="B362" t="s">
+        <v>45</v>
+      </c>
+      <c r="C362" t="s">
+        <v>119</v>
+      </c>
+      <c r="D362" t="s">
+        <v>109</v>
+      </c>
+      <c r="E362" t="s">
+        <v>109</v>
+      </c>
+      <c r="F362" t="s">
+        <v>109</v>
+      </c>
+      <c r="G362" t="s">
+        <v>84</v>
+      </c>
+      <c r="H362" t="s">
+        <v>44</v>
+      </c>
+      <c r="J362" t="s">
+        <v>6</v>
+      </c>
+      <c r="K362" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363">
+        <v>20250313</v>
+      </c>
+      <c r="B363" t="s">
+        <v>45</v>
+      </c>
+      <c r="C363" t="s">
+        <v>119</v>
+      </c>
+      <c r="D363" t="s">
+        <v>109</v>
+      </c>
+      <c r="E363" t="s">
+        <v>109</v>
+      </c>
+      <c r="F363" t="s">
+        <v>109</v>
+      </c>
+      <c r="G363" t="s">
+        <v>85</v>
+      </c>
+      <c r="H363" t="s">
+        <v>44</v>
+      </c>
+      <c r="J363" t="s">
+        <v>6</v>
+      </c>
+      <c r="K363" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364">
+        <v>20250313</v>
+      </c>
+      <c r="B364" t="s">
+        <v>45</v>
+      </c>
+      <c r="C364" t="s">
+        <v>119</v>
+      </c>
+      <c r="D364" t="s">
+        <v>109</v>
+      </c>
+      <c r="E364" t="s">
+        <v>109</v>
+      </c>
+      <c r="F364" t="s">
+        <v>109</v>
+      </c>
+      <c r="G364" t="s">
+        <v>86</v>
+      </c>
+      <c r="H364" t="s">
+        <v>44</v>
+      </c>
+      <c r="J364" t="s">
+        <v>6</v>
+      </c>
+      <c r="K364" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365">
+        <v>20250313</v>
+      </c>
+      <c r="B365" t="s">
+        <v>45</v>
+      </c>
+      <c r="C365" t="s">
+        <v>119</v>
+      </c>
+      <c r="D365" t="s">
+        <v>6</v>
+      </c>
+      <c r="E365" t="s">
+        <v>110</v>
+      </c>
+      <c r="F365" t="s">
+        <v>117</v>
+      </c>
+      <c r="G365" t="s">
+        <v>87</v>
+      </c>
+      <c r="H365" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366">
+        <v>20250313</v>
+      </c>
+      <c r="B366" t="s">
+        <v>45</v>
+      </c>
+      <c r="C366" t="s">
+        <v>119</v>
+      </c>
+      <c r="D366" t="s">
+        <v>6</v>
+      </c>
+      <c r="E366" t="s">
+        <v>110</v>
+      </c>
+      <c r="F366" t="s">
+        <v>117</v>
+      </c>
+      <c r="G366" t="s">
+        <v>88</v>
+      </c>
+      <c r="H366" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367">
+        <v>20250313</v>
+      </c>
+      <c r="B367" t="s">
+        <v>45</v>
+      </c>
+      <c r="C367" t="s">
+        <v>119</v>
+      </c>
+      <c r="D367" t="s">
+        <v>6</v>
+      </c>
+      <c r="E367" t="s">
+        <v>110</v>
+      </c>
+      <c r="F367" t="s">
+        <v>117</v>
+      </c>
+      <c r="G367" t="s">
+        <v>89</v>
+      </c>
+      <c r="H367" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368">
+        <v>20250313</v>
+      </c>
+      <c r="B368" t="s">
+        <v>45</v>
+      </c>
+      <c r="C368" t="s">
+        <v>119</v>
+      </c>
+      <c r="D368" t="s">
+        <v>6</v>
+      </c>
+      <c r="E368" t="s">
+        <v>110</v>
+      </c>
+      <c r="F368" t="s">
+        <v>117</v>
+      </c>
+      <c r="G368" t="s">
+        <v>90</v>
+      </c>
+      <c r="H368" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369">
+        <v>20250313</v>
+      </c>
+      <c r="B369" t="s">
+        <v>45</v>
+      </c>
+      <c r="C369" t="s">
+        <v>119</v>
+      </c>
+      <c r="D369" t="s">
+        <v>6</v>
+      </c>
+      <c r="E369" t="s">
+        <v>110</v>
+      </c>
+      <c r="F369" t="s">
+        <v>117</v>
+      </c>
+      <c r="G369" t="s">
+        <v>91</v>
+      </c>
+      <c r="H369" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370">
+        <v>20250313</v>
+      </c>
+      <c r="B370" t="s">
+        <v>45</v>
+      </c>
+      <c r="C370" t="s">
+        <v>119</v>
+      </c>
+      <c r="D370" t="s">
+        <v>6</v>
+      </c>
+      <c r="E370" t="s">
+        <v>110</v>
+      </c>
+      <c r="F370" t="s">
+        <v>117</v>
+      </c>
+      <c r="G370" t="s">
+        <v>92</v>
+      </c>
+      <c r="H370" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371">
+        <v>20250313</v>
+      </c>
+      <c r="B371" t="s">
+        <v>45</v>
+      </c>
+      <c r="C371" t="s">
+        <v>119</v>
+      </c>
+      <c r="D371" t="s">
+        <v>6</v>
+      </c>
+      <c r="E371" t="s">
+        <v>110</v>
+      </c>
+      <c r="F371" t="s">
+        <v>117</v>
+      </c>
+      <c r="G371" t="s">
+        <v>93</v>
+      </c>
+      <c r="H371" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372">
+        <v>20250313</v>
+      </c>
+      <c r="B372" t="s">
+        <v>45</v>
+      </c>
+      <c r="C372" t="s">
+        <v>119</v>
+      </c>
+      <c r="D372" t="s">
+        <v>6</v>
+      </c>
+      <c r="E372" t="s">
+        <v>110</v>
+      </c>
+      <c r="F372" t="s">
+        <v>117</v>
+      </c>
+      <c r="G372" t="s">
+        <v>94</v>
+      </c>
+      <c r="H372" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373">
+        <v>20250313</v>
+      </c>
+      <c r="B373" t="s">
+        <v>45</v>
+      </c>
+      <c r="C373" t="s">
+        <v>119</v>
+      </c>
+      <c r="D373" t="s">
+        <v>6</v>
+      </c>
+      <c r="E373" t="s">
+        <v>110</v>
+      </c>
+      <c r="F373" t="s">
+        <v>117</v>
+      </c>
+      <c r="G373" t="s">
+        <v>95</v>
+      </c>
+      <c r="H373" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374">
+        <v>20250313</v>
+      </c>
+      <c r="B374" t="s">
+        <v>45</v>
+      </c>
+      <c r="C374" t="s">
+        <v>119</v>
+      </c>
+      <c r="D374" t="s">
+        <v>6</v>
+      </c>
+      <c r="E374" t="s">
+        <v>110</v>
+      </c>
+      <c r="F374" t="s">
+        <v>117</v>
+      </c>
+      <c r="G374" t="s">
+        <v>96</v>
+      </c>
+      <c r="H374" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375">
+        <v>20250313</v>
+      </c>
+      <c r="B375" t="s">
+        <v>45</v>
+      </c>
+      <c r="C375" t="s">
+        <v>119</v>
+      </c>
+      <c r="D375" t="s">
+        <v>6</v>
+      </c>
+      <c r="E375" t="s">
+        <v>110</v>
+      </c>
+      <c r="F375" t="s">
+        <v>117</v>
+      </c>
+      <c r="G375" t="s">
+        <v>97</v>
+      </c>
+      <c r="H375" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A376">
+        <v>20250313</v>
+      </c>
+      <c r="B376" t="s">
+        <v>45</v>
+      </c>
+      <c r="C376" t="s">
+        <v>119</v>
+      </c>
+      <c r="D376" t="s">
+        <v>6</v>
+      </c>
+      <c r="E376" t="s">
+        <v>110</v>
+      </c>
+      <c r="F376" t="s">
+        <v>117</v>
+      </c>
+      <c r="G376" t="s">
+        <v>98</v>
+      </c>
+      <c r="H376" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A377">
+        <v>20250313</v>
+      </c>
+      <c r="B377" t="s">
+        <v>45</v>
+      </c>
+      <c r="C377" t="s">
+        <v>119</v>
+      </c>
+      <c r="D377" t="s">
+        <v>6</v>
+      </c>
+      <c r="E377" t="s">
+        <v>110</v>
+      </c>
+      <c r="F377" t="s">
+        <v>117</v>
+      </c>
+      <c r="G377" t="s">
+        <v>99</v>
+      </c>
+      <c r="H377" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A378">
+        <v>20250313</v>
+      </c>
+      <c r="B378" t="s">
+        <v>45</v>
+      </c>
+      <c r="C378" t="s">
+        <v>119</v>
+      </c>
+      <c r="D378" t="s">
+        <v>6</v>
+      </c>
+      <c r="E378" t="s">
+        <v>110</v>
+      </c>
+      <c r="F378" t="s">
+        <v>117</v>
+      </c>
+      <c r="G378" t="s">
+        <v>100</v>
+      </c>
+      <c r="H378" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A379">
+        <v>20250313</v>
+      </c>
+      <c r="B379" t="s">
+        <v>45</v>
+      </c>
+      <c r="C379" t="s">
+        <v>119</v>
+      </c>
+      <c r="D379" t="s">
+        <v>6</v>
+      </c>
+      <c r="E379" t="s">
+        <v>110</v>
+      </c>
+      <c r="F379" t="s">
+        <v>117</v>
+      </c>
+      <c r="G379" t="s">
+        <v>101</v>
+      </c>
+      <c r="H379" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A380">
+        <v>20250313</v>
+      </c>
+      <c r="B380" t="s">
+        <v>45</v>
+      </c>
+      <c r="C380" t="s">
+        <v>119</v>
+      </c>
+      <c r="D380" t="s">
+        <v>6</v>
+      </c>
+      <c r="E380" t="s">
+        <v>110</v>
+      </c>
+      <c r="F380" t="s">
+        <v>117</v>
+      </c>
+      <c r="G380" t="s">
+        <v>102</v>
+      </c>
+      <c r="H380" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A381">
+        <v>20250313</v>
+      </c>
+      <c r="B381" t="s">
+        <v>45</v>
+      </c>
+      <c r="C381" t="s">
+        <v>119</v>
+      </c>
+      <c r="D381" t="s">
+        <v>6</v>
+      </c>
+      <c r="E381" t="s">
+        <v>110</v>
+      </c>
+      <c r="F381" t="s">
+        <v>117</v>
+      </c>
+      <c r="G381" t="s">
+        <v>103</v>
+      </c>
+      <c r="H381" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A382">
+        <v>20250313</v>
+      </c>
+      <c r="B382" t="s">
+        <v>45</v>
+      </c>
+      <c r="C382" t="s">
+        <v>119</v>
+      </c>
+      <c r="D382" t="s">
+        <v>6</v>
+      </c>
+      <c r="E382" t="s">
+        <v>110</v>
+      </c>
+      <c r="F382" t="s">
+        <v>117</v>
+      </c>
+      <c r="G382" t="s">
+        <v>104</v>
+      </c>
+      <c r="H382" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A383">
+        <v>20250313</v>
+      </c>
+      <c r="B383" t="s">
+        <v>45</v>
+      </c>
+      <c r="C383" t="s">
+        <v>119</v>
+      </c>
+      <c r="D383" t="s">
+        <v>6</v>
+      </c>
+      <c r="E383" t="s">
+        <v>110</v>
+      </c>
+      <c r="F383" t="s">
+        <v>117</v>
+      </c>
+      <c r="G383" t="s">
+        <v>105</v>
+      </c>
+      <c r="H383" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A384">
+        <v>20250313</v>
+      </c>
+      <c r="B384" t="s">
+        <v>45</v>
+      </c>
+      <c r="C384" t="s">
+        <v>119</v>
+      </c>
+      <c r="D384" t="s">
+        <v>6</v>
+      </c>
+      <c r="E384" t="s">
+        <v>110</v>
+      </c>
+      <c r="F384" t="s">
+        <v>117</v>
+      </c>
+      <c r="G384" t="s">
+        <v>106</v>
+      </c>
+      <c r="H384" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A385">
+        <v>20250313</v>
+      </c>
+      <c r="B385" t="s">
+        <v>45</v>
+      </c>
+      <c r="C385" t="s">
+        <v>119</v>
+      </c>
+      <c r="D385" t="s">
+        <v>6</v>
+      </c>
+      <c r="E385" t="s">
+        <v>110</v>
+      </c>
+      <c r="F385" t="s">
+        <v>117</v>
+      </c>
+      <c r="G385" t="s">
+        <v>107</v>
+      </c>
+      <c r="H385" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/data/resazurin/metadata/metadata_batch2.xlsx
+++ b/data/resazurin/metadata/metadata_batch2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/resazurin/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07423563-AC28-314C-B024-8E9D3280DAA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B704F6E-6EFF-844E-B684-00BD76C172A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="760" windowWidth="19460" windowHeight="17760" xr2:uid="{F9B76D48-E646-9D48-9AB8-3319F507EDF2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2822" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="121">
   <si>
     <t>date</t>
   </si>
@@ -396,6 +396,9 @@
   </si>
   <si>
     <t>36C</t>
+  </si>
+  <si>
+    <t>42C</t>
   </si>
 </sst>
 </file>
@@ -773,10 +776,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7159BF13-8618-0540-AFAB-AF0D60C37565}">
-  <dimension ref="A1:K385"/>
+  <dimension ref="A1:H577"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A351" workbookViewId="0">
-      <selection activeCell="C379" sqref="C379"/>
+    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
+      <selection activeCell="E531" sqref="E531"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -7027,7 +7030,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A241">
         <v>20250313</v>
       </c>
@@ -7053,7 +7056,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A242">
         <v>20250313</v>
       </c>
@@ -7079,7 +7082,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A243">
         <v>20250313</v>
       </c>
@@ -7105,7 +7108,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A244">
         <v>20250313</v>
       </c>
@@ -7131,7 +7134,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A245">
         <v>20250313</v>
       </c>
@@ -7156,14 +7159,8 @@
       <c r="H245" t="s">
         <v>7</v>
       </c>
-      <c r="J245" t="s">
-        <v>6</v>
-      </c>
-      <c r="K245" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="246" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A246">
         <v>20250313</v>
       </c>
@@ -7188,14 +7185,8 @@
       <c r="H246" t="s">
         <v>7</v>
       </c>
-      <c r="J246" t="s">
-        <v>6</v>
-      </c>
-      <c r="K246" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="247" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A247">
         <v>20250313</v>
       </c>
@@ -7220,14 +7211,8 @@
       <c r="H247" t="s">
         <v>7</v>
       </c>
-      <c r="J247" t="s">
-        <v>6</v>
-      </c>
-      <c r="K247" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A248">
         <v>20250313</v>
       </c>
@@ -7252,14 +7237,8 @@
       <c r="H248" t="s">
         <v>7</v>
       </c>
-      <c r="J248" t="s">
-        <v>6</v>
-      </c>
-      <c r="K248" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="249" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A249">
         <v>20250313</v>
       </c>
@@ -7284,14 +7263,8 @@
       <c r="H249" t="s">
         <v>7</v>
       </c>
-      <c r="J249" t="s">
-        <v>6</v>
-      </c>
-      <c r="K249" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A250">
         <v>20250313</v>
       </c>
@@ -7316,14 +7289,8 @@
       <c r="H250" t="s">
         <v>7</v>
       </c>
-      <c r="J250" t="s">
-        <v>6</v>
-      </c>
-      <c r="K250" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A251">
         <v>20250313</v>
       </c>
@@ -7348,14 +7315,8 @@
       <c r="H251" t="s">
         <v>7</v>
       </c>
-      <c r="J251" t="s">
-        <v>6</v>
-      </c>
-      <c r="K251" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A252">
         <v>20250313</v>
       </c>
@@ -7380,14 +7341,8 @@
       <c r="H252" t="s">
         <v>7</v>
       </c>
-      <c r="J252" t="s">
-        <v>6</v>
-      </c>
-      <c r="K252" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A253">
         <v>20250313</v>
       </c>
@@ -7412,14 +7367,8 @@
       <c r="H253" t="s">
         <v>7</v>
       </c>
-      <c r="J253" t="s">
-        <v>6</v>
-      </c>
-      <c r="K253" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="254" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A254">
         <v>20250313</v>
       </c>
@@ -7444,14 +7393,8 @@
       <c r="H254" t="s">
         <v>7</v>
       </c>
-      <c r="J254" t="s">
-        <v>6</v>
-      </c>
-      <c r="K254" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="255" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A255">
         <v>20250313</v>
       </c>
@@ -7476,14 +7419,8 @@
       <c r="H255" t="s">
         <v>7</v>
       </c>
-      <c r="J255" t="s">
-        <v>6</v>
-      </c>
-      <c r="K255" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A256">
         <v>20250313</v>
       </c>
@@ -7508,14 +7445,8 @@
       <c r="H256" t="s">
         <v>7</v>
       </c>
-      <c r="J256" t="s">
-        <v>6</v>
-      </c>
-      <c r="K256" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A257">
         <v>20250313</v>
       </c>
@@ -7540,14 +7471,8 @@
       <c r="H257" t="s">
         <v>7</v>
       </c>
-      <c r="J257" t="s">
-        <v>6</v>
-      </c>
-      <c r="K257" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A258">
         <v>20250313</v>
       </c>
@@ -7572,14 +7497,8 @@
       <c r="H258" t="s">
         <v>7</v>
       </c>
-      <c r="J258" t="s">
-        <v>6</v>
-      </c>
-      <c r="K258" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A259">
         <v>20250313</v>
       </c>
@@ -7604,14 +7523,8 @@
       <c r="H259" t="s">
         <v>7</v>
       </c>
-      <c r="J259" t="s">
-        <v>6</v>
-      </c>
-      <c r="K259" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A260">
         <v>20250313</v>
       </c>
@@ -7636,14 +7549,8 @@
       <c r="H260" t="s">
         <v>7</v>
       </c>
-      <c r="J260" t="s">
-        <v>6</v>
-      </c>
-      <c r="K260" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A261">
         <v>20250313</v>
       </c>
@@ -7668,14 +7575,8 @@
       <c r="H261" t="s">
         <v>7</v>
       </c>
-      <c r="J261" t="s">
-        <v>6</v>
-      </c>
-      <c r="K261" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A262">
         <v>20250313</v>
       </c>
@@ -7700,14 +7601,8 @@
       <c r="H262" t="s">
         <v>7</v>
       </c>
-      <c r="J262" t="s">
-        <v>6</v>
-      </c>
-      <c r="K262" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A263">
         <v>20250313</v>
       </c>
@@ -7732,14 +7627,8 @@
       <c r="H263" t="s">
         <v>7</v>
       </c>
-      <c r="J263" t="s">
-        <v>6</v>
-      </c>
-      <c r="K263" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264">
         <v>20250313</v>
       </c>
@@ -7764,14 +7653,8 @@
       <c r="H264" t="s">
         <v>7</v>
       </c>
-      <c r="J264" t="s">
-        <v>6</v>
-      </c>
-      <c r="K264" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A265">
         <v>20250313</v>
       </c>
@@ -7796,14 +7679,8 @@
       <c r="H265" t="s">
         <v>7</v>
       </c>
-      <c r="J265" t="s">
-        <v>6</v>
-      </c>
-      <c r="K265" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A266">
         <v>20250313</v>
       </c>
@@ -7829,7 +7706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A267">
         <v>20250313</v>
       </c>
@@ -7855,7 +7732,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A268">
         <v>20250313</v>
       </c>
@@ -7881,7 +7758,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A269">
         <v>20250313</v>
       </c>
@@ -7907,7 +7784,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A270">
         <v>20250313</v>
       </c>
@@ -7933,7 +7810,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A271">
         <v>20250313</v>
       </c>
@@ -7959,7 +7836,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A272">
         <v>20250313</v>
       </c>
@@ -8401,7 +8278,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A289">
         <v>20250313</v>
       </c>
@@ -8427,7 +8304,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A290">
         <v>20250313</v>
       </c>
@@ -8453,7 +8330,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A291">
         <v>20250313</v>
       </c>
@@ -8479,7 +8356,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A292">
         <v>20250313</v>
       </c>
@@ -8505,7 +8382,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A293">
         <v>20250313</v>
       </c>
@@ -8531,7 +8408,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A294">
         <v>20250313</v>
       </c>
@@ -8557,7 +8434,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A295">
         <v>20250313</v>
       </c>
@@ -8583,7 +8460,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A296">
         <v>20250313</v>
       </c>
@@ -8609,7 +8486,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A297">
         <v>20250313</v>
       </c>
@@ -8635,7 +8512,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A298">
         <v>20250313</v>
       </c>
@@ -8661,7 +8538,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A299">
         <v>20250313</v>
       </c>
@@ -8687,7 +8564,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A300">
         <v>20250313</v>
       </c>
@@ -8713,7 +8590,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A301">
         <v>20250313</v>
       </c>
@@ -8739,7 +8616,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A302">
         <v>20250313</v>
       </c>
@@ -8765,7 +8642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A303">
         <v>20250313</v>
       </c>
@@ -8790,14 +8667,8 @@
       <c r="H303" t="s">
         <v>7</v>
       </c>
-      <c r="J303" t="s">
-        <v>6</v>
-      </c>
-      <c r="K303" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="304" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A304">
         <v>20250313</v>
       </c>
@@ -8822,14 +8693,8 @@
       <c r="H304" t="s">
         <v>7</v>
       </c>
-      <c r="J304" t="s">
-        <v>6</v>
-      </c>
-      <c r="K304" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A305">
         <v>20250313</v>
       </c>
@@ -8854,14 +8719,8 @@
       <c r="H305" t="s">
         <v>7</v>
       </c>
-      <c r="J305" t="s">
-        <v>6</v>
-      </c>
-      <c r="K305" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A306">
         <v>20250313</v>
       </c>
@@ -8886,14 +8745,8 @@
       <c r="H306" t="s">
         <v>7</v>
       </c>
-      <c r="J306" t="s">
-        <v>6</v>
-      </c>
-      <c r="K306" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A307">
         <v>20250313</v>
       </c>
@@ -8918,14 +8771,8 @@
       <c r="H307" t="s">
         <v>7</v>
       </c>
-      <c r="J307" t="s">
-        <v>6</v>
-      </c>
-      <c r="K307" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A308">
         <v>20250313</v>
       </c>
@@ -8950,14 +8797,8 @@
       <c r="H308" t="s">
         <v>7</v>
       </c>
-      <c r="J308" t="s">
-        <v>6</v>
-      </c>
-      <c r="K308" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A309">
         <v>20250313</v>
       </c>
@@ -8982,14 +8823,8 @@
       <c r="H309" t="s">
         <v>7</v>
       </c>
-      <c r="J309" t="s">
-        <v>6</v>
-      </c>
-      <c r="K309" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A310">
         <v>20250313</v>
       </c>
@@ -9014,14 +8849,8 @@
       <c r="H310" t="s">
         <v>7</v>
       </c>
-      <c r="J310" t="s">
-        <v>6</v>
-      </c>
-      <c r="K310" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A311">
         <v>20250313</v>
       </c>
@@ -9046,14 +8875,8 @@
       <c r="H311" t="s">
         <v>7</v>
       </c>
-      <c r="J311" t="s">
-        <v>6</v>
-      </c>
-      <c r="K311" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A312">
         <v>20250313</v>
       </c>
@@ -9078,14 +8901,8 @@
       <c r="H312" t="s">
         <v>7</v>
       </c>
-      <c r="J312" t="s">
-        <v>6</v>
-      </c>
-      <c r="K312" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A313">
         <v>20250313</v>
       </c>
@@ -9110,14 +8927,8 @@
       <c r="H313" t="s">
         <v>7</v>
       </c>
-      <c r="J313" t="s">
-        <v>6</v>
-      </c>
-      <c r="K313" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A314">
         <v>20250313</v>
       </c>
@@ -9142,14 +8953,8 @@
       <c r="H314" t="s">
         <v>44</v>
       </c>
-      <c r="J314" t="s">
-        <v>6</v>
-      </c>
-      <c r="K314" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A315">
         <v>20250313</v>
       </c>
@@ -9174,14 +8979,8 @@
       <c r="H315" t="s">
         <v>44</v>
       </c>
-      <c r="J315" t="s">
-        <v>6</v>
-      </c>
-      <c r="K315" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A316">
         <v>20250313</v>
       </c>
@@ -9206,14 +9005,8 @@
       <c r="H316" t="s">
         <v>44</v>
       </c>
-      <c r="J316" t="s">
-        <v>6</v>
-      </c>
-      <c r="K316" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A317">
         <v>20250313</v>
       </c>
@@ -9238,14 +9031,8 @@
       <c r="H317" t="s">
         <v>7</v>
       </c>
-      <c r="J317" t="s">
-        <v>6</v>
-      </c>
-      <c r="K317" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A318">
         <v>20250313</v>
       </c>
@@ -9270,14 +9057,8 @@
       <c r="H318" t="s">
         <v>7</v>
       </c>
-      <c r="J318" t="s">
-        <v>6</v>
-      </c>
-      <c r="K318" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A319">
         <v>20250313</v>
       </c>
@@ -9302,14 +9083,8 @@
       <c r="H319" t="s">
         <v>7</v>
       </c>
-      <c r="J319" t="s">
-        <v>6</v>
-      </c>
-      <c r="K319" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A320">
         <v>20250313</v>
       </c>
@@ -9334,14 +9109,8 @@
       <c r="H320" t="s">
         <v>7</v>
       </c>
-      <c r="J320" t="s">
-        <v>6</v>
-      </c>
-      <c r="K320" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A321">
         <v>20250313</v>
       </c>
@@ -9366,14 +9135,8 @@
       <c r="H321" t="s">
         <v>7</v>
       </c>
-      <c r="J321" t="s">
-        <v>6</v>
-      </c>
-      <c r="K321" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A322">
         <v>20250313</v>
       </c>
@@ -9398,14 +9161,8 @@
       <c r="H322" t="s">
         <v>7</v>
       </c>
-      <c r="J322" t="s">
-        <v>6</v>
-      </c>
-      <c r="K322" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A323">
         <v>20250313</v>
       </c>
@@ -9430,14 +9187,8 @@
       <c r="H323" t="s">
         <v>7</v>
       </c>
-      <c r="J323" t="s">
-        <v>6</v>
-      </c>
-      <c r="K323" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A324">
         <v>20250313</v>
       </c>
@@ -9463,7 +9214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A325">
         <v>20250313</v>
       </c>
@@ -9489,7 +9240,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A326">
         <v>20250313</v>
       </c>
@@ -9515,7 +9266,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A327">
         <v>20250313</v>
       </c>
@@ -9541,7 +9292,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A328">
         <v>20250313</v>
       </c>
@@ -9567,7 +9318,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A329">
         <v>20250313</v>
       </c>
@@ -9593,7 +9344,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A330">
         <v>20250313</v>
       </c>
@@ -9619,7 +9370,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A331">
         <v>20250313</v>
       </c>
@@ -9645,7 +9396,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A332">
         <v>20250313</v>
       </c>
@@ -9671,7 +9422,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A333">
         <v>20250313</v>
       </c>
@@ -9697,7 +9448,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A334">
         <v>20250313</v>
       </c>
@@ -9723,7 +9474,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A335">
         <v>20250313</v>
       </c>
@@ -9749,7 +9500,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A336">
         <v>20250313</v>
       </c>
@@ -9775,7 +9526,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A337">
         <v>20250313</v>
       </c>
@@ -9801,7 +9552,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A338">
         <v>20250313</v>
       </c>
@@ -9827,7 +9578,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A339">
         <v>20250313</v>
       </c>
@@ -9853,7 +9604,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A340">
         <v>20250313</v>
       </c>
@@ -9879,7 +9630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A341">
         <v>20250313</v>
       </c>
@@ -9905,7 +9656,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A342">
         <v>20250313</v>
       </c>
@@ -9931,7 +9682,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A343">
         <v>20250313</v>
       </c>
@@ -9957,7 +9708,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A344">
         <v>20250313</v>
       </c>
@@ -9982,14 +9733,8 @@
       <c r="H344" t="s">
         <v>7</v>
       </c>
-      <c r="J344" t="s">
-        <v>6</v>
-      </c>
-      <c r="K344" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="345" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A345">
         <v>20250313</v>
       </c>
@@ -10014,14 +9759,8 @@
       <c r="H345" t="s">
         <v>7</v>
       </c>
-      <c r="J345" t="s">
-        <v>6</v>
-      </c>
-      <c r="K345" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="346" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A346">
         <v>20250313</v>
       </c>
@@ -10046,14 +9785,8 @@
       <c r="H346" t="s">
         <v>7</v>
       </c>
-      <c r="J346" t="s">
-        <v>6</v>
-      </c>
-      <c r="K346" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="347" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A347">
         <v>20250313</v>
       </c>
@@ -10078,14 +9811,8 @@
       <c r="H347" t="s">
         <v>7</v>
       </c>
-      <c r="J347" t="s">
-        <v>6</v>
-      </c>
-      <c r="K347" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="348" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A348">
         <v>20250313</v>
       </c>
@@ -10110,14 +9837,8 @@
       <c r="H348" t="s">
         <v>7</v>
       </c>
-      <c r="J348" t="s">
-        <v>6</v>
-      </c>
-      <c r="K348" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="349" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A349">
         <v>20250313</v>
       </c>
@@ -10142,14 +9863,8 @@
       <c r="H349" t="s">
         <v>7</v>
       </c>
-      <c r="J349" t="s">
-        <v>6</v>
-      </c>
-      <c r="K349" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="350" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A350">
         <v>20250313</v>
       </c>
@@ -10174,14 +9889,8 @@
       <c r="H350" t="s">
         <v>7</v>
       </c>
-      <c r="J350" t="s">
-        <v>6</v>
-      </c>
-      <c r="K350" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="351" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A351">
         <v>20250313</v>
       </c>
@@ -10206,14 +9915,8 @@
       <c r="H351" t="s">
         <v>7</v>
       </c>
-      <c r="J351" t="s">
-        <v>6</v>
-      </c>
-      <c r="K351" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="352" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A352">
         <v>20250313</v>
       </c>
@@ -10238,14 +9941,8 @@
       <c r="H352" t="s">
         <v>7</v>
       </c>
-      <c r="J352" t="s">
-        <v>6</v>
-      </c>
-      <c r="K352" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A353">
         <v>20250313</v>
       </c>
@@ -10270,14 +9967,8 @@
       <c r="H353" t="s">
         <v>7</v>
       </c>
-      <c r="J353" t="s">
-        <v>6</v>
-      </c>
-      <c r="K353" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A354">
         <v>20250313</v>
       </c>
@@ -10302,14 +9993,8 @@
       <c r="H354" t="s">
         <v>7</v>
       </c>
-      <c r="J354" t="s">
-        <v>6</v>
-      </c>
-      <c r="K354" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A355">
         <v>20250313</v>
       </c>
@@ -10334,14 +10019,8 @@
       <c r="H355" t="s">
         <v>7</v>
       </c>
-      <c r="J355" t="s">
-        <v>6</v>
-      </c>
-      <c r="K355" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A356">
         <v>20250313</v>
       </c>
@@ -10366,14 +10045,8 @@
       <c r="H356" t="s">
         <v>7</v>
       </c>
-      <c r="J356" t="s">
-        <v>6</v>
-      </c>
-      <c r="K356" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A357">
         <v>20250313</v>
       </c>
@@ -10398,14 +10071,8 @@
       <c r="H357" t="s">
         <v>7</v>
       </c>
-      <c r="J357" t="s">
-        <v>6</v>
-      </c>
-      <c r="K357" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A358">
         <v>20250313</v>
       </c>
@@ -10430,14 +10097,8 @@
       <c r="H358" t="s">
         <v>7</v>
       </c>
-      <c r="J358" t="s">
-        <v>6</v>
-      </c>
-      <c r="K358" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A359">
         <v>20250313</v>
       </c>
@@ -10462,14 +10123,8 @@
       <c r="H359" t="s">
         <v>7</v>
       </c>
-      <c r="J359" t="s">
-        <v>6</v>
-      </c>
-      <c r="K359" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A360">
         <v>20250313</v>
       </c>
@@ -10494,14 +10149,8 @@
       <c r="H360" t="s">
         <v>7</v>
       </c>
-      <c r="J360" t="s">
-        <v>6</v>
-      </c>
-      <c r="K360" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A361">
         <v>20250313</v>
       </c>
@@ -10526,14 +10175,8 @@
       <c r="H361" t="s">
         <v>7</v>
       </c>
-      <c r="J361" t="s">
-        <v>6</v>
-      </c>
-      <c r="K361" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A362">
         <v>20250313</v>
       </c>
@@ -10558,14 +10201,8 @@
       <c r="H362" t="s">
         <v>44</v>
       </c>
-      <c r="J362" t="s">
-        <v>6</v>
-      </c>
-      <c r="K362" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A363">
         <v>20250313</v>
       </c>
@@ -10590,14 +10227,8 @@
       <c r="H363" t="s">
         <v>44</v>
       </c>
-      <c r="J363" t="s">
-        <v>6</v>
-      </c>
-      <c r="K363" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A364">
         <v>20250313</v>
       </c>
@@ -10622,14 +10253,8 @@
       <c r="H364" t="s">
         <v>44</v>
       </c>
-      <c r="J364" t="s">
-        <v>6</v>
-      </c>
-      <c r="K364" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A365">
         <v>20250313</v>
       </c>
@@ -10655,7 +10280,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A366">
         <v>20250313</v>
       </c>
@@ -10681,7 +10306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A367">
         <v>20250313</v>
       </c>
@@ -10707,7 +10332,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A368">
         <v>20250313</v>
       </c>
@@ -11172,6 +10797,4998 @@
         <v>107</v>
       </c>
       <c r="H385" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A386">
+        <v>20250318</v>
+      </c>
+      <c r="B386" t="s">
+        <v>5</v>
+      </c>
+      <c r="C386" t="s">
+        <v>118</v>
+      </c>
+      <c r="D386" t="s">
+        <v>109</v>
+      </c>
+      <c r="E386" t="s">
+        <v>109</v>
+      </c>
+      <c r="F386" t="s">
+        <v>109</v>
+      </c>
+      <c r="G386" t="s">
+        <v>8</v>
+      </c>
+      <c r="H386" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A387">
+        <v>20250318</v>
+      </c>
+      <c r="B387" t="s">
+        <v>5</v>
+      </c>
+      <c r="C387" t="s">
+        <v>118</v>
+      </c>
+      <c r="D387" t="s">
+        <v>109</v>
+      </c>
+      <c r="E387" t="s">
+        <v>109</v>
+      </c>
+      <c r="F387" t="s">
+        <v>109</v>
+      </c>
+      <c r="G387" t="s">
+        <v>9</v>
+      </c>
+      <c r="H387" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A388">
+        <v>20250318</v>
+      </c>
+      <c r="B388" t="s">
+        <v>5</v>
+      </c>
+      <c r="C388" t="s">
+        <v>118</v>
+      </c>
+      <c r="D388" t="s">
+        <v>109</v>
+      </c>
+      <c r="E388" t="s">
+        <v>109</v>
+      </c>
+      <c r="F388" t="s">
+        <v>109</v>
+      </c>
+      <c r="G388" t="s">
+        <v>10</v>
+      </c>
+      <c r="H388" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A389">
+        <v>20250318</v>
+      </c>
+      <c r="B389" t="s">
+        <v>5</v>
+      </c>
+      <c r="C389" t="s">
+        <v>118</v>
+      </c>
+      <c r="D389" t="s">
+        <v>6</v>
+      </c>
+      <c r="E389" t="s">
+        <v>110</v>
+      </c>
+      <c r="F389" t="s">
+        <v>117</v>
+      </c>
+      <c r="G389" t="s">
+        <v>11</v>
+      </c>
+      <c r="H389" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A390">
+        <v>20250318</v>
+      </c>
+      <c r="B390" t="s">
+        <v>5</v>
+      </c>
+      <c r="C390" t="s">
+        <v>118</v>
+      </c>
+      <c r="D390" t="s">
+        <v>6</v>
+      </c>
+      <c r="E390" t="s">
+        <v>110</v>
+      </c>
+      <c r="F390" t="s">
+        <v>117</v>
+      </c>
+      <c r="G390" t="s">
+        <v>12</v>
+      </c>
+      <c r="H390" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A391">
+        <v>20250318</v>
+      </c>
+      <c r="B391" t="s">
+        <v>5</v>
+      </c>
+      <c r="C391" t="s">
+        <v>118</v>
+      </c>
+      <c r="D391" t="s">
+        <v>6</v>
+      </c>
+      <c r="E391" t="s">
+        <v>110</v>
+      </c>
+      <c r="F391" t="s">
+        <v>117</v>
+      </c>
+      <c r="G391" t="s">
+        <v>13</v>
+      </c>
+      <c r="H391" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A392">
+        <v>20250318</v>
+      </c>
+      <c r="B392" t="s">
+        <v>5</v>
+      </c>
+      <c r="C392" t="s">
+        <v>118</v>
+      </c>
+      <c r="D392" t="s">
+        <v>6</v>
+      </c>
+      <c r="E392" t="s">
+        <v>110</v>
+      </c>
+      <c r="F392" t="s">
+        <v>117</v>
+      </c>
+      <c r="G392" t="s">
+        <v>14</v>
+      </c>
+      <c r="H392" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A393">
+        <v>20250318</v>
+      </c>
+      <c r="B393" t="s">
+        <v>5</v>
+      </c>
+      <c r="C393" t="s">
+        <v>118</v>
+      </c>
+      <c r="D393" t="s">
+        <v>6</v>
+      </c>
+      <c r="E393" t="s">
+        <v>110</v>
+      </c>
+      <c r="F393" t="s">
+        <v>117</v>
+      </c>
+      <c r="G393" t="s">
+        <v>15</v>
+      </c>
+      <c r="H393" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A394">
+        <v>20250318</v>
+      </c>
+      <c r="B394" t="s">
+        <v>5</v>
+      </c>
+      <c r="C394" t="s">
+        <v>118</v>
+      </c>
+      <c r="D394" t="s">
+        <v>6</v>
+      </c>
+      <c r="E394" t="s">
+        <v>110</v>
+      </c>
+      <c r="F394" t="s">
+        <v>117</v>
+      </c>
+      <c r="G394" t="s">
+        <v>16</v>
+      </c>
+      <c r="H394" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A395">
+        <v>20250318</v>
+      </c>
+      <c r="B395" t="s">
+        <v>5</v>
+      </c>
+      <c r="C395" t="s">
+        <v>118</v>
+      </c>
+      <c r="D395" t="s">
+        <v>6</v>
+      </c>
+      <c r="E395" t="s">
+        <v>110</v>
+      </c>
+      <c r="F395" t="s">
+        <v>117</v>
+      </c>
+      <c r="G395" t="s">
+        <v>17</v>
+      </c>
+      <c r="H395" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A396">
+        <v>20250318</v>
+      </c>
+      <c r="B396" t="s">
+        <v>5</v>
+      </c>
+      <c r="C396" t="s">
+        <v>118</v>
+      </c>
+      <c r="D396" t="s">
+        <v>6</v>
+      </c>
+      <c r="E396" t="s">
+        <v>110</v>
+      </c>
+      <c r="F396" t="s">
+        <v>117</v>
+      </c>
+      <c r="G396" t="s">
+        <v>18</v>
+      </c>
+      <c r="H396" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A397">
+        <v>20250318</v>
+      </c>
+      <c r="B397" t="s">
+        <v>5</v>
+      </c>
+      <c r="C397" t="s">
+        <v>118</v>
+      </c>
+      <c r="D397" t="s">
+        <v>6</v>
+      </c>
+      <c r="E397" t="s">
+        <v>110</v>
+      </c>
+      <c r="F397" t="s">
+        <v>117</v>
+      </c>
+      <c r="G397" t="s">
+        <v>19</v>
+      </c>
+      <c r="H397" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A398">
+        <v>20250318</v>
+      </c>
+      <c r="B398" t="s">
+        <v>5</v>
+      </c>
+      <c r="C398" t="s">
+        <v>118</v>
+      </c>
+      <c r="D398" t="s">
+        <v>6</v>
+      </c>
+      <c r="E398" t="s">
+        <v>110</v>
+      </c>
+      <c r="F398" t="s">
+        <v>117</v>
+      </c>
+      <c r="G398" t="s">
+        <v>20</v>
+      </c>
+      <c r="H398" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A399">
+        <v>20250318</v>
+      </c>
+      <c r="B399" t="s">
+        <v>5</v>
+      </c>
+      <c r="C399" t="s">
+        <v>118</v>
+      </c>
+      <c r="D399" t="s">
+        <v>6</v>
+      </c>
+      <c r="E399" t="s">
+        <v>110</v>
+      </c>
+      <c r="F399" t="s">
+        <v>117</v>
+      </c>
+      <c r="G399" t="s">
+        <v>21</v>
+      </c>
+      <c r="H399" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A400">
+        <v>20250318</v>
+      </c>
+      <c r="B400" t="s">
+        <v>5</v>
+      </c>
+      <c r="C400" t="s">
+        <v>118</v>
+      </c>
+      <c r="D400" t="s">
+        <v>6</v>
+      </c>
+      <c r="E400" t="s">
+        <v>110</v>
+      </c>
+      <c r="F400" t="s">
+        <v>117</v>
+      </c>
+      <c r="G400" t="s">
+        <v>22</v>
+      </c>
+      <c r="H400" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A401">
+        <v>20250318</v>
+      </c>
+      <c r="B401" t="s">
+        <v>5</v>
+      </c>
+      <c r="C401" t="s">
+        <v>118</v>
+      </c>
+      <c r="D401" t="s">
+        <v>6</v>
+      </c>
+      <c r="E401" t="s">
+        <v>110</v>
+      </c>
+      <c r="F401" t="s">
+        <v>117</v>
+      </c>
+      <c r="G401" t="s">
+        <v>23</v>
+      </c>
+      <c r="H401" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A402">
+        <v>20250318</v>
+      </c>
+      <c r="B402" t="s">
+        <v>5</v>
+      </c>
+      <c r="C402" t="s">
+        <v>118</v>
+      </c>
+      <c r="D402" t="s">
+        <v>6</v>
+      </c>
+      <c r="E402" t="s">
+        <v>110</v>
+      </c>
+      <c r="F402" t="s">
+        <v>117</v>
+      </c>
+      <c r="G402" t="s">
+        <v>24</v>
+      </c>
+      <c r="H402" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A403">
+        <v>20250318</v>
+      </c>
+      <c r="B403" t="s">
+        <v>5</v>
+      </c>
+      <c r="C403" t="s">
+        <v>118</v>
+      </c>
+      <c r="D403" t="s">
+        <v>6</v>
+      </c>
+      <c r="E403" t="s">
+        <v>110</v>
+      </c>
+      <c r="F403" t="s">
+        <v>117</v>
+      </c>
+      <c r="G403" t="s">
+        <v>25</v>
+      </c>
+      <c r="H403" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A404">
+        <v>20250318</v>
+      </c>
+      <c r="B404" t="s">
+        <v>5</v>
+      </c>
+      <c r="C404" t="s">
+        <v>118</v>
+      </c>
+      <c r="D404" t="s">
+        <v>6</v>
+      </c>
+      <c r="E404" t="s">
+        <v>110</v>
+      </c>
+      <c r="F404" t="s">
+        <v>117</v>
+      </c>
+      <c r="G404" t="s">
+        <v>26</v>
+      </c>
+      <c r="H404" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A405">
+        <v>20250318</v>
+      </c>
+      <c r="B405" t="s">
+        <v>5</v>
+      </c>
+      <c r="C405" t="s">
+        <v>118</v>
+      </c>
+      <c r="D405" t="s">
+        <v>6</v>
+      </c>
+      <c r="E405" t="s">
+        <v>110</v>
+      </c>
+      <c r="F405" t="s">
+        <v>117</v>
+      </c>
+      <c r="G405" t="s">
+        <v>27</v>
+      </c>
+      <c r="H405" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A406">
+        <v>20250318</v>
+      </c>
+      <c r="B406" t="s">
+        <v>5</v>
+      </c>
+      <c r="C406" t="s">
+        <v>118</v>
+      </c>
+      <c r="D406" t="s">
+        <v>6</v>
+      </c>
+      <c r="E406" t="s">
+        <v>110</v>
+      </c>
+      <c r="F406" t="s">
+        <v>117</v>
+      </c>
+      <c r="G406" t="s">
+        <v>28</v>
+      </c>
+      <c r="H406" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A407">
+        <v>20250318</v>
+      </c>
+      <c r="B407" t="s">
+        <v>5</v>
+      </c>
+      <c r="C407" t="s">
+        <v>118</v>
+      </c>
+      <c r="D407" t="s">
+        <v>6</v>
+      </c>
+      <c r="E407" t="s">
+        <v>110</v>
+      </c>
+      <c r="F407" t="s">
+        <v>117</v>
+      </c>
+      <c r="G407" t="s">
+        <v>29</v>
+      </c>
+      <c r="H407" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A408">
+        <v>20250318</v>
+      </c>
+      <c r="B408" t="s">
+        <v>5</v>
+      </c>
+      <c r="C408" t="s">
+        <v>118</v>
+      </c>
+      <c r="D408" t="s">
+        <v>6</v>
+      </c>
+      <c r="E408" t="s">
+        <v>110</v>
+      </c>
+      <c r="F408" t="s">
+        <v>117</v>
+      </c>
+      <c r="G408" t="s">
+        <v>30</v>
+      </c>
+      <c r="H408" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A409">
+        <v>20250318</v>
+      </c>
+      <c r="B409" t="s">
+        <v>5</v>
+      </c>
+      <c r="C409" t="s">
+        <v>118</v>
+      </c>
+      <c r="D409" t="s">
+        <v>6</v>
+      </c>
+      <c r="E409" t="s">
+        <v>110</v>
+      </c>
+      <c r="F409" t="s">
+        <v>117</v>
+      </c>
+      <c r="G409" t="s">
+        <v>31</v>
+      </c>
+      <c r="H409" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A410">
+        <v>20250318</v>
+      </c>
+      <c r="B410" t="s">
+        <v>5</v>
+      </c>
+      <c r="C410" t="s">
+        <v>118</v>
+      </c>
+      <c r="D410" t="s">
+        <v>109</v>
+      </c>
+      <c r="E410" t="s">
+        <v>109</v>
+      </c>
+      <c r="F410" t="s">
+        <v>109</v>
+      </c>
+      <c r="G410" t="s">
+        <v>32</v>
+      </c>
+      <c r="H410" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A411">
+        <v>20250318</v>
+      </c>
+      <c r="B411" t="s">
+        <v>5</v>
+      </c>
+      <c r="C411" t="s">
+        <v>118</v>
+      </c>
+      <c r="D411" t="s">
+        <v>109</v>
+      </c>
+      <c r="E411" t="s">
+        <v>109</v>
+      </c>
+      <c r="F411" t="s">
+        <v>109</v>
+      </c>
+      <c r="G411" t="s">
+        <v>33</v>
+      </c>
+      <c r="H411" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A412">
+        <v>20250318</v>
+      </c>
+      <c r="B412" t="s">
+        <v>5</v>
+      </c>
+      <c r="C412" t="s">
+        <v>118</v>
+      </c>
+      <c r="D412" t="s">
+        <v>109</v>
+      </c>
+      <c r="E412" t="s">
+        <v>109</v>
+      </c>
+      <c r="F412" t="s">
+        <v>109</v>
+      </c>
+      <c r="G412" t="s">
+        <v>34</v>
+      </c>
+      <c r="H412" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A413">
+        <v>20250318</v>
+      </c>
+      <c r="B413" t="s">
+        <v>5</v>
+      </c>
+      <c r="C413" t="s">
+        <v>118</v>
+      </c>
+      <c r="D413" t="s">
+        <v>111</v>
+      </c>
+      <c r="E413" t="s">
+        <v>113</v>
+      </c>
+      <c r="F413" t="s">
+        <v>117</v>
+      </c>
+      <c r="G413" t="s">
+        <v>35</v>
+      </c>
+      <c r="H413" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A414">
+        <v>20250318</v>
+      </c>
+      <c r="B414" t="s">
+        <v>5</v>
+      </c>
+      <c r="C414" t="s">
+        <v>118</v>
+      </c>
+      <c r="D414" t="s">
+        <v>111</v>
+      </c>
+      <c r="E414" t="s">
+        <v>113</v>
+      </c>
+      <c r="F414" t="s">
+        <v>117</v>
+      </c>
+      <c r="G414" t="s">
+        <v>36</v>
+      </c>
+      <c r="H414" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A415">
+        <v>20250318</v>
+      </c>
+      <c r="B415" t="s">
+        <v>5</v>
+      </c>
+      <c r="C415" t="s">
+        <v>118</v>
+      </c>
+      <c r="D415" t="s">
+        <v>111</v>
+      </c>
+      <c r="E415" t="s">
+        <v>113</v>
+      </c>
+      <c r="F415" t="s">
+        <v>117</v>
+      </c>
+      <c r="G415" t="s">
+        <v>37</v>
+      </c>
+      <c r="H415" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A416">
+        <v>20250318</v>
+      </c>
+      <c r="B416" t="s">
+        <v>5</v>
+      </c>
+      <c r="C416" t="s">
+        <v>118</v>
+      </c>
+      <c r="D416" t="s">
+        <v>111</v>
+      </c>
+      <c r="E416" t="s">
+        <v>113</v>
+      </c>
+      <c r="F416" t="s">
+        <v>117</v>
+      </c>
+      <c r="G416" t="s">
+        <v>38</v>
+      </c>
+      <c r="H416" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A417">
+        <v>20250318</v>
+      </c>
+      <c r="B417" t="s">
+        <v>5</v>
+      </c>
+      <c r="C417" t="s">
+        <v>118</v>
+      </c>
+      <c r="D417" t="s">
+        <v>111</v>
+      </c>
+      <c r="E417" t="s">
+        <v>113</v>
+      </c>
+      <c r="F417" t="s">
+        <v>117</v>
+      </c>
+      <c r="G417" t="s">
+        <v>39</v>
+      </c>
+      <c r="H417" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A418">
+        <v>20250318</v>
+      </c>
+      <c r="B418" t="s">
+        <v>5</v>
+      </c>
+      <c r="C418" t="s">
+        <v>118</v>
+      </c>
+      <c r="D418" t="s">
+        <v>111</v>
+      </c>
+      <c r="E418" t="s">
+        <v>113</v>
+      </c>
+      <c r="F418" t="s">
+        <v>117</v>
+      </c>
+      <c r="G418" t="s">
+        <v>40</v>
+      </c>
+      <c r="H418" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A419">
+        <v>20250318</v>
+      </c>
+      <c r="B419" t="s">
+        <v>5</v>
+      </c>
+      <c r="C419" t="s">
+        <v>118</v>
+      </c>
+      <c r="D419" t="s">
+        <v>111</v>
+      </c>
+      <c r="E419" t="s">
+        <v>113</v>
+      </c>
+      <c r="F419" t="s">
+        <v>117</v>
+      </c>
+      <c r="G419" t="s">
+        <v>41</v>
+      </c>
+      <c r="H419" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A420">
+        <v>20250318</v>
+      </c>
+      <c r="B420" t="s">
+        <v>5</v>
+      </c>
+      <c r="C420" t="s">
+        <v>118</v>
+      </c>
+      <c r="D420" t="s">
+        <v>111</v>
+      </c>
+      <c r="E420" t="s">
+        <v>113</v>
+      </c>
+      <c r="F420" t="s">
+        <v>117</v>
+      </c>
+      <c r="G420" t="s">
+        <v>42</v>
+      </c>
+      <c r="H420" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A421">
+        <v>20250318</v>
+      </c>
+      <c r="B421" t="s">
+        <v>5</v>
+      </c>
+      <c r="C421" t="s">
+        <v>118</v>
+      </c>
+      <c r="D421" t="s">
+        <v>111</v>
+      </c>
+      <c r="E421" t="s">
+        <v>113</v>
+      </c>
+      <c r="F421" t="s">
+        <v>117</v>
+      </c>
+      <c r="G421" t="s">
+        <v>43</v>
+      </c>
+      <c r="H421" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A422">
+        <v>20250318</v>
+      </c>
+      <c r="B422" t="s">
+        <v>5</v>
+      </c>
+      <c r="C422" t="s">
+        <v>118</v>
+      </c>
+      <c r="D422" t="s">
+        <v>111</v>
+      </c>
+      <c r="E422" t="s">
+        <v>113</v>
+      </c>
+      <c r="F422" t="s">
+        <v>117</v>
+      </c>
+      <c r="G422" t="s">
+        <v>48</v>
+      </c>
+      <c r="H422" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A423">
+        <v>20250318</v>
+      </c>
+      <c r="B423" t="s">
+        <v>5</v>
+      </c>
+      <c r="C423" t="s">
+        <v>118</v>
+      </c>
+      <c r="D423" t="s">
+        <v>111</v>
+      </c>
+      <c r="E423" t="s">
+        <v>113</v>
+      </c>
+      <c r="F423" t="s">
+        <v>117</v>
+      </c>
+      <c r="G423" t="s">
+        <v>49</v>
+      </c>
+      <c r="H423" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A424">
+        <v>20250318</v>
+      </c>
+      <c r="B424" t="s">
+        <v>5</v>
+      </c>
+      <c r="C424" t="s">
+        <v>118</v>
+      </c>
+      <c r="D424" t="s">
+        <v>111</v>
+      </c>
+      <c r="E424" t="s">
+        <v>113</v>
+      </c>
+      <c r="F424" t="s">
+        <v>117</v>
+      </c>
+      <c r="G424" t="s">
+        <v>50</v>
+      </c>
+      <c r="H424" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A425">
+        <v>20250318</v>
+      </c>
+      <c r="B425" t="s">
+        <v>5</v>
+      </c>
+      <c r="C425" t="s">
+        <v>118</v>
+      </c>
+      <c r="D425" t="s">
+        <v>111</v>
+      </c>
+      <c r="E425" t="s">
+        <v>113</v>
+      </c>
+      <c r="F425" t="s">
+        <v>117</v>
+      </c>
+      <c r="G425" t="s">
+        <v>51</v>
+      </c>
+      <c r="H425" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A426">
+        <v>20250318</v>
+      </c>
+      <c r="B426" t="s">
+        <v>5</v>
+      </c>
+      <c r="C426" t="s">
+        <v>118</v>
+      </c>
+      <c r="D426" t="s">
+        <v>111</v>
+      </c>
+      <c r="E426" t="s">
+        <v>113</v>
+      </c>
+      <c r="F426" t="s">
+        <v>117</v>
+      </c>
+      <c r="G426" t="s">
+        <v>52</v>
+      </c>
+      <c r="H426" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A427">
+        <v>20250318</v>
+      </c>
+      <c r="B427" t="s">
+        <v>5</v>
+      </c>
+      <c r="C427" t="s">
+        <v>118</v>
+      </c>
+      <c r="D427" t="s">
+        <v>111</v>
+      </c>
+      <c r="E427" t="s">
+        <v>113</v>
+      </c>
+      <c r="F427" t="s">
+        <v>117</v>
+      </c>
+      <c r="G427" t="s">
+        <v>53</v>
+      </c>
+      <c r="H427" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A428">
+        <v>20250318</v>
+      </c>
+      <c r="B428" t="s">
+        <v>5</v>
+      </c>
+      <c r="C428" t="s">
+        <v>118</v>
+      </c>
+      <c r="D428" t="s">
+        <v>111</v>
+      </c>
+      <c r="E428" t="s">
+        <v>113</v>
+      </c>
+      <c r="F428" t="s">
+        <v>117</v>
+      </c>
+      <c r="G428" t="s">
+        <v>54</v>
+      </c>
+      <c r="H428" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A429">
+        <v>20250318</v>
+      </c>
+      <c r="B429" t="s">
+        <v>5</v>
+      </c>
+      <c r="C429" t="s">
+        <v>118</v>
+      </c>
+      <c r="D429" t="s">
+        <v>111</v>
+      </c>
+      <c r="E429" t="s">
+        <v>113</v>
+      </c>
+      <c r="F429" t="s">
+        <v>117</v>
+      </c>
+      <c r="G429" t="s">
+        <v>55</v>
+      </c>
+      <c r="H429" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A430">
+        <v>20250318</v>
+      </c>
+      <c r="B430" t="s">
+        <v>5</v>
+      </c>
+      <c r="C430" t="s">
+        <v>118</v>
+      </c>
+      <c r="D430" t="s">
+        <v>111</v>
+      </c>
+      <c r="E430" t="s">
+        <v>113</v>
+      </c>
+      <c r="F430" t="s">
+        <v>117</v>
+      </c>
+      <c r="G430" t="s">
+        <v>56</v>
+      </c>
+      <c r="H430" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A431">
+        <v>20250318</v>
+      </c>
+      <c r="B431" t="s">
+        <v>5</v>
+      </c>
+      <c r="C431" t="s">
+        <v>118</v>
+      </c>
+      <c r="D431" t="s">
+        <v>111</v>
+      </c>
+      <c r="E431" t="s">
+        <v>113</v>
+      </c>
+      <c r="F431" t="s">
+        <v>117</v>
+      </c>
+      <c r="G431" t="s">
+        <v>57</v>
+      </c>
+      <c r="H431" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A432">
+        <v>20250318</v>
+      </c>
+      <c r="B432" t="s">
+        <v>5</v>
+      </c>
+      <c r="C432" t="s">
+        <v>118</v>
+      </c>
+      <c r="D432" t="s">
+        <v>111</v>
+      </c>
+      <c r="E432" t="s">
+        <v>113</v>
+      </c>
+      <c r="F432" t="s">
+        <v>117</v>
+      </c>
+      <c r="G432" t="s">
+        <v>58</v>
+      </c>
+      <c r="H432" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A433">
+        <v>20250318</v>
+      </c>
+      <c r="B433" t="s">
+        <v>5</v>
+      </c>
+      <c r="C433" t="s">
+        <v>118</v>
+      </c>
+      <c r="D433" t="s">
+        <v>111</v>
+      </c>
+      <c r="E433" t="s">
+        <v>113</v>
+      </c>
+      <c r="F433" t="s">
+        <v>117</v>
+      </c>
+      <c r="G433" t="s">
+        <v>59</v>
+      </c>
+      <c r="H433" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A434">
+        <v>20250318</v>
+      </c>
+      <c r="B434" t="s">
+        <v>5</v>
+      </c>
+      <c r="C434" t="s">
+        <v>118</v>
+      </c>
+      <c r="D434" t="s">
+        <v>109</v>
+      </c>
+      <c r="E434" t="s">
+        <v>109</v>
+      </c>
+      <c r="F434" t="s">
+        <v>109</v>
+      </c>
+      <c r="G434" t="s">
+        <v>60</v>
+      </c>
+      <c r="H434" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A435">
+        <v>20250318</v>
+      </c>
+      <c r="B435" t="s">
+        <v>5</v>
+      </c>
+      <c r="C435" t="s">
+        <v>118</v>
+      </c>
+      <c r="D435" t="s">
+        <v>109</v>
+      </c>
+      <c r="E435" t="s">
+        <v>109</v>
+      </c>
+      <c r="F435" t="s">
+        <v>109</v>
+      </c>
+      <c r="G435" t="s">
+        <v>61</v>
+      </c>
+      <c r="H435" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A436">
+        <v>20250318</v>
+      </c>
+      <c r="B436" t="s">
+        <v>5</v>
+      </c>
+      <c r="C436" t="s">
+        <v>118</v>
+      </c>
+      <c r="D436" t="s">
+        <v>109</v>
+      </c>
+      <c r="E436" t="s">
+        <v>109</v>
+      </c>
+      <c r="F436" t="s">
+        <v>109</v>
+      </c>
+      <c r="G436" t="s">
+        <v>62</v>
+      </c>
+      <c r="H436" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A437">
+        <v>20250318</v>
+      </c>
+      <c r="B437" t="s">
+        <v>5</v>
+      </c>
+      <c r="C437" t="s">
+        <v>118</v>
+      </c>
+      <c r="D437" t="s">
+        <v>6</v>
+      </c>
+      <c r="E437" t="s">
+        <v>108</v>
+      </c>
+      <c r="F437" t="s">
+        <v>116</v>
+      </c>
+      <c r="G437" t="s">
+        <v>63</v>
+      </c>
+      <c r="H437" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A438">
+        <v>20250318</v>
+      </c>
+      <c r="B438" t="s">
+        <v>5</v>
+      </c>
+      <c r="C438" t="s">
+        <v>118</v>
+      </c>
+      <c r="D438" t="s">
+        <v>6</v>
+      </c>
+      <c r="E438" t="s">
+        <v>108</v>
+      </c>
+      <c r="F438" t="s">
+        <v>116</v>
+      </c>
+      <c r="G438" t="s">
+        <v>64</v>
+      </c>
+      <c r="H438" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A439">
+        <v>20250318</v>
+      </c>
+      <c r="B439" t="s">
+        <v>5</v>
+      </c>
+      <c r="C439" t="s">
+        <v>118</v>
+      </c>
+      <c r="D439" t="s">
+        <v>6</v>
+      </c>
+      <c r="E439" t="s">
+        <v>108</v>
+      </c>
+      <c r="F439" t="s">
+        <v>116</v>
+      </c>
+      <c r="G439" t="s">
+        <v>65</v>
+      </c>
+      <c r="H439" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A440">
+        <v>20250318</v>
+      </c>
+      <c r="B440" t="s">
+        <v>5</v>
+      </c>
+      <c r="C440" t="s">
+        <v>118</v>
+      </c>
+      <c r="D440" t="s">
+        <v>6</v>
+      </c>
+      <c r="E440" t="s">
+        <v>108</v>
+      </c>
+      <c r="F440" t="s">
+        <v>116</v>
+      </c>
+      <c r="G440" t="s">
+        <v>66</v>
+      </c>
+      <c r="H440" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A441">
+        <v>20250318</v>
+      </c>
+      <c r="B441" t="s">
+        <v>5</v>
+      </c>
+      <c r="C441" t="s">
+        <v>118</v>
+      </c>
+      <c r="D441" t="s">
+        <v>6</v>
+      </c>
+      <c r="E441" t="s">
+        <v>108</v>
+      </c>
+      <c r="F441" t="s">
+        <v>116</v>
+      </c>
+      <c r="G441" t="s">
+        <v>67</v>
+      </c>
+      <c r="H441" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="442" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A442">
+        <v>20250318</v>
+      </c>
+      <c r="B442" t="s">
+        <v>5</v>
+      </c>
+      <c r="C442" t="s">
+        <v>118</v>
+      </c>
+      <c r="D442" t="s">
+        <v>6</v>
+      </c>
+      <c r="E442" t="s">
+        <v>108</v>
+      </c>
+      <c r="F442" t="s">
+        <v>116</v>
+      </c>
+      <c r="G442" t="s">
+        <v>68</v>
+      </c>
+      <c r="H442" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="443" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A443">
+        <v>20250318</v>
+      </c>
+      <c r="B443" t="s">
+        <v>5</v>
+      </c>
+      <c r="C443" t="s">
+        <v>118</v>
+      </c>
+      <c r="D443" t="s">
+        <v>6</v>
+      </c>
+      <c r="E443" t="s">
+        <v>108</v>
+      </c>
+      <c r="F443" t="s">
+        <v>116</v>
+      </c>
+      <c r="G443" t="s">
+        <v>69</v>
+      </c>
+      <c r="H443" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="444" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A444">
+        <v>20250318</v>
+      </c>
+      <c r="B444" t="s">
+        <v>5</v>
+      </c>
+      <c r="C444" t="s">
+        <v>118</v>
+      </c>
+      <c r="D444" t="s">
+        <v>6</v>
+      </c>
+      <c r="E444" t="s">
+        <v>108</v>
+      </c>
+      <c r="F444" t="s">
+        <v>116</v>
+      </c>
+      <c r="G444" t="s">
+        <v>70</v>
+      </c>
+      <c r="H444" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="445" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A445">
+        <v>20250318</v>
+      </c>
+      <c r="B445" t="s">
+        <v>5</v>
+      </c>
+      <c r="C445" t="s">
+        <v>118</v>
+      </c>
+      <c r="D445" t="s">
+        <v>6</v>
+      </c>
+      <c r="E445" t="s">
+        <v>108</v>
+      </c>
+      <c r="F445" t="s">
+        <v>116</v>
+      </c>
+      <c r="G445" t="s">
+        <v>71</v>
+      </c>
+      <c r="H445" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="446" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A446">
+        <v>20250318</v>
+      </c>
+      <c r="B446" t="s">
+        <v>5</v>
+      </c>
+      <c r="C446" t="s">
+        <v>118</v>
+      </c>
+      <c r="D446" t="s">
+        <v>6</v>
+      </c>
+      <c r="E446" t="s">
+        <v>108</v>
+      </c>
+      <c r="F446" t="s">
+        <v>116</v>
+      </c>
+      <c r="G446" t="s">
+        <v>72</v>
+      </c>
+      <c r="H446" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="447" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A447">
+        <v>20250318</v>
+      </c>
+      <c r="B447" t="s">
+        <v>5</v>
+      </c>
+      <c r="C447" t="s">
+        <v>118</v>
+      </c>
+      <c r="D447" t="s">
+        <v>6</v>
+      </c>
+      <c r="E447" t="s">
+        <v>108</v>
+      </c>
+      <c r="F447" t="s">
+        <v>116</v>
+      </c>
+      <c r="G447" t="s">
+        <v>73</v>
+      </c>
+      <c r="H447" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="448" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A448">
+        <v>20250318</v>
+      </c>
+      <c r="B448" t="s">
+        <v>5</v>
+      </c>
+      <c r="C448" t="s">
+        <v>118</v>
+      </c>
+      <c r="D448" t="s">
+        <v>6</v>
+      </c>
+      <c r="E448" t="s">
+        <v>108</v>
+      </c>
+      <c r="F448" t="s">
+        <v>116</v>
+      </c>
+      <c r="G448" t="s">
+        <v>74</v>
+      </c>
+      <c r="H448" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A449">
+        <v>20250318</v>
+      </c>
+      <c r="B449" t="s">
+        <v>5</v>
+      </c>
+      <c r="C449" t="s">
+        <v>118</v>
+      </c>
+      <c r="D449" t="s">
+        <v>6</v>
+      </c>
+      <c r="E449" t="s">
+        <v>108</v>
+      </c>
+      <c r="F449" t="s">
+        <v>116</v>
+      </c>
+      <c r="G449" t="s">
+        <v>75</v>
+      </c>
+      <c r="H449" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A450">
+        <v>20250318</v>
+      </c>
+      <c r="B450" t="s">
+        <v>5</v>
+      </c>
+      <c r="C450" t="s">
+        <v>118</v>
+      </c>
+      <c r="D450" t="s">
+        <v>6</v>
+      </c>
+      <c r="E450" t="s">
+        <v>108</v>
+      </c>
+      <c r="F450" t="s">
+        <v>116</v>
+      </c>
+      <c r="G450" t="s">
+        <v>76</v>
+      </c>
+      <c r="H450" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A451">
+        <v>20250318</v>
+      </c>
+      <c r="B451" t="s">
+        <v>5</v>
+      </c>
+      <c r="C451" t="s">
+        <v>118</v>
+      </c>
+      <c r="D451" t="s">
+        <v>6</v>
+      </c>
+      <c r="E451" t="s">
+        <v>108</v>
+      </c>
+      <c r="F451" t="s">
+        <v>116</v>
+      </c>
+      <c r="G451" t="s">
+        <v>77</v>
+      </c>
+      <c r="H451" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A452">
+        <v>20250318</v>
+      </c>
+      <c r="B452" t="s">
+        <v>5</v>
+      </c>
+      <c r="C452" t="s">
+        <v>118</v>
+      </c>
+      <c r="D452" t="s">
+        <v>6</v>
+      </c>
+      <c r="E452" t="s">
+        <v>108</v>
+      </c>
+      <c r="F452" t="s">
+        <v>116</v>
+      </c>
+      <c r="G452" t="s">
+        <v>78</v>
+      </c>
+      <c r="H452" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A453">
+        <v>20250318</v>
+      </c>
+      <c r="B453" t="s">
+        <v>5</v>
+      </c>
+      <c r="C453" t="s">
+        <v>118</v>
+      </c>
+      <c r="D453" t="s">
+        <v>6</v>
+      </c>
+      <c r="E453" t="s">
+        <v>108</v>
+      </c>
+      <c r="F453" t="s">
+        <v>116</v>
+      </c>
+      <c r="G453" t="s">
+        <v>79</v>
+      </c>
+      <c r="H453" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A454">
+        <v>20250318</v>
+      </c>
+      <c r="B454" t="s">
+        <v>5</v>
+      </c>
+      <c r="C454" t="s">
+        <v>118</v>
+      </c>
+      <c r="D454" t="s">
+        <v>6</v>
+      </c>
+      <c r="E454" t="s">
+        <v>108</v>
+      </c>
+      <c r="F454" t="s">
+        <v>116</v>
+      </c>
+      <c r="G454" t="s">
+        <v>80</v>
+      </c>
+      <c r="H454" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="455" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A455">
+        <v>20250318</v>
+      </c>
+      <c r="B455" t="s">
+        <v>5</v>
+      </c>
+      <c r="C455" t="s">
+        <v>118</v>
+      </c>
+      <c r="D455" t="s">
+        <v>6</v>
+      </c>
+      <c r="E455" t="s">
+        <v>108</v>
+      </c>
+      <c r="F455" t="s">
+        <v>116</v>
+      </c>
+      <c r="G455" t="s">
+        <v>81</v>
+      </c>
+      <c r="H455" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A456">
+        <v>20250318</v>
+      </c>
+      <c r="B456" t="s">
+        <v>5</v>
+      </c>
+      <c r="C456" t="s">
+        <v>118</v>
+      </c>
+      <c r="D456" t="s">
+        <v>6</v>
+      </c>
+      <c r="E456" t="s">
+        <v>108</v>
+      </c>
+      <c r="F456" t="s">
+        <v>116</v>
+      </c>
+      <c r="G456" t="s">
+        <v>82</v>
+      </c>
+      <c r="H456" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A457">
+        <v>20250318</v>
+      </c>
+      <c r="B457" t="s">
+        <v>5</v>
+      </c>
+      <c r="C457" t="s">
+        <v>118</v>
+      </c>
+      <c r="D457" t="s">
+        <v>6</v>
+      </c>
+      <c r="E457" t="s">
+        <v>108</v>
+      </c>
+      <c r="F457" t="s">
+        <v>116</v>
+      </c>
+      <c r="G457" t="s">
+        <v>83</v>
+      </c>
+      <c r="H457" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A458">
+        <v>20250318</v>
+      </c>
+      <c r="B458" t="s">
+        <v>5</v>
+      </c>
+      <c r="C458" t="s">
+        <v>118</v>
+      </c>
+      <c r="D458" t="s">
+        <v>109</v>
+      </c>
+      <c r="E458" t="s">
+        <v>109</v>
+      </c>
+      <c r="F458" t="s">
+        <v>109</v>
+      </c>
+      <c r="G458" t="s">
+        <v>84</v>
+      </c>
+      <c r="H458" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A459">
+        <v>20250318</v>
+      </c>
+      <c r="B459" t="s">
+        <v>5</v>
+      </c>
+      <c r="C459" t="s">
+        <v>118</v>
+      </c>
+      <c r="D459" t="s">
+        <v>109</v>
+      </c>
+      <c r="E459" t="s">
+        <v>109</v>
+      </c>
+      <c r="F459" t="s">
+        <v>109</v>
+      </c>
+      <c r="G459" t="s">
+        <v>85</v>
+      </c>
+      <c r="H459" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A460">
+        <v>20250318</v>
+      </c>
+      <c r="B460" t="s">
+        <v>5</v>
+      </c>
+      <c r="C460" t="s">
+        <v>118</v>
+      </c>
+      <c r="D460" t="s">
+        <v>109</v>
+      </c>
+      <c r="E460" t="s">
+        <v>109</v>
+      </c>
+      <c r="F460" t="s">
+        <v>109</v>
+      </c>
+      <c r="G460" t="s">
+        <v>86</v>
+      </c>
+      <c r="H460" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A461">
+        <v>20250318</v>
+      </c>
+      <c r="B461" t="s">
+        <v>5</v>
+      </c>
+      <c r="C461" t="s">
+        <v>118</v>
+      </c>
+      <c r="D461" t="s">
+        <v>111</v>
+      </c>
+      <c r="E461" t="s">
+        <v>112</v>
+      </c>
+      <c r="F461" t="s">
+        <v>116</v>
+      </c>
+      <c r="G461" t="s">
+        <v>87</v>
+      </c>
+      <c r="H461" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A462">
+        <v>20250318</v>
+      </c>
+      <c r="B462" t="s">
+        <v>5</v>
+      </c>
+      <c r="C462" t="s">
+        <v>118</v>
+      </c>
+      <c r="D462" t="s">
+        <v>111</v>
+      </c>
+      <c r="E462" t="s">
+        <v>112</v>
+      </c>
+      <c r="F462" t="s">
+        <v>116</v>
+      </c>
+      <c r="G462" t="s">
+        <v>88</v>
+      </c>
+      <c r="H462" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A463">
+        <v>20250318</v>
+      </c>
+      <c r="B463" t="s">
+        <v>5</v>
+      </c>
+      <c r="C463" t="s">
+        <v>118</v>
+      </c>
+      <c r="D463" t="s">
+        <v>111</v>
+      </c>
+      <c r="E463" t="s">
+        <v>112</v>
+      </c>
+      <c r="F463" t="s">
+        <v>116</v>
+      </c>
+      <c r="G463" t="s">
+        <v>89</v>
+      </c>
+      <c r="H463" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A464">
+        <v>20250318</v>
+      </c>
+      <c r="B464" t="s">
+        <v>5</v>
+      </c>
+      <c r="C464" t="s">
+        <v>118</v>
+      </c>
+      <c r="D464" t="s">
+        <v>111</v>
+      </c>
+      <c r="E464" t="s">
+        <v>112</v>
+      </c>
+      <c r="F464" t="s">
+        <v>116</v>
+      </c>
+      <c r="G464" t="s">
+        <v>90</v>
+      </c>
+      <c r="H464" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A465">
+        <v>20250318</v>
+      </c>
+      <c r="B465" t="s">
+        <v>5</v>
+      </c>
+      <c r="C465" t="s">
+        <v>118</v>
+      </c>
+      <c r="D465" t="s">
+        <v>111</v>
+      </c>
+      <c r="E465" t="s">
+        <v>112</v>
+      </c>
+      <c r="F465" t="s">
+        <v>116</v>
+      </c>
+      <c r="G465" t="s">
+        <v>91</v>
+      </c>
+      <c r="H465" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A466">
+        <v>20250318</v>
+      </c>
+      <c r="B466" t="s">
+        <v>5</v>
+      </c>
+      <c r="C466" t="s">
+        <v>118</v>
+      </c>
+      <c r="D466" t="s">
+        <v>111</v>
+      </c>
+      <c r="E466" t="s">
+        <v>112</v>
+      </c>
+      <c r="F466" t="s">
+        <v>116</v>
+      </c>
+      <c r="G466" t="s">
+        <v>92</v>
+      </c>
+      <c r="H466" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A467">
+        <v>20250318</v>
+      </c>
+      <c r="B467" t="s">
+        <v>5</v>
+      </c>
+      <c r="C467" t="s">
+        <v>118</v>
+      </c>
+      <c r="D467" t="s">
+        <v>111</v>
+      </c>
+      <c r="E467" t="s">
+        <v>112</v>
+      </c>
+      <c r="F467" t="s">
+        <v>116</v>
+      </c>
+      <c r="G467" t="s">
+        <v>93</v>
+      </c>
+      <c r="H467" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A468">
+        <v>20250318</v>
+      </c>
+      <c r="B468" t="s">
+        <v>5</v>
+      </c>
+      <c r="C468" t="s">
+        <v>118</v>
+      </c>
+      <c r="D468" t="s">
+        <v>111</v>
+      </c>
+      <c r="E468" t="s">
+        <v>112</v>
+      </c>
+      <c r="F468" t="s">
+        <v>116</v>
+      </c>
+      <c r="G468" t="s">
+        <v>94</v>
+      </c>
+      <c r="H468" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A469">
+        <v>20250318</v>
+      </c>
+      <c r="B469" t="s">
+        <v>5</v>
+      </c>
+      <c r="C469" t="s">
+        <v>118</v>
+      </c>
+      <c r="D469" t="s">
+        <v>111</v>
+      </c>
+      <c r="E469" t="s">
+        <v>112</v>
+      </c>
+      <c r="F469" t="s">
+        <v>116</v>
+      </c>
+      <c r="G469" t="s">
+        <v>95</v>
+      </c>
+      <c r="H469" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A470">
+        <v>20250318</v>
+      </c>
+      <c r="B470" t="s">
+        <v>5</v>
+      </c>
+      <c r="C470" t="s">
+        <v>118</v>
+      </c>
+      <c r="D470" t="s">
+        <v>111</v>
+      </c>
+      <c r="E470" t="s">
+        <v>112</v>
+      </c>
+      <c r="F470" t="s">
+        <v>116</v>
+      </c>
+      <c r="G470" t="s">
+        <v>96</v>
+      </c>
+      <c r="H470" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A471">
+        <v>20250318</v>
+      </c>
+      <c r="B471" t="s">
+        <v>5</v>
+      </c>
+      <c r="C471" t="s">
+        <v>118</v>
+      </c>
+      <c r="D471" t="s">
+        <v>111</v>
+      </c>
+      <c r="E471" t="s">
+        <v>112</v>
+      </c>
+      <c r="F471" t="s">
+        <v>116</v>
+      </c>
+      <c r="G471" t="s">
+        <v>97</v>
+      </c>
+      <c r="H471" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A472">
+        <v>20250318</v>
+      </c>
+      <c r="B472" t="s">
+        <v>5</v>
+      </c>
+      <c r="C472" t="s">
+        <v>118</v>
+      </c>
+      <c r="D472" t="s">
+        <v>111</v>
+      </c>
+      <c r="E472" t="s">
+        <v>112</v>
+      </c>
+      <c r="F472" t="s">
+        <v>116</v>
+      </c>
+      <c r="G472" t="s">
+        <v>98</v>
+      </c>
+      <c r="H472" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A473">
+        <v>20250318</v>
+      </c>
+      <c r="B473" t="s">
+        <v>5</v>
+      </c>
+      <c r="C473" t="s">
+        <v>118</v>
+      </c>
+      <c r="D473" t="s">
+        <v>111</v>
+      </c>
+      <c r="E473" t="s">
+        <v>112</v>
+      </c>
+      <c r="F473" t="s">
+        <v>116</v>
+      </c>
+      <c r="G473" t="s">
+        <v>99</v>
+      </c>
+      <c r="H473" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A474">
+        <v>20250318</v>
+      </c>
+      <c r="B474" t="s">
+        <v>5</v>
+      </c>
+      <c r="C474" t="s">
+        <v>118</v>
+      </c>
+      <c r="D474" t="s">
+        <v>111</v>
+      </c>
+      <c r="E474" t="s">
+        <v>112</v>
+      </c>
+      <c r="F474" t="s">
+        <v>116</v>
+      </c>
+      <c r="G474" t="s">
+        <v>100</v>
+      </c>
+      <c r="H474" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A475">
+        <v>20250318</v>
+      </c>
+      <c r="B475" t="s">
+        <v>5</v>
+      </c>
+      <c r="C475" t="s">
+        <v>118</v>
+      </c>
+      <c r="D475" t="s">
+        <v>111</v>
+      </c>
+      <c r="E475" t="s">
+        <v>112</v>
+      </c>
+      <c r="F475" t="s">
+        <v>116</v>
+      </c>
+      <c r="G475" t="s">
+        <v>101</v>
+      </c>
+      <c r="H475" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A476">
+        <v>20250318</v>
+      </c>
+      <c r="B476" t="s">
+        <v>5</v>
+      </c>
+      <c r="C476" t="s">
+        <v>118</v>
+      </c>
+      <c r="D476" t="s">
+        <v>111</v>
+      </c>
+      <c r="E476" t="s">
+        <v>112</v>
+      </c>
+      <c r="F476" t="s">
+        <v>116</v>
+      </c>
+      <c r="G476" t="s">
+        <v>102</v>
+      </c>
+      <c r="H476" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A477">
+        <v>20250318</v>
+      </c>
+      <c r="B477" t="s">
+        <v>5</v>
+      </c>
+      <c r="C477" t="s">
+        <v>118</v>
+      </c>
+      <c r="D477" t="s">
+        <v>111</v>
+      </c>
+      <c r="E477" t="s">
+        <v>112</v>
+      </c>
+      <c r="F477" t="s">
+        <v>116</v>
+      </c>
+      <c r="G477" t="s">
+        <v>103</v>
+      </c>
+      <c r="H477" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A478">
+        <v>20250318</v>
+      </c>
+      <c r="B478" t="s">
+        <v>5</v>
+      </c>
+      <c r="C478" t="s">
+        <v>118</v>
+      </c>
+      <c r="D478" t="s">
+        <v>111</v>
+      </c>
+      <c r="E478" t="s">
+        <v>112</v>
+      </c>
+      <c r="F478" t="s">
+        <v>116</v>
+      </c>
+      <c r="G478" t="s">
+        <v>104</v>
+      </c>
+      <c r="H478" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A479">
+        <v>20250318</v>
+      </c>
+      <c r="B479" t="s">
+        <v>5</v>
+      </c>
+      <c r="C479" t="s">
+        <v>118</v>
+      </c>
+      <c r="D479" t="s">
+        <v>111</v>
+      </c>
+      <c r="E479" t="s">
+        <v>112</v>
+      </c>
+      <c r="F479" t="s">
+        <v>116</v>
+      </c>
+      <c r="G479" t="s">
+        <v>105</v>
+      </c>
+      <c r="H479" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A480">
+        <v>20250318</v>
+      </c>
+      <c r="B480" t="s">
+        <v>5</v>
+      </c>
+      <c r="C480" t="s">
+        <v>118</v>
+      </c>
+      <c r="D480" t="s">
+        <v>111</v>
+      </c>
+      <c r="E480" t="s">
+        <v>112</v>
+      </c>
+      <c r="F480" t="s">
+        <v>116</v>
+      </c>
+      <c r="G480" t="s">
+        <v>106</v>
+      </c>
+      <c r="H480" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A481">
+        <v>20250318</v>
+      </c>
+      <c r="B481" t="s">
+        <v>5</v>
+      </c>
+      <c r="C481" t="s">
+        <v>118</v>
+      </c>
+      <c r="D481" t="s">
+        <v>111</v>
+      </c>
+      <c r="E481" t="s">
+        <v>112</v>
+      </c>
+      <c r="F481" t="s">
+        <v>116</v>
+      </c>
+      <c r="G481" t="s">
+        <v>107</v>
+      </c>
+      <c r="H481" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A482">
+        <v>20250318</v>
+      </c>
+      <c r="B482" t="s">
+        <v>45</v>
+      </c>
+      <c r="C482" t="s">
+        <v>120</v>
+      </c>
+      <c r="D482" t="s">
+        <v>109</v>
+      </c>
+      <c r="E482" t="s">
+        <v>109</v>
+      </c>
+      <c r="F482" t="s">
+        <v>109</v>
+      </c>
+      <c r="G482" t="s">
+        <v>8</v>
+      </c>
+      <c r="H482" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A483">
+        <v>20250318</v>
+      </c>
+      <c r="B483" t="s">
+        <v>45</v>
+      </c>
+      <c r="C483" t="s">
+        <v>120</v>
+      </c>
+      <c r="D483" t="s">
+        <v>109</v>
+      </c>
+      <c r="E483" t="s">
+        <v>109</v>
+      </c>
+      <c r="F483" t="s">
+        <v>109</v>
+      </c>
+      <c r="G483" t="s">
+        <v>9</v>
+      </c>
+      <c r="H483" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A484">
+        <v>20250318</v>
+      </c>
+      <c r="B484" t="s">
+        <v>45</v>
+      </c>
+      <c r="C484" t="s">
+        <v>120</v>
+      </c>
+      <c r="D484" t="s">
+        <v>109</v>
+      </c>
+      <c r="E484" t="s">
+        <v>109</v>
+      </c>
+      <c r="F484" t="s">
+        <v>109</v>
+      </c>
+      <c r="G484" t="s">
+        <v>10</v>
+      </c>
+      <c r="H484" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A485">
+        <v>20250318</v>
+      </c>
+      <c r="B485" t="s">
+        <v>45</v>
+      </c>
+      <c r="C485" t="s">
+        <v>120</v>
+      </c>
+      <c r="D485" t="s">
+        <v>6</v>
+      </c>
+      <c r="E485" t="s">
+        <v>110</v>
+      </c>
+      <c r="F485" t="s">
+        <v>117</v>
+      </c>
+      <c r="G485" t="s">
+        <v>11</v>
+      </c>
+      <c r="H485" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A486">
+        <v>20250318</v>
+      </c>
+      <c r="B486" t="s">
+        <v>45</v>
+      </c>
+      <c r="C486" t="s">
+        <v>120</v>
+      </c>
+      <c r="D486" t="s">
+        <v>6</v>
+      </c>
+      <c r="E486" t="s">
+        <v>110</v>
+      </c>
+      <c r="F486" t="s">
+        <v>117</v>
+      </c>
+      <c r="G486" t="s">
+        <v>12</v>
+      </c>
+      <c r="H486" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A487">
+        <v>20250318</v>
+      </c>
+      <c r="B487" t="s">
+        <v>45</v>
+      </c>
+      <c r="C487" t="s">
+        <v>120</v>
+      </c>
+      <c r="D487" t="s">
+        <v>6</v>
+      </c>
+      <c r="E487" t="s">
+        <v>110</v>
+      </c>
+      <c r="F487" t="s">
+        <v>117</v>
+      </c>
+      <c r="G487" t="s">
+        <v>13</v>
+      </c>
+      <c r="H487" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A488">
+        <v>20250318</v>
+      </c>
+      <c r="B488" t="s">
+        <v>45</v>
+      </c>
+      <c r="C488" t="s">
+        <v>120</v>
+      </c>
+      <c r="D488" t="s">
+        <v>6</v>
+      </c>
+      <c r="E488" t="s">
+        <v>110</v>
+      </c>
+      <c r="F488" t="s">
+        <v>117</v>
+      </c>
+      <c r="G488" t="s">
+        <v>14</v>
+      </c>
+      <c r="H488" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A489">
+        <v>20250318</v>
+      </c>
+      <c r="B489" t="s">
+        <v>45</v>
+      </c>
+      <c r="C489" t="s">
+        <v>120</v>
+      </c>
+      <c r="D489" t="s">
+        <v>6</v>
+      </c>
+      <c r="E489" t="s">
+        <v>110</v>
+      </c>
+      <c r="F489" t="s">
+        <v>117</v>
+      </c>
+      <c r="G489" t="s">
+        <v>15</v>
+      </c>
+      <c r="H489" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A490">
+        <v>20250318</v>
+      </c>
+      <c r="B490" t="s">
+        <v>45</v>
+      </c>
+      <c r="C490" t="s">
+        <v>120</v>
+      </c>
+      <c r="D490" t="s">
+        <v>6</v>
+      </c>
+      <c r="E490" t="s">
+        <v>110</v>
+      </c>
+      <c r="F490" t="s">
+        <v>117</v>
+      </c>
+      <c r="G490" t="s">
+        <v>16</v>
+      </c>
+      <c r="H490" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A491">
+        <v>20250318</v>
+      </c>
+      <c r="B491" t="s">
+        <v>45</v>
+      </c>
+      <c r="C491" t="s">
+        <v>120</v>
+      </c>
+      <c r="D491" t="s">
+        <v>6</v>
+      </c>
+      <c r="E491" t="s">
+        <v>110</v>
+      </c>
+      <c r="F491" t="s">
+        <v>117</v>
+      </c>
+      <c r="G491" t="s">
+        <v>17</v>
+      </c>
+      <c r="H491" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A492">
+        <v>20250318</v>
+      </c>
+      <c r="B492" t="s">
+        <v>45</v>
+      </c>
+      <c r="C492" t="s">
+        <v>120</v>
+      </c>
+      <c r="D492" t="s">
+        <v>6</v>
+      </c>
+      <c r="E492" t="s">
+        <v>110</v>
+      </c>
+      <c r="F492" t="s">
+        <v>117</v>
+      </c>
+      <c r="G492" t="s">
+        <v>18</v>
+      </c>
+      <c r="H492" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A493">
+        <v>20250318</v>
+      </c>
+      <c r="B493" t="s">
+        <v>45</v>
+      </c>
+      <c r="C493" t="s">
+        <v>120</v>
+      </c>
+      <c r="D493" t="s">
+        <v>6</v>
+      </c>
+      <c r="E493" t="s">
+        <v>110</v>
+      </c>
+      <c r="F493" t="s">
+        <v>117</v>
+      </c>
+      <c r="G493" t="s">
+        <v>19</v>
+      </c>
+      <c r="H493" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A494">
+        <v>20250318</v>
+      </c>
+      <c r="B494" t="s">
+        <v>45</v>
+      </c>
+      <c r="C494" t="s">
+        <v>120</v>
+      </c>
+      <c r="D494" t="s">
+        <v>6</v>
+      </c>
+      <c r="E494" t="s">
+        <v>110</v>
+      </c>
+      <c r="F494" t="s">
+        <v>117</v>
+      </c>
+      <c r="G494" t="s">
+        <v>20</v>
+      </c>
+      <c r="H494" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A495">
+        <v>20250318</v>
+      </c>
+      <c r="B495" t="s">
+        <v>45</v>
+      </c>
+      <c r="C495" t="s">
+        <v>120</v>
+      </c>
+      <c r="D495" t="s">
+        <v>6</v>
+      </c>
+      <c r="E495" t="s">
+        <v>110</v>
+      </c>
+      <c r="F495" t="s">
+        <v>117</v>
+      </c>
+      <c r="G495" t="s">
+        <v>21</v>
+      </c>
+      <c r="H495" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A496">
+        <v>20250318</v>
+      </c>
+      <c r="B496" t="s">
+        <v>45</v>
+      </c>
+      <c r="C496" t="s">
+        <v>120</v>
+      </c>
+      <c r="D496" t="s">
+        <v>6</v>
+      </c>
+      <c r="E496" t="s">
+        <v>110</v>
+      </c>
+      <c r="F496" t="s">
+        <v>117</v>
+      </c>
+      <c r="G496" t="s">
+        <v>22</v>
+      </c>
+      <c r="H496" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A497">
+        <v>20250318</v>
+      </c>
+      <c r="B497" t="s">
+        <v>45</v>
+      </c>
+      <c r="C497" t="s">
+        <v>120</v>
+      </c>
+      <c r="D497" t="s">
+        <v>6</v>
+      </c>
+      <c r="E497" t="s">
+        <v>110</v>
+      </c>
+      <c r="F497" t="s">
+        <v>117</v>
+      </c>
+      <c r="G497" t="s">
+        <v>23</v>
+      </c>
+      <c r="H497" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A498">
+        <v>20250318</v>
+      </c>
+      <c r="B498" t="s">
+        <v>45</v>
+      </c>
+      <c r="C498" t="s">
+        <v>120</v>
+      </c>
+      <c r="D498" t="s">
+        <v>6</v>
+      </c>
+      <c r="E498" t="s">
+        <v>110</v>
+      </c>
+      <c r="F498" t="s">
+        <v>117</v>
+      </c>
+      <c r="G498" t="s">
+        <v>24</v>
+      </c>
+      <c r="H498" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A499">
+        <v>20250318</v>
+      </c>
+      <c r="B499" t="s">
+        <v>45</v>
+      </c>
+      <c r="C499" t="s">
+        <v>120</v>
+      </c>
+      <c r="D499" t="s">
+        <v>6</v>
+      </c>
+      <c r="E499" t="s">
+        <v>110</v>
+      </c>
+      <c r="F499" t="s">
+        <v>117</v>
+      </c>
+      <c r="G499" t="s">
+        <v>25</v>
+      </c>
+      <c r="H499" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A500">
+        <v>20250318</v>
+      </c>
+      <c r="B500" t="s">
+        <v>45</v>
+      </c>
+      <c r="C500" t="s">
+        <v>120</v>
+      </c>
+      <c r="D500" t="s">
+        <v>6</v>
+      </c>
+      <c r="E500" t="s">
+        <v>110</v>
+      </c>
+      <c r="F500" t="s">
+        <v>117</v>
+      </c>
+      <c r="G500" t="s">
+        <v>26</v>
+      </c>
+      <c r="H500" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A501">
+        <v>20250318</v>
+      </c>
+      <c r="B501" t="s">
+        <v>45</v>
+      </c>
+      <c r="C501" t="s">
+        <v>120</v>
+      </c>
+      <c r="D501" t="s">
+        <v>6</v>
+      </c>
+      <c r="E501" t="s">
+        <v>110</v>
+      </c>
+      <c r="F501" t="s">
+        <v>117</v>
+      </c>
+      <c r="G501" t="s">
+        <v>27</v>
+      </c>
+      <c r="H501" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A502">
+        <v>20250318</v>
+      </c>
+      <c r="B502" t="s">
+        <v>45</v>
+      </c>
+      <c r="C502" t="s">
+        <v>120</v>
+      </c>
+      <c r="D502" t="s">
+        <v>6</v>
+      </c>
+      <c r="E502" t="s">
+        <v>110</v>
+      </c>
+      <c r="F502" t="s">
+        <v>117</v>
+      </c>
+      <c r="G502" t="s">
+        <v>28</v>
+      </c>
+      <c r="H502" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A503">
+        <v>20250318</v>
+      </c>
+      <c r="B503" t="s">
+        <v>45</v>
+      </c>
+      <c r="C503" t="s">
+        <v>120</v>
+      </c>
+      <c r="D503" t="s">
+        <v>6</v>
+      </c>
+      <c r="E503" t="s">
+        <v>110</v>
+      </c>
+      <c r="F503" t="s">
+        <v>117</v>
+      </c>
+      <c r="G503" t="s">
+        <v>29</v>
+      </c>
+      <c r="H503" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A504">
+        <v>20250318</v>
+      </c>
+      <c r="B504" t="s">
+        <v>45</v>
+      </c>
+      <c r="C504" t="s">
+        <v>120</v>
+      </c>
+      <c r="D504" t="s">
+        <v>6</v>
+      </c>
+      <c r="E504" t="s">
+        <v>110</v>
+      </c>
+      <c r="F504" t="s">
+        <v>117</v>
+      </c>
+      <c r="G504" t="s">
+        <v>30</v>
+      </c>
+      <c r="H504" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A505">
+        <v>20250318</v>
+      </c>
+      <c r="B505" t="s">
+        <v>45</v>
+      </c>
+      <c r="C505" t="s">
+        <v>120</v>
+      </c>
+      <c r="D505" t="s">
+        <v>6</v>
+      </c>
+      <c r="E505" t="s">
+        <v>110</v>
+      </c>
+      <c r="F505" t="s">
+        <v>117</v>
+      </c>
+      <c r="G505" t="s">
+        <v>31</v>
+      </c>
+      <c r="H505" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A506">
+        <v>20250318</v>
+      </c>
+      <c r="B506" t="s">
+        <v>45</v>
+      </c>
+      <c r="C506" t="s">
+        <v>120</v>
+      </c>
+      <c r="D506" t="s">
+        <v>109</v>
+      </c>
+      <c r="E506" t="s">
+        <v>109</v>
+      </c>
+      <c r="F506" t="s">
+        <v>109</v>
+      </c>
+      <c r="G506" t="s">
+        <v>32</v>
+      </c>
+      <c r="H506" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A507">
+        <v>20250318</v>
+      </c>
+      <c r="B507" t="s">
+        <v>45</v>
+      </c>
+      <c r="C507" t="s">
+        <v>120</v>
+      </c>
+      <c r="D507" t="s">
+        <v>109</v>
+      </c>
+      <c r="E507" t="s">
+        <v>109</v>
+      </c>
+      <c r="F507" t="s">
+        <v>109</v>
+      </c>
+      <c r="G507" t="s">
+        <v>33</v>
+      </c>
+      <c r="H507" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A508">
+        <v>20250318</v>
+      </c>
+      <c r="B508" t="s">
+        <v>45</v>
+      </c>
+      <c r="C508" t="s">
+        <v>120</v>
+      </c>
+      <c r="D508" t="s">
+        <v>109</v>
+      </c>
+      <c r="E508" t="s">
+        <v>109</v>
+      </c>
+      <c r="F508" t="s">
+        <v>109</v>
+      </c>
+      <c r="G508" t="s">
+        <v>34</v>
+      </c>
+      <c r="H508" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A509">
+        <v>20250318</v>
+      </c>
+      <c r="B509" t="s">
+        <v>45</v>
+      </c>
+      <c r="C509" t="s">
+        <v>120</v>
+      </c>
+      <c r="D509" t="s">
+        <v>111</v>
+      </c>
+      <c r="E509" t="s">
+        <v>113</v>
+      </c>
+      <c r="F509" t="s">
+        <v>117</v>
+      </c>
+      <c r="G509" t="s">
+        <v>35</v>
+      </c>
+      <c r="H509" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A510">
+        <v>20250318</v>
+      </c>
+      <c r="B510" t="s">
+        <v>45</v>
+      </c>
+      <c r="C510" t="s">
+        <v>120</v>
+      </c>
+      <c r="D510" t="s">
+        <v>111</v>
+      </c>
+      <c r="E510" t="s">
+        <v>113</v>
+      </c>
+      <c r="F510" t="s">
+        <v>117</v>
+      </c>
+      <c r="G510" t="s">
+        <v>36</v>
+      </c>
+      <c r="H510" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A511">
+        <v>20250318</v>
+      </c>
+      <c r="B511" t="s">
+        <v>45</v>
+      </c>
+      <c r="C511" t="s">
+        <v>120</v>
+      </c>
+      <c r="D511" t="s">
+        <v>111</v>
+      </c>
+      <c r="E511" t="s">
+        <v>113</v>
+      </c>
+      <c r="F511" t="s">
+        <v>117</v>
+      </c>
+      <c r="G511" t="s">
+        <v>37</v>
+      </c>
+      <c r="H511" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A512">
+        <v>20250318</v>
+      </c>
+      <c r="B512" t="s">
+        <v>45</v>
+      </c>
+      <c r="C512" t="s">
+        <v>120</v>
+      </c>
+      <c r="D512" t="s">
+        <v>111</v>
+      </c>
+      <c r="E512" t="s">
+        <v>113</v>
+      </c>
+      <c r="F512" t="s">
+        <v>117</v>
+      </c>
+      <c r="G512" t="s">
+        <v>38</v>
+      </c>
+      <c r="H512" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A513">
+        <v>20250318</v>
+      </c>
+      <c r="B513" t="s">
+        <v>45</v>
+      </c>
+      <c r="C513" t="s">
+        <v>120</v>
+      </c>
+      <c r="D513" t="s">
+        <v>111</v>
+      </c>
+      <c r="E513" t="s">
+        <v>113</v>
+      </c>
+      <c r="F513" t="s">
+        <v>117</v>
+      </c>
+      <c r="G513" t="s">
+        <v>39</v>
+      </c>
+      <c r="H513" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A514">
+        <v>20250318</v>
+      </c>
+      <c r="B514" t="s">
+        <v>45</v>
+      </c>
+      <c r="C514" t="s">
+        <v>120</v>
+      </c>
+      <c r="D514" t="s">
+        <v>111</v>
+      </c>
+      <c r="E514" t="s">
+        <v>113</v>
+      </c>
+      <c r="F514" t="s">
+        <v>117</v>
+      </c>
+      <c r="G514" t="s">
+        <v>40</v>
+      </c>
+      <c r="H514" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A515">
+        <v>20250318</v>
+      </c>
+      <c r="B515" t="s">
+        <v>45</v>
+      </c>
+      <c r="C515" t="s">
+        <v>120</v>
+      </c>
+      <c r="D515" t="s">
+        <v>111</v>
+      </c>
+      <c r="E515" t="s">
+        <v>113</v>
+      </c>
+      <c r="F515" t="s">
+        <v>117</v>
+      </c>
+      <c r="G515" t="s">
+        <v>41</v>
+      </c>
+      <c r="H515" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A516">
+        <v>20250318</v>
+      </c>
+      <c r="B516" t="s">
+        <v>45</v>
+      </c>
+      <c r="C516" t="s">
+        <v>120</v>
+      </c>
+      <c r="D516" t="s">
+        <v>111</v>
+      </c>
+      <c r="E516" t="s">
+        <v>113</v>
+      </c>
+      <c r="F516" t="s">
+        <v>117</v>
+      </c>
+      <c r="G516" t="s">
+        <v>42</v>
+      </c>
+      <c r="H516" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A517">
+        <v>20250318</v>
+      </c>
+      <c r="B517" t="s">
+        <v>45</v>
+      </c>
+      <c r="C517" t="s">
+        <v>120</v>
+      </c>
+      <c r="D517" t="s">
+        <v>111</v>
+      </c>
+      <c r="E517" t="s">
+        <v>113</v>
+      </c>
+      <c r="F517" t="s">
+        <v>117</v>
+      </c>
+      <c r="G517" t="s">
+        <v>43</v>
+      </c>
+      <c r="H517" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A518">
+        <v>20250318</v>
+      </c>
+      <c r="B518" t="s">
+        <v>45</v>
+      </c>
+      <c r="C518" t="s">
+        <v>120</v>
+      </c>
+      <c r="D518" t="s">
+        <v>111</v>
+      </c>
+      <c r="E518" t="s">
+        <v>113</v>
+      </c>
+      <c r="F518" t="s">
+        <v>117</v>
+      </c>
+      <c r="G518" t="s">
+        <v>48</v>
+      </c>
+      <c r="H518" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A519">
+        <v>20250318</v>
+      </c>
+      <c r="B519" t="s">
+        <v>45</v>
+      </c>
+      <c r="C519" t="s">
+        <v>120</v>
+      </c>
+      <c r="D519" t="s">
+        <v>111</v>
+      </c>
+      <c r="E519" t="s">
+        <v>113</v>
+      </c>
+      <c r="F519" t="s">
+        <v>117</v>
+      </c>
+      <c r="G519" t="s">
+        <v>49</v>
+      </c>
+      <c r="H519" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A520">
+        <v>20250318</v>
+      </c>
+      <c r="B520" t="s">
+        <v>45</v>
+      </c>
+      <c r="C520" t="s">
+        <v>120</v>
+      </c>
+      <c r="D520" t="s">
+        <v>111</v>
+      </c>
+      <c r="E520" t="s">
+        <v>113</v>
+      </c>
+      <c r="F520" t="s">
+        <v>117</v>
+      </c>
+      <c r="G520" t="s">
+        <v>50</v>
+      </c>
+      <c r="H520" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A521">
+        <v>20250318</v>
+      </c>
+      <c r="B521" t="s">
+        <v>45</v>
+      </c>
+      <c r="C521" t="s">
+        <v>120</v>
+      </c>
+      <c r="D521" t="s">
+        <v>111</v>
+      </c>
+      <c r="E521" t="s">
+        <v>113</v>
+      </c>
+      <c r="F521" t="s">
+        <v>117</v>
+      </c>
+      <c r="G521" t="s">
+        <v>51</v>
+      </c>
+      <c r="H521" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A522">
+        <v>20250318</v>
+      </c>
+      <c r="B522" t="s">
+        <v>45</v>
+      </c>
+      <c r="C522" t="s">
+        <v>120</v>
+      </c>
+      <c r="D522" t="s">
+        <v>111</v>
+      </c>
+      <c r="E522" t="s">
+        <v>113</v>
+      </c>
+      <c r="F522" t="s">
+        <v>117</v>
+      </c>
+      <c r="G522" t="s">
+        <v>52</v>
+      </c>
+      <c r="H522" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A523">
+        <v>20250318</v>
+      </c>
+      <c r="B523" t="s">
+        <v>45</v>
+      </c>
+      <c r="C523" t="s">
+        <v>120</v>
+      </c>
+      <c r="D523" t="s">
+        <v>111</v>
+      </c>
+      <c r="E523" t="s">
+        <v>113</v>
+      </c>
+      <c r="F523" t="s">
+        <v>117</v>
+      </c>
+      <c r="G523" t="s">
+        <v>53</v>
+      </c>
+      <c r="H523" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A524">
+        <v>20250318</v>
+      </c>
+      <c r="B524" t="s">
+        <v>45</v>
+      </c>
+      <c r="C524" t="s">
+        <v>120</v>
+      </c>
+      <c r="D524" t="s">
+        <v>111</v>
+      </c>
+      <c r="E524" t="s">
+        <v>113</v>
+      </c>
+      <c r="F524" t="s">
+        <v>117</v>
+      </c>
+      <c r="G524" t="s">
+        <v>54</v>
+      </c>
+      <c r="H524" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A525">
+        <v>20250318</v>
+      </c>
+      <c r="B525" t="s">
+        <v>45</v>
+      </c>
+      <c r="C525" t="s">
+        <v>120</v>
+      </c>
+      <c r="D525" t="s">
+        <v>111</v>
+      </c>
+      <c r="E525" t="s">
+        <v>113</v>
+      </c>
+      <c r="F525" t="s">
+        <v>117</v>
+      </c>
+      <c r="G525" t="s">
+        <v>55</v>
+      </c>
+      <c r="H525" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A526">
+        <v>20250318</v>
+      </c>
+      <c r="B526" t="s">
+        <v>45</v>
+      </c>
+      <c r="C526" t="s">
+        <v>120</v>
+      </c>
+      <c r="D526" t="s">
+        <v>111</v>
+      </c>
+      <c r="E526" t="s">
+        <v>113</v>
+      </c>
+      <c r="F526" t="s">
+        <v>117</v>
+      </c>
+      <c r="G526" t="s">
+        <v>56</v>
+      </c>
+      <c r="H526" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A527">
+        <v>20250318</v>
+      </c>
+      <c r="B527" t="s">
+        <v>45</v>
+      </c>
+      <c r="C527" t="s">
+        <v>120</v>
+      </c>
+      <c r="D527" t="s">
+        <v>111</v>
+      </c>
+      <c r="E527" t="s">
+        <v>113</v>
+      </c>
+      <c r="F527" t="s">
+        <v>117</v>
+      </c>
+      <c r="G527" t="s">
+        <v>57</v>
+      </c>
+      <c r="H527" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A528">
+        <v>20250318</v>
+      </c>
+      <c r="B528" t="s">
+        <v>45</v>
+      </c>
+      <c r="C528" t="s">
+        <v>120</v>
+      </c>
+      <c r="D528" t="s">
+        <v>111</v>
+      </c>
+      <c r="E528" t="s">
+        <v>113</v>
+      </c>
+      <c r="F528" t="s">
+        <v>117</v>
+      </c>
+      <c r="G528" t="s">
+        <v>58</v>
+      </c>
+      <c r="H528" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A529">
+        <v>20250318</v>
+      </c>
+      <c r="B529" t="s">
+        <v>45</v>
+      </c>
+      <c r="C529" t="s">
+        <v>120</v>
+      </c>
+      <c r="D529" t="s">
+        <v>111</v>
+      </c>
+      <c r="E529" t="s">
+        <v>113</v>
+      </c>
+      <c r="F529" t="s">
+        <v>117</v>
+      </c>
+      <c r="G529" t="s">
+        <v>59</v>
+      </c>
+      <c r="H529" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A530">
+        <v>20250318</v>
+      </c>
+      <c r="B530" t="s">
+        <v>45</v>
+      </c>
+      <c r="C530" t="s">
+        <v>120</v>
+      </c>
+      <c r="D530" t="s">
+        <v>109</v>
+      </c>
+      <c r="E530" t="s">
+        <v>109</v>
+      </c>
+      <c r="F530" t="s">
+        <v>109</v>
+      </c>
+      <c r="G530" t="s">
+        <v>60</v>
+      </c>
+      <c r="H530" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A531">
+        <v>20250318</v>
+      </c>
+      <c r="B531" t="s">
+        <v>45</v>
+      </c>
+      <c r="C531" t="s">
+        <v>120</v>
+      </c>
+      <c r="D531" t="s">
+        <v>109</v>
+      </c>
+      <c r="E531" t="s">
+        <v>109</v>
+      </c>
+      <c r="F531" t="s">
+        <v>109</v>
+      </c>
+      <c r="G531" t="s">
+        <v>61</v>
+      </c>
+      <c r="H531" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A532">
+        <v>20250318</v>
+      </c>
+      <c r="B532" t="s">
+        <v>45</v>
+      </c>
+      <c r="C532" t="s">
+        <v>120</v>
+      </c>
+      <c r="D532" t="s">
+        <v>109</v>
+      </c>
+      <c r="E532" t="s">
+        <v>109</v>
+      </c>
+      <c r="F532" t="s">
+        <v>109</v>
+      </c>
+      <c r="G532" t="s">
+        <v>62</v>
+      </c>
+      <c r="H532" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A533">
+        <v>20250318</v>
+      </c>
+      <c r="B533" t="s">
+        <v>45</v>
+      </c>
+      <c r="C533" t="s">
+        <v>120</v>
+      </c>
+      <c r="D533" t="s">
+        <v>6</v>
+      </c>
+      <c r="E533" t="s">
+        <v>108</v>
+      </c>
+      <c r="F533" t="s">
+        <v>116</v>
+      </c>
+      <c r="G533" t="s">
+        <v>63</v>
+      </c>
+      <c r="H533" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A534">
+        <v>20250318</v>
+      </c>
+      <c r="B534" t="s">
+        <v>45</v>
+      </c>
+      <c r="C534" t="s">
+        <v>120</v>
+      </c>
+      <c r="D534" t="s">
+        <v>6</v>
+      </c>
+      <c r="E534" t="s">
+        <v>108</v>
+      </c>
+      <c r="F534" t="s">
+        <v>116</v>
+      </c>
+      <c r="G534" t="s">
+        <v>64</v>
+      </c>
+      <c r="H534" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A535">
+        <v>20250318</v>
+      </c>
+      <c r="B535" t="s">
+        <v>45</v>
+      </c>
+      <c r="C535" t="s">
+        <v>120</v>
+      </c>
+      <c r="D535" t="s">
+        <v>6</v>
+      </c>
+      <c r="E535" t="s">
+        <v>108</v>
+      </c>
+      <c r="F535" t="s">
+        <v>116</v>
+      </c>
+      <c r="G535" t="s">
+        <v>65</v>
+      </c>
+      <c r="H535" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A536">
+        <v>20250318</v>
+      </c>
+      <c r="B536" t="s">
+        <v>45</v>
+      </c>
+      <c r="C536" t="s">
+        <v>120</v>
+      </c>
+      <c r="D536" t="s">
+        <v>6</v>
+      </c>
+      <c r="E536" t="s">
+        <v>108</v>
+      </c>
+      <c r="F536" t="s">
+        <v>116</v>
+      </c>
+      <c r="G536" t="s">
+        <v>66</v>
+      </c>
+      <c r="H536" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A537">
+        <v>20250318</v>
+      </c>
+      <c r="B537" t="s">
+        <v>45</v>
+      </c>
+      <c r="C537" t="s">
+        <v>120</v>
+      </c>
+      <c r="D537" t="s">
+        <v>6</v>
+      </c>
+      <c r="E537" t="s">
+        <v>108</v>
+      </c>
+      <c r="F537" t="s">
+        <v>116</v>
+      </c>
+      <c r="G537" t="s">
+        <v>67</v>
+      </c>
+      <c r="H537" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A538">
+        <v>20250318</v>
+      </c>
+      <c r="B538" t="s">
+        <v>45</v>
+      </c>
+      <c r="C538" t="s">
+        <v>120</v>
+      </c>
+      <c r="D538" t="s">
+        <v>6</v>
+      </c>
+      <c r="E538" t="s">
+        <v>108</v>
+      </c>
+      <c r="F538" t="s">
+        <v>116</v>
+      </c>
+      <c r="G538" t="s">
+        <v>68</v>
+      </c>
+      <c r="H538" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A539">
+        <v>20250318</v>
+      </c>
+      <c r="B539" t="s">
+        <v>45</v>
+      </c>
+      <c r="C539" t="s">
+        <v>120</v>
+      </c>
+      <c r="D539" t="s">
+        <v>6</v>
+      </c>
+      <c r="E539" t="s">
+        <v>108</v>
+      </c>
+      <c r="F539" t="s">
+        <v>116</v>
+      </c>
+      <c r="G539" t="s">
+        <v>69</v>
+      </c>
+      <c r="H539" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A540">
+        <v>20250318</v>
+      </c>
+      <c r="B540" t="s">
+        <v>45</v>
+      </c>
+      <c r="C540" t="s">
+        <v>120</v>
+      </c>
+      <c r="D540" t="s">
+        <v>6</v>
+      </c>
+      <c r="E540" t="s">
+        <v>108</v>
+      </c>
+      <c r="F540" t="s">
+        <v>116</v>
+      </c>
+      <c r="G540" t="s">
+        <v>70</v>
+      </c>
+      <c r="H540" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A541">
+        <v>20250318</v>
+      </c>
+      <c r="B541" t="s">
+        <v>45</v>
+      </c>
+      <c r="C541" t="s">
+        <v>120</v>
+      </c>
+      <c r="D541" t="s">
+        <v>6</v>
+      </c>
+      <c r="E541" t="s">
+        <v>108</v>
+      </c>
+      <c r="F541" t="s">
+        <v>116</v>
+      </c>
+      <c r="G541" t="s">
+        <v>71</v>
+      </c>
+      <c r="H541" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A542">
+        <v>20250318</v>
+      </c>
+      <c r="B542" t="s">
+        <v>45</v>
+      </c>
+      <c r="C542" t="s">
+        <v>120</v>
+      </c>
+      <c r="D542" t="s">
+        <v>6</v>
+      </c>
+      <c r="E542" t="s">
+        <v>108</v>
+      </c>
+      <c r="F542" t="s">
+        <v>116</v>
+      </c>
+      <c r="G542" t="s">
+        <v>72</v>
+      </c>
+      <c r="H542" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="543" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A543">
+        <v>20250318</v>
+      </c>
+      <c r="B543" t="s">
+        <v>45</v>
+      </c>
+      <c r="C543" t="s">
+        <v>120</v>
+      </c>
+      <c r="D543" t="s">
+        <v>6</v>
+      </c>
+      <c r="E543" t="s">
+        <v>108</v>
+      </c>
+      <c r="F543" t="s">
+        <v>116</v>
+      </c>
+      <c r="G543" t="s">
+        <v>73</v>
+      </c>
+      <c r="H543" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="544" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A544">
+        <v>20250318</v>
+      </c>
+      <c r="B544" t="s">
+        <v>45</v>
+      </c>
+      <c r="C544" t="s">
+        <v>120</v>
+      </c>
+      <c r="D544" t="s">
+        <v>6</v>
+      </c>
+      <c r="E544" t="s">
+        <v>108</v>
+      </c>
+      <c r="F544" t="s">
+        <v>116</v>
+      </c>
+      <c r="G544" t="s">
+        <v>74</v>
+      </c>
+      <c r="H544" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A545">
+        <v>20250318</v>
+      </c>
+      <c r="B545" t="s">
+        <v>45</v>
+      </c>
+      <c r="C545" t="s">
+        <v>120</v>
+      </c>
+      <c r="D545" t="s">
+        <v>6</v>
+      </c>
+      <c r="E545" t="s">
+        <v>108</v>
+      </c>
+      <c r="F545" t="s">
+        <v>116</v>
+      </c>
+      <c r="G545" t="s">
+        <v>75</v>
+      </c>
+      <c r="H545" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A546">
+        <v>20250318</v>
+      </c>
+      <c r="B546" t="s">
+        <v>45</v>
+      </c>
+      <c r="C546" t="s">
+        <v>120</v>
+      </c>
+      <c r="D546" t="s">
+        <v>6</v>
+      </c>
+      <c r="E546" t="s">
+        <v>108</v>
+      </c>
+      <c r="F546" t="s">
+        <v>116</v>
+      </c>
+      <c r="G546" t="s">
+        <v>76</v>
+      </c>
+      <c r="H546" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A547">
+        <v>20250318</v>
+      </c>
+      <c r="B547" t="s">
+        <v>45</v>
+      </c>
+      <c r="C547" t="s">
+        <v>120</v>
+      </c>
+      <c r="D547" t="s">
+        <v>6</v>
+      </c>
+      <c r="E547" t="s">
+        <v>108</v>
+      </c>
+      <c r="F547" t="s">
+        <v>116</v>
+      </c>
+      <c r="G547" t="s">
+        <v>77</v>
+      </c>
+      <c r="H547" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A548">
+        <v>20250318</v>
+      </c>
+      <c r="B548" t="s">
+        <v>45</v>
+      </c>
+      <c r="C548" t="s">
+        <v>120</v>
+      </c>
+      <c r="D548" t="s">
+        <v>6</v>
+      </c>
+      <c r="E548" t="s">
+        <v>108</v>
+      </c>
+      <c r="F548" t="s">
+        <v>116</v>
+      </c>
+      <c r="G548" t="s">
+        <v>78</v>
+      </c>
+      <c r="H548" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A549">
+        <v>20250318</v>
+      </c>
+      <c r="B549" t="s">
+        <v>45</v>
+      </c>
+      <c r="C549" t="s">
+        <v>120</v>
+      </c>
+      <c r="D549" t="s">
+        <v>6</v>
+      </c>
+      <c r="E549" t="s">
+        <v>108</v>
+      </c>
+      <c r="F549" t="s">
+        <v>116</v>
+      </c>
+      <c r="G549" t="s">
+        <v>79</v>
+      </c>
+      <c r="H549" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A550">
+        <v>20250318</v>
+      </c>
+      <c r="B550" t="s">
+        <v>45</v>
+      </c>
+      <c r="C550" t="s">
+        <v>120</v>
+      </c>
+      <c r="D550" t="s">
+        <v>6</v>
+      </c>
+      <c r="E550" t="s">
+        <v>108</v>
+      </c>
+      <c r="F550" t="s">
+        <v>116</v>
+      </c>
+      <c r="G550" t="s">
+        <v>80</v>
+      </c>
+      <c r="H550" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A551">
+        <v>20250318</v>
+      </c>
+      <c r="B551" t="s">
+        <v>45</v>
+      </c>
+      <c r="C551" t="s">
+        <v>120</v>
+      </c>
+      <c r="D551" t="s">
+        <v>6</v>
+      </c>
+      <c r="E551" t="s">
+        <v>108</v>
+      </c>
+      <c r="F551" t="s">
+        <v>116</v>
+      </c>
+      <c r="G551" t="s">
+        <v>81</v>
+      </c>
+      <c r="H551" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A552">
+        <v>20250318</v>
+      </c>
+      <c r="B552" t="s">
+        <v>45</v>
+      </c>
+      <c r="C552" t="s">
+        <v>120</v>
+      </c>
+      <c r="D552" t="s">
+        <v>6</v>
+      </c>
+      <c r="E552" t="s">
+        <v>108</v>
+      </c>
+      <c r="F552" t="s">
+        <v>116</v>
+      </c>
+      <c r="G552" t="s">
+        <v>82</v>
+      </c>
+      <c r="H552" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A553">
+        <v>20250318</v>
+      </c>
+      <c r="B553" t="s">
+        <v>45</v>
+      </c>
+      <c r="C553" t="s">
+        <v>120</v>
+      </c>
+      <c r="D553" t="s">
+        <v>6</v>
+      </c>
+      <c r="E553" t="s">
+        <v>108</v>
+      </c>
+      <c r="F553" t="s">
+        <v>116</v>
+      </c>
+      <c r="G553" t="s">
+        <v>83</v>
+      </c>
+      <c r="H553" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A554">
+        <v>20250318</v>
+      </c>
+      <c r="B554" t="s">
+        <v>45</v>
+      </c>
+      <c r="C554" t="s">
+        <v>120</v>
+      </c>
+      <c r="D554" t="s">
+        <v>109</v>
+      </c>
+      <c r="E554" t="s">
+        <v>109</v>
+      </c>
+      <c r="F554" t="s">
+        <v>109</v>
+      </c>
+      <c r="G554" t="s">
+        <v>84</v>
+      </c>
+      <c r="H554" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A555">
+        <v>20250318</v>
+      </c>
+      <c r="B555" t="s">
+        <v>45</v>
+      </c>
+      <c r="C555" t="s">
+        <v>120</v>
+      </c>
+      <c r="D555" t="s">
+        <v>109</v>
+      </c>
+      <c r="E555" t="s">
+        <v>109</v>
+      </c>
+      <c r="F555" t="s">
+        <v>109</v>
+      </c>
+      <c r="G555" t="s">
+        <v>85</v>
+      </c>
+      <c r="H555" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A556">
+        <v>20250318</v>
+      </c>
+      <c r="B556" t="s">
+        <v>45</v>
+      </c>
+      <c r="C556" t="s">
+        <v>120</v>
+      </c>
+      <c r="D556" t="s">
+        <v>109</v>
+      </c>
+      <c r="E556" t="s">
+        <v>109</v>
+      </c>
+      <c r="F556" t="s">
+        <v>109</v>
+      </c>
+      <c r="G556" t="s">
+        <v>86</v>
+      </c>
+      <c r="H556" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A557">
+        <v>20250318</v>
+      </c>
+      <c r="B557" t="s">
+        <v>45</v>
+      </c>
+      <c r="C557" t="s">
+        <v>120</v>
+      </c>
+      <c r="D557" t="s">
+        <v>111</v>
+      </c>
+      <c r="E557" t="s">
+        <v>112</v>
+      </c>
+      <c r="F557" t="s">
+        <v>116</v>
+      </c>
+      <c r="G557" t="s">
+        <v>87</v>
+      </c>
+      <c r="H557" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A558">
+        <v>20250318</v>
+      </c>
+      <c r="B558" t="s">
+        <v>45</v>
+      </c>
+      <c r="C558" t="s">
+        <v>120</v>
+      </c>
+      <c r="D558" t="s">
+        <v>111</v>
+      </c>
+      <c r="E558" t="s">
+        <v>112</v>
+      </c>
+      <c r="F558" t="s">
+        <v>116</v>
+      </c>
+      <c r="G558" t="s">
+        <v>88</v>
+      </c>
+      <c r="H558" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A559">
+        <v>20250318</v>
+      </c>
+      <c r="B559" t="s">
+        <v>45</v>
+      </c>
+      <c r="C559" t="s">
+        <v>120</v>
+      </c>
+      <c r="D559" t="s">
+        <v>111</v>
+      </c>
+      <c r="E559" t="s">
+        <v>112</v>
+      </c>
+      <c r="F559" t="s">
+        <v>116</v>
+      </c>
+      <c r="G559" t="s">
+        <v>89</v>
+      </c>
+      <c r="H559" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A560">
+        <v>20250318</v>
+      </c>
+      <c r="B560" t="s">
+        <v>45</v>
+      </c>
+      <c r="C560" t="s">
+        <v>120</v>
+      </c>
+      <c r="D560" t="s">
+        <v>111</v>
+      </c>
+      <c r="E560" t="s">
+        <v>112</v>
+      </c>
+      <c r="F560" t="s">
+        <v>116</v>
+      </c>
+      <c r="G560" t="s">
+        <v>90</v>
+      </c>
+      <c r="H560" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A561">
+        <v>20250318</v>
+      </c>
+      <c r="B561" t="s">
+        <v>45</v>
+      </c>
+      <c r="C561" t="s">
+        <v>120</v>
+      </c>
+      <c r="D561" t="s">
+        <v>111</v>
+      </c>
+      <c r="E561" t="s">
+        <v>112</v>
+      </c>
+      <c r="F561" t="s">
+        <v>116</v>
+      </c>
+      <c r="G561" t="s">
+        <v>91</v>
+      </c>
+      <c r="H561" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A562">
+        <v>20250318</v>
+      </c>
+      <c r="B562" t="s">
+        <v>45</v>
+      </c>
+      <c r="C562" t="s">
+        <v>120</v>
+      </c>
+      <c r="D562" t="s">
+        <v>111</v>
+      </c>
+      <c r="E562" t="s">
+        <v>112</v>
+      </c>
+      <c r="F562" t="s">
+        <v>116</v>
+      </c>
+      <c r="G562" t="s">
+        <v>92</v>
+      </c>
+      <c r="H562" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A563">
+        <v>20250318</v>
+      </c>
+      <c r="B563" t="s">
+        <v>45</v>
+      </c>
+      <c r="C563" t="s">
+        <v>120</v>
+      </c>
+      <c r="D563" t="s">
+        <v>111</v>
+      </c>
+      <c r="E563" t="s">
+        <v>112</v>
+      </c>
+      <c r="F563" t="s">
+        <v>116</v>
+      </c>
+      <c r="G563" t="s">
+        <v>93</v>
+      </c>
+      <c r="H563" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A564">
+        <v>20250318</v>
+      </c>
+      <c r="B564" t="s">
+        <v>45</v>
+      </c>
+      <c r="C564" t="s">
+        <v>120</v>
+      </c>
+      <c r="D564" t="s">
+        <v>111</v>
+      </c>
+      <c r="E564" t="s">
+        <v>112</v>
+      </c>
+      <c r="F564" t="s">
+        <v>116</v>
+      </c>
+      <c r="G564" t="s">
+        <v>94</v>
+      </c>
+      <c r="H564" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A565">
+        <v>20250318</v>
+      </c>
+      <c r="B565" t="s">
+        <v>45</v>
+      </c>
+      <c r="C565" t="s">
+        <v>120</v>
+      </c>
+      <c r="D565" t="s">
+        <v>111</v>
+      </c>
+      <c r="E565" t="s">
+        <v>112</v>
+      </c>
+      <c r="F565" t="s">
+        <v>116</v>
+      </c>
+      <c r="G565" t="s">
+        <v>95</v>
+      </c>
+      <c r="H565" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A566">
+        <v>20250318</v>
+      </c>
+      <c r="B566" t="s">
+        <v>45</v>
+      </c>
+      <c r="C566" t="s">
+        <v>120</v>
+      </c>
+      <c r="D566" t="s">
+        <v>111</v>
+      </c>
+      <c r="E566" t="s">
+        <v>112</v>
+      </c>
+      <c r="F566" t="s">
+        <v>116</v>
+      </c>
+      <c r="G566" t="s">
+        <v>96</v>
+      </c>
+      <c r="H566" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A567">
+        <v>20250318</v>
+      </c>
+      <c r="B567" t="s">
+        <v>45</v>
+      </c>
+      <c r="C567" t="s">
+        <v>120</v>
+      </c>
+      <c r="D567" t="s">
+        <v>111</v>
+      </c>
+      <c r="E567" t="s">
+        <v>112</v>
+      </c>
+      <c r="F567" t="s">
+        <v>116</v>
+      </c>
+      <c r="G567" t="s">
+        <v>97</v>
+      </c>
+      <c r="H567" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A568">
+        <v>20250318</v>
+      </c>
+      <c r="B568" t="s">
+        <v>45</v>
+      </c>
+      <c r="C568" t="s">
+        <v>120</v>
+      </c>
+      <c r="D568" t="s">
+        <v>111</v>
+      </c>
+      <c r="E568" t="s">
+        <v>112</v>
+      </c>
+      <c r="F568" t="s">
+        <v>116</v>
+      </c>
+      <c r="G568" t="s">
+        <v>98</v>
+      </c>
+      <c r="H568" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A569">
+        <v>20250318</v>
+      </c>
+      <c r="B569" t="s">
+        <v>45</v>
+      </c>
+      <c r="C569" t="s">
+        <v>120</v>
+      </c>
+      <c r="D569" t="s">
+        <v>111</v>
+      </c>
+      <c r="E569" t="s">
+        <v>112</v>
+      </c>
+      <c r="F569" t="s">
+        <v>116</v>
+      </c>
+      <c r="G569" t="s">
+        <v>99</v>
+      </c>
+      <c r="H569" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A570">
+        <v>20250318</v>
+      </c>
+      <c r="B570" t="s">
+        <v>45</v>
+      </c>
+      <c r="C570" t="s">
+        <v>120</v>
+      </c>
+      <c r="D570" t="s">
+        <v>111</v>
+      </c>
+      <c r="E570" t="s">
+        <v>112</v>
+      </c>
+      <c r="F570" t="s">
+        <v>116</v>
+      </c>
+      <c r="G570" t="s">
+        <v>100</v>
+      </c>
+      <c r="H570" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A571">
+        <v>20250318</v>
+      </c>
+      <c r="B571" t="s">
+        <v>45</v>
+      </c>
+      <c r="C571" t="s">
+        <v>120</v>
+      </c>
+      <c r="D571" t="s">
+        <v>111</v>
+      </c>
+      <c r="E571" t="s">
+        <v>112</v>
+      </c>
+      <c r="F571" t="s">
+        <v>116</v>
+      </c>
+      <c r="G571" t="s">
+        <v>101</v>
+      </c>
+      <c r="H571" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A572">
+        <v>20250318</v>
+      </c>
+      <c r="B572" t="s">
+        <v>45</v>
+      </c>
+      <c r="C572" t="s">
+        <v>120</v>
+      </c>
+      <c r="D572" t="s">
+        <v>111</v>
+      </c>
+      <c r="E572" t="s">
+        <v>112</v>
+      </c>
+      <c r="F572" t="s">
+        <v>116</v>
+      </c>
+      <c r="G572" t="s">
+        <v>102</v>
+      </c>
+      <c r="H572" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A573">
+        <v>20250318</v>
+      </c>
+      <c r="B573" t="s">
+        <v>45</v>
+      </c>
+      <c r="C573" t="s">
+        <v>120</v>
+      </c>
+      <c r="D573" t="s">
+        <v>111</v>
+      </c>
+      <c r="E573" t="s">
+        <v>112</v>
+      </c>
+      <c r="F573" t="s">
+        <v>116</v>
+      </c>
+      <c r="G573" t="s">
+        <v>103</v>
+      </c>
+      <c r="H573" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A574">
+        <v>20250318</v>
+      </c>
+      <c r="B574" t="s">
+        <v>45</v>
+      </c>
+      <c r="C574" t="s">
+        <v>120</v>
+      </c>
+      <c r="D574" t="s">
+        <v>111</v>
+      </c>
+      <c r="E574" t="s">
+        <v>112</v>
+      </c>
+      <c r="F574" t="s">
+        <v>116</v>
+      </c>
+      <c r="G574" t="s">
+        <v>104</v>
+      </c>
+      <c r="H574" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A575">
+        <v>20250318</v>
+      </c>
+      <c r="B575" t="s">
+        <v>45</v>
+      </c>
+      <c r="C575" t="s">
+        <v>120</v>
+      </c>
+      <c r="D575" t="s">
+        <v>111</v>
+      </c>
+      <c r="E575" t="s">
+        <v>112</v>
+      </c>
+      <c r="F575" t="s">
+        <v>116</v>
+      </c>
+      <c r="G575" t="s">
+        <v>105</v>
+      </c>
+      <c r="H575" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A576">
+        <v>20250318</v>
+      </c>
+      <c r="B576" t="s">
+        <v>45</v>
+      </c>
+      <c r="C576" t="s">
+        <v>120</v>
+      </c>
+      <c r="D576" t="s">
+        <v>111</v>
+      </c>
+      <c r="E576" t="s">
+        <v>112</v>
+      </c>
+      <c r="F576" t="s">
+        <v>116</v>
+      </c>
+      <c r="G576" t="s">
+        <v>106</v>
+      </c>
+      <c r="H576" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A577">
+        <v>20250318</v>
+      </c>
+      <c r="B577" t="s">
+        <v>45</v>
+      </c>
+      <c r="C577" t="s">
+        <v>120</v>
+      </c>
+      <c r="D577" t="s">
+        <v>111</v>
+      </c>
+      <c r="E577" t="s">
+        <v>112</v>
+      </c>
+      <c r="F577" t="s">
+        <v>116</v>
+      </c>
+      <c r="G577" t="s">
+        <v>107</v>
+      </c>
+      <c r="H577" t="s">
         <v>7</v>
       </c>
     </row>

--- a/data/resazurin/metadata/metadata_batch2.xlsx
+++ b/data/resazurin/metadata/metadata_batch2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ashuffmyer/MyProjects/oysters/polyIC-larvae/data/resazurin/metadata/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B704F6E-6EFF-844E-B684-00BD76C172A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D8342E-FFEE-A84F-B7C6-A9E0A7D8A583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6960" yWindow="760" windowWidth="19460" windowHeight="17760" xr2:uid="{F9B76D48-E646-9D48-9AB8-3319F507EDF2}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4040" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5384" uniqueCount="122">
   <si>
     <t>date</t>
   </si>
@@ -399,6 +399,9 @@
   </si>
   <si>
     <t>42C</t>
+  </si>
+  <si>
+    <t>38C</t>
   </si>
 </sst>
 </file>
@@ -776,10 +779,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7159BF13-8618-0540-AFAB-AF0D60C37565}">
-  <dimension ref="A1:H577"/>
+  <dimension ref="A1:H769"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A516" workbookViewId="0">
-      <selection activeCell="E531" sqref="E531"/>
+    <sheetView tabSelected="1" topLeftCell="A734" workbookViewId="0">
+      <selection activeCell="D653" sqref="D653:F673"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -15792,6 +15795,4998 @@
         <v>7</v>
       </c>
     </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A578">
+        <v>20250320</v>
+      </c>
+      <c r="B578" t="s">
+        <v>5</v>
+      </c>
+      <c r="C578" t="s">
+        <v>118</v>
+      </c>
+      <c r="D578" t="s">
+        <v>109</v>
+      </c>
+      <c r="E578" t="s">
+        <v>109</v>
+      </c>
+      <c r="F578" t="s">
+        <v>109</v>
+      </c>
+      <c r="G578" t="s">
+        <v>8</v>
+      </c>
+      <c r="H578" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A579">
+        <v>20250320</v>
+      </c>
+      <c r="B579" t="s">
+        <v>5</v>
+      </c>
+      <c r="C579" t="s">
+        <v>118</v>
+      </c>
+      <c r="D579" t="s">
+        <v>109</v>
+      </c>
+      <c r="E579" t="s">
+        <v>109</v>
+      </c>
+      <c r="F579" t="s">
+        <v>109</v>
+      </c>
+      <c r="G579" t="s">
+        <v>9</v>
+      </c>
+      <c r="H579" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A580">
+        <v>20250320</v>
+      </c>
+      <c r="B580" t="s">
+        <v>5</v>
+      </c>
+      <c r="C580" t="s">
+        <v>118</v>
+      </c>
+      <c r="D580" t="s">
+        <v>109</v>
+      </c>
+      <c r="E580" t="s">
+        <v>109</v>
+      </c>
+      <c r="F580" t="s">
+        <v>109</v>
+      </c>
+      <c r="G580" t="s">
+        <v>10</v>
+      </c>
+      <c r="H580" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A581">
+        <v>20250320</v>
+      </c>
+      <c r="B581" t="s">
+        <v>5</v>
+      </c>
+      <c r="C581" t="s">
+        <v>118</v>
+      </c>
+      <c r="D581" t="s">
+        <v>111</v>
+      </c>
+      <c r="E581" t="s">
+        <v>112</v>
+      </c>
+      <c r="F581" t="s">
+        <v>116</v>
+      </c>
+      <c r="G581" t="s">
+        <v>11</v>
+      </c>
+      <c r="H581" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A582">
+        <v>20250320</v>
+      </c>
+      <c r="B582" t="s">
+        <v>5</v>
+      </c>
+      <c r="C582" t="s">
+        <v>118</v>
+      </c>
+      <c r="D582" t="s">
+        <v>111</v>
+      </c>
+      <c r="E582" t="s">
+        <v>112</v>
+      </c>
+      <c r="F582" t="s">
+        <v>116</v>
+      </c>
+      <c r="G582" t="s">
+        <v>12</v>
+      </c>
+      <c r="H582" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A583">
+        <v>20250320</v>
+      </c>
+      <c r="B583" t="s">
+        <v>5</v>
+      </c>
+      <c r="C583" t="s">
+        <v>118</v>
+      </c>
+      <c r="D583" t="s">
+        <v>111</v>
+      </c>
+      <c r="E583" t="s">
+        <v>112</v>
+      </c>
+      <c r="F583" t="s">
+        <v>116</v>
+      </c>
+      <c r="G583" t="s">
+        <v>13</v>
+      </c>
+      <c r="H583" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A584">
+        <v>20250320</v>
+      </c>
+      <c r="B584" t="s">
+        <v>5</v>
+      </c>
+      <c r="C584" t="s">
+        <v>118</v>
+      </c>
+      <c r="D584" t="s">
+        <v>111</v>
+      </c>
+      <c r="E584" t="s">
+        <v>112</v>
+      </c>
+      <c r="F584" t="s">
+        <v>116</v>
+      </c>
+      <c r="G584" t="s">
+        <v>14</v>
+      </c>
+      <c r="H584" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A585">
+        <v>20250320</v>
+      </c>
+      <c r="B585" t="s">
+        <v>5</v>
+      </c>
+      <c r="C585" t="s">
+        <v>118</v>
+      </c>
+      <c r="D585" t="s">
+        <v>111</v>
+      </c>
+      <c r="E585" t="s">
+        <v>112</v>
+      </c>
+      <c r="F585" t="s">
+        <v>116</v>
+      </c>
+      <c r="G585" t="s">
+        <v>15</v>
+      </c>
+      <c r="H585" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A586">
+        <v>20250320</v>
+      </c>
+      <c r="B586" t="s">
+        <v>5</v>
+      </c>
+      <c r="C586" t="s">
+        <v>118</v>
+      </c>
+      <c r="D586" t="s">
+        <v>111</v>
+      </c>
+      <c r="E586" t="s">
+        <v>112</v>
+      </c>
+      <c r="F586" t="s">
+        <v>116</v>
+      </c>
+      <c r="G586" t="s">
+        <v>16</v>
+      </c>
+      <c r="H586" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A587">
+        <v>20250320</v>
+      </c>
+      <c r="B587" t="s">
+        <v>5</v>
+      </c>
+      <c r="C587" t="s">
+        <v>118</v>
+      </c>
+      <c r="D587" t="s">
+        <v>111</v>
+      </c>
+      <c r="E587" t="s">
+        <v>112</v>
+      </c>
+      <c r="F587" t="s">
+        <v>116</v>
+      </c>
+      <c r="G587" t="s">
+        <v>17</v>
+      </c>
+      <c r="H587" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A588">
+        <v>20250320</v>
+      </c>
+      <c r="B588" t="s">
+        <v>5</v>
+      </c>
+      <c r="C588" t="s">
+        <v>118</v>
+      </c>
+      <c r="D588" t="s">
+        <v>111</v>
+      </c>
+      <c r="E588" t="s">
+        <v>112</v>
+      </c>
+      <c r="F588" t="s">
+        <v>116</v>
+      </c>
+      <c r="G588" t="s">
+        <v>18</v>
+      </c>
+      <c r="H588" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A589">
+        <v>20250320</v>
+      </c>
+      <c r="B589" t="s">
+        <v>5</v>
+      </c>
+      <c r="C589" t="s">
+        <v>118</v>
+      </c>
+      <c r="D589" t="s">
+        <v>111</v>
+      </c>
+      <c r="E589" t="s">
+        <v>112</v>
+      </c>
+      <c r="F589" t="s">
+        <v>116</v>
+      </c>
+      <c r="G589" t="s">
+        <v>19</v>
+      </c>
+      <c r="H589" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A590">
+        <v>20250320</v>
+      </c>
+      <c r="B590" t="s">
+        <v>5</v>
+      </c>
+      <c r="C590" t="s">
+        <v>118</v>
+      </c>
+      <c r="D590" t="s">
+        <v>111</v>
+      </c>
+      <c r="E590" t="s">
+        <v>112</v>
+      </c>
+      <c r="F590" t="s">
+        <v>116</v>
+      </c>
+      <c r="G590" t="s">
+        <v>20</v>
+      </c>
+      <c r="H590" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A591">
+        <v>20250320</v>
+      </c>
+      <c r="B591" t="s">
+        <v>5</v>
+      </c>
+      <c r="C591" t="s">
+        <v>118</v>
+      </c>
+      <c r="D591" t="s">
+        <v>111</v>
+      </c>
+      <c r="E591" t="s">
+        <v>112</v>
+      </c>
+      <c r="F591" t="s">
+        <v>116</v>
+      </c>
+      <c r="G591" t="s">
+        <v>21</v>
+      </c>
+      <c r="H591" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A592">
+        <v>20250320</v>
+      </c>
+      <c r="B592" t="s">
+        <v>5</v>
+      </c>
+      <c r="C592" t="s">
+        <v>118</v>
+      </c>
+      <c r="D592" t="s">
+        <v>111</v>
+      </c>
+      <c r="E592" t="s">
+        <v>112</v>
+      </c>
+      <c r="F592" t="s">
+        <v>116</v>
+      </c>
+      <c r="G592" t="s">
+        <v>22</v>
+      </c>
+      <c r="H592" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A593">
+        <v>20250320</v>
+      </c>
+      <c r="B593" t="s">
+        <v>5</v>
+      </c>
+      <c r="C593" t="s">
+        <v>118</v>
+      </c>
+      <c r="D593" t="s">
+        <v>111</v>
+      </c>
+      <c r="E593" t="s">
+        <v>112</v>
+      </c>
+      <c r="F593" t="s">
+        <v>116</v>
+      </c>
+      <c r="G593" t="s">
+        <v>23</v>
+      </c>
+      <c r="H593" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A594">
+        <v>20250320</v>
+      </c>
+      <c r="B594" t="s">
+        <v>5</v>
+      </c>
+      <c r="C594" t="s">
+        <v>118</v>
+      </c>
+      <c r="D594" t="s">
+        <v>111</v>
+      </c>
+      <c r="E594" t="s">
+        <v>112</v>
+      </c>
+      <c r="F594" t="s">
+        <v>116</v>
+      </c>
+      <c r="G594" t="s">
+        <v>24</v>
+      </c>
+      <c r="H594" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A595">
+        <v>20250320</v>
+      </c>
+      <c r="B595" t="s">
+        <v>5</v>
+      </c>
+      <c r="C595" t="s">
+        <v>118</v>
+      </c>
+      <c r="D595" t="s">
+        <v>111</v>
+      </c>
+      <c r="E595" t="s">
+        <v>112</v>
+      </c>
+      <c r="F595" t="s">
+        <v>116</v>
+      </c>
+      <c r="G595" t="s">
+        <v>25</v>
+      </c>
+      <c r="H595" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A596">
+        <v>20250320</v>
+      </c>
+      <c r="B596" t="s">
+        <v>5</v>
+      </c>
+      <c r="C596" t="s">
+        <v>118</v>
+      </c>
+      <c r="D596" t="s">
+        <v>111</v>
+      </c>
+      <c r="E596" t="s">
+        <v>112</v>
+      </c>
+      <c r="F596" t="s">
+        <v>116</v>
+      </c>
+      <c r="G596" t="s">
+        <v>26</v>
+      </c>
+      <c r="H596" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A597">
+        <v>20250320</v>
+      </c>
+      <c r="B597" t="s">
+        <v>5</v>
+      </c>
+      <c r="C597" t="s">
+        <v>118</v>
+      </c>
+      <c r="D597" t="s">
+        <v>111</v>
+      </c>
+      <c r="E597" t="s">
+        <v>112</v>
+      </c>
+      <c r="F597" t="s">
+        <v>116</v>
+      </c>
+      <c r="G597" t="s">
+        <v>27</v>
+      </c>
+      <c r="H597" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A598">
+        <v>20250320</v>
+      </c>
+      <c r="B598" t="s">
+        <v>5</v>
+      </c>
+      <c r="C598" t="s">
+        <v>118</v>
+      </c>
+      <c r="D598" t="s">
+        <v>111</v>
+      </c>
+      <c r="E598" t="s">
+        <v>112</v>
+      </c>
+      <c r="F598" t="s">
+        <v>116</v>
+      </c>
+      <c r="G598" t="s">
+        <v>28</v>
+      </c>
+      <c r="H598" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A599">
+        <v>20250320</v>
+      </c>
+      <c r="B599" t="s">
+        <v>5</v>
+      </c>
+      <c r="C599" t="s">
+        <v>118</v>
+      </c>
+      <c r="D599" t="s">
+        <v>111</v>
+      </c>
+      <c r="E599" t="s">
+        <v>112</v>
+      </c>
+      <c r="F599" t="s">
+        <v>116</v>
+      </c>
+      <c r="G599" t="s">
+        <v>29</v>
+      </c>
+      <c r="H599" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A600">
+        <v>20250320</v>
+      </c>
+      <c r="B600" t="s">
+        <v>5</v>
+      </c>
+      <c r="C600" t="s">
+        <v>118</v>
+      </c>
+      <c r="D600" t="s">
+        <v>111</v>
+      </c>
+      <c r="E600" t="s">
+        <v>112</v>
+      </c>
+      <c r="F600" t="s">
+        <v>116</v>
+      </c>
+      <c r="G600" t="s">
+        <v>30</v>
+      </c>
+      <c r="H600" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A601">
+        <v>20250320</v>
+      </c>
+      <c r="B601" t="s">
+        <v>5</v>
+      </c>
+      <c r="C601" t="s">
+        <v>118</v>
+      </c>
+      <c r="D601" t="s">
+        <v>111</v>
+      </c>
+      <c r="E601" t="s">
+        <v>112</v>
+      </c>
+      <c r="F601" t="s">
+        <v>116</v>
+      </c>
+      <c r="G601" t="s">
+        <v>31</v>
+      </c>
+      <c r="H601" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A602">
+        <v>20250320</v>
+      </c>
+      <c r="B602" t="s">
+        <v>5</v>
+      </c>
+      <c r="C602" t="s">
+        <v>118</v>
+      </c>
+      <c r="D602" t="s">
+        <v>109</v>
+      </c>
+      <c r="E602" t="s">
+        <v>109</v>
+      </c>
+      <c r="F602" t="s">
+        <v>109</v>
+      </c>
+      <c r="G602" t="s">
+        <v>32</v>
+      </c>
+      <c r="H602" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A603">
+        <v>20250320</v>
+      </c>
+      <c r="B603" t="s">
+        <v>5</v>
+      </c>
+      <c r="C603" t="s">
+        <v>118</v>
+      </c>
+      <c r="D603" t="s">
+        <v>109</v>
+      </c>
+      <c r="E603" t="s">
+        <v>109</v>
+      </c>
+      <c r="F603" t="s">
+        <v>109</v>
+      </c>
+      <c r="G603" t="s">
+        <v>33</v>
+      </c>
+      <c r="H603" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A604">
+        <v>20250320</v>
+      </c>
+      <c r="B604" t="s">
+        <v>5</v>
+      </c>
+      <c r="C604" t="s">
+        <v>118</v>
+      </c>
+      <c r="D604" t="s">
+        <v>109</v>
+      </c>
+      <c r="E604" t="s">
+        <v>109</v>
+      </c>
+      <c r="F604" t="s">
+        <v>109</v>
+      </c>
+      <c r="G604" t="s">
+        <v>34</v>
+      </c>
+      <c r="H604" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A605">
+        <v>20250320</v>
+      </c>
+      <c r="B605" t="s">
+        <v>5</v>
+      </c>
+      <c r="C605" t="s">
+        <v>118</v>
+      </c>
+      <c r="D605" t="s">
+        <v>6</v>
+      </c>
+      <c r="E605" t="s">
+        <v>108</v>
+      </c>
+      <c r="F605" t="s">
+        <v>116</v>
+      </c>
+      <c r="G605" t="s">
+        <v>35</v>
+      </c>
+      <c r="H605" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A606">
+        <v>20250320</v>
+      </c>
+      <c r="B606" t="s">
+        <v>5</v>
+      </c>
+      <c r="C606" t="s">
+        <v>118</v>
+      </c>
+      <c r="D606" t="s">
+        <v>6</v>
+      </c>
+      <c r="E606" t="s">
+        <v>108</v>
+      </c>
+      <c r="F606" t="s">
+        <v>116</v>
+      </c>
+      <c r="G606" t="s">
+        <v>36</v>
+      </c>
+      <c r="H606" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A607">
+        <v>20250320</v>
+      </c>
+      <c r="B607" t="s">
+        <v>5</v>
+      </c>
+      <c r="C607" t="s">
+        <v>118</v>
+      </c>
+      <c r="D607" t="s">
+        <v>6</v>
+      </c>
+      <c r="E607" t="s">
+        <v>108</v>
+      </c>
+      <c r="F607" t="s">
+        <v>116</v>
+      </c>
+      <c r="G607" t="s">
+        <v>37</v>
+      </c>
+      <c r="H607" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A608">
+        <v>20250320</v>
+      </c>
+      <c r="B608" t="s">
+        <v>5</v>
+      </c>
+      <c r="C608" t="s">
+        <v>118</v>
+      </c>
+      <c r="D608" t="s">
+        <v>6</v>
+      </c>
+      <c r="E608" t="s">
+        <v>108</v>
+      </c>
+      <c r="F608" t="s">
+        <v>116</v>
+      </c>
+      <c r="G608" t="s">
+        <v>38</v>
+      </c>
+      <c r="H608" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A609">
+        <v>20250320</v>
+      </c>
+      <c r="B609" t="s">
+        <v>5</v>
+      </c>
+      <c r="C609" t="s">
+        <v>118</v>
+      </c>
+      <c r="D609" t="s">
+        <v>6</v>
+      </c>
+      <c r="E609" t="s">
+        <v>108</v>
+      </c>
+      <c r="F609" t="s">
+        <v>116</v>
+      </c>
+      <c r="G609" t="s">
+        <v>39</v>
+      </c>
+      <c r="H609" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A610">
+        <v>20250320</v>
+      </c>
+      <c r="B610" t="s">
+        <v>5</v>
+      </c>
+      <c r="C610" t="s">
+        <v>118</v>
+      </c>
+      <c r="D610" t="s">
+        <v>6</v>
+      </c>
+      <c r="E610" t="s">
+        <v>108</v>
+      </c>
+      <c r="F610" t="s">
+        <v>116</v>
+      </c>
+      <c r="G610" t="s">
+        <v>40</v>
+      </c>
+      <c r="H610" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A611">
+        <v>20250320</v>
+      </c>
+      <c r="B611" t="s">
+        <v>5</v>
+      </c>
+      <c r="C611" t="s">
+        <v>118</v>
+      </c>
+      <c r="D611" t="s">
+        <v>6</v>
+      </c>
+      <c r="E611" t="s">
+        <v>108</v>
+      </c>
+      <c r="F611" t="s">
+        <v>116</v>
+      </c>
+      <c r="G611" t="s">
+        <v>41</v>
+      </c>
+      <c r="H611" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A612">
+        <v>20250320</v>
+      </c>
+      <c r="B612" t="s">
+        <v>5</v>
+      </c>
+      <c r="C612" t="s">
+        <v>118</v>
+      </c>
+      <c r="D612" t="s">
+        <v>6</v>
+      </c>
+      <c r="E612" t="s">
+        <v>108</v>
+      </c>
+      <c r="F612" t="s">
+        <v>116</v>
+      </c>
+      <c r="G612" t="s">
+        <v>42</v>
+      </c>
+      <c r="H612" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A613">
+        <v>20250320</v>
+      </c>
+      <c r="B613" t="s">
+        <v>5</v>
+      </c>
+      <c r="C613" t="s">
+        <v>118</v>
+      </c>
+      <c r="D613" t="s">
+        <v>6</v>
+      </c>
+      <c r="E613" t="s">
+        <v>108</v>
+      </c>
+      <c r="F613" t="s">
+        <v>116</v>
+      </c>
+      <c r="G613" t="s">
+        <v>43</v>
+      </c>
+      <c r="H613" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A614">
+        <v>20250320</v>
+      </c>
+      <c r="B614" t="s">
+        <v>5</v>
+      </c>
+      <c r="C614" t="s">
+        <v>118</v>
+      </c>
+      <c r="D614" t="s">
+        <v>6</v>
+      </c>
+      <c r="E614" t="s">
+        <v>108</v>
+      </c>
+      <c r="F614" t="s">
+        <v>116</v>
+      </c>
+      <c r="G614" t="s">
+        <v>48</v>
+      </c>
+      <c r="H614" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A615">
+        <v>20250320</v>
+      </c>
+      <c r="B615" t="s">
+        <v>5</v>
+      </c>
+      <c r="C615" t="s">
+        <v>118</v>
+      </c>
+      <c r="D615" t="s">
+        <v>6</v>
+      </c>
+      <c r="E615" t="s">
+        <v>108</v>
+      </c>
+      <c r="F615" t="s">
+        <v>116</v>
+      </c>
+      <c r="G615" t="s">
+        <v>49</v>
+      </c>
+      <c r="H615" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A616">
+        <v>20250320</v>
+      </c>
+      <c r="B616" t="s">
+        <v>5</v>
+      </c>
+      <c r="C616" t="s">
+        <v>118</v>
+      </c>
+      <c r="D616" t="s">
+        <v>6</v>
+      </c>
+      <c r="E616" t="s">
+        <v>108</v>
+      </c>
+      <c r="F616" t="s">
+        <v>116</v>
+      </c>
+      <c r="G616" t="s">
+        <v>50</v>
+      </c>
+      <c r="H616" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A617">
+        <v>20250320</v>
+      </c>
+      <c r="B617" t="s">
+        <v>5</v>
+      </c>
+      <c r="C617" t="s">
+        <v>118</v>
+      </c>
+      <c r="D617" t="s">
+        <v>6</v>
+      </c>
+      <c r="E617" t="s">
+        <v>108</v>
+      </c>
+      <c r="F617" t="s">
+        <v>116</v>
+      </c>
+      <c r="G617" t="s">
+        <v>51</v>
+      </c>
+      <c r="H617" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A618">
+        <v>20250320</v>
+      </c>
+      <c r="B618" t="s">
+        <v>5</v>
+      </c>
+      <c r="C618" t="s">
+        <v>118</v>
+      </c>
+      <c r="D618" t="s">
+        <v>6</v>
+      </c>
+      <c r="E618" t="s">
+        <v>108</v>
+      </c>
+      <c r="F618" t="s">
+        <v>116</v>
+      </c>
+      <c r="G618" t="s">
+        <v>52</v>
+      </c>
+      <c r="H618" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A619">
+        <v>20250320</v>
+      </c>
+      <c r="B619" t="s">
+        <v>5</v>
+      </c>
+      <c r="C619" t="s">
+        <v>118</v>
+      </c>
+      <c r="D619" t="s">
+        <v>6</v>
+      </c>
+      <c r="E619" t="s">
+        <v>108</v>
+      </c>
+      <c r="F619" t="s">
+        <v>116</v>
+      </c>
+      <c r="G619" t="s">
+        <v>53</v>
+      </c>
+      <c r="H619" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A620">
+        <v>20250320</v>
+      </c>
+      <c r="B620" t="s">
+        <v>5</v>
+      </c>
+      <c r="C620" t="s">
+        <v>118</v>
+      </c>
+      <c r="D620" t="s">
+        <v>6</v>
+      </c>
+      <c r="E620" t="s">
+        <v>108</v>
+      </c>
+      <c r="F620" t="s">
+        <v>116</v>
+      </c>
+      <c r="G620" t="s">
+        <v>54</v>
+      </c>
+      <c r="H620" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A621">
+        <v>20250320</v>
+      </c>
+      <c r="B621" t="s">
+        <v>5</v>
+      </c>
+      <c r="C621" t="s">
+        <v>118</v>
+      </c>
+      <c r="D621" t="s">
+        <v>6</v>
+      </c>
+      <c r="E621" t="s">
+        <v>108</v>
+      </c>
+      <c r="F621" t="s">
+        <v>116</v>
+      </c>
+      <c r="G621" t="s">
+        <v>55</v>
+      </c>
+      <c r="H621" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A622">
+        <v>20250320</v>
+      </c>
+      <c r="B622" t="s">
+        <v>5</v>
+      </c>
+      <c r="C622" t="s">
+        <v>118</v>
+      </c>
+      <c r="D622" t="s">
+        <v>6</v>
+      </c>
+      <c r="E622" t="s">
+        <v>108</v>
+      </c>
+      <c r="F622" t="s">
+        <v>116</v>
+      </c>
+      <c r="G622" t="s">
+        <v>56</v>
+      </c>
+      <c r="H622" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A623">
+        <v>20250320</v>
+      </c>
+      <c r="B623" t="s">
+        <v>5</v>
+      </c>
+      <c r="C623" t="s">
+        <v>118</v>
+      </c>
+      <c r="D623" t="s">
+        <v>6</v>
+      </c>
+      <c r="E623" t="s">
+        <v>108</v>
+      </c>
+      <c r="F623" t="s">
+        <v>116</v>
+      </c>
+      <c r="G623" t="s">
+        <v>57</v>
+      </c>
+      <c r="H623" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A624">
+        <v>20250320</v>
+      </c>
+      <c r="B624" t="s">
+        <v>5</v>
+      </c>
+      <c r="C624" t="s">
+        <v>118</v>
+      </c>
+      <c r="D624" t="s">
+        <v>6</v>
+      </c>
+      <c r="E624" t="s">
+        <v>108</v>
+      </c>
+      <c r="F624" t="s">
+        <v>116</v>
+      </c>
+      <c r="G624" t="s">
+        <v>58</v>
+      </c>
+      <c r="H624" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A625">
+        <v>20250320</v>
+      </c>
+      <c r="B625" t="s">
+        <v>5</v>
+      </c>
+      <c r="C625" t="s">
+        <v>118</v>
+      </c>
+      <c r="D625" t="s">
+        <v>6</v>
+      </c>
+      <c r="E625" t="s">
+        <v>108</v>
+      </c>
+      <c r="F625" t="s">
+        <v>116</v>
+      </c>
+      <c r="G625" t="s">
+        <v>59</v>
+      </c>
+      <c r="H625" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A626">
+        <v>20250320</v>
+      </c>
+      <c r="B626" t="s">
+        <v>5</v>
+      </c>
+      <c r="C626" t="s">
+        <v>118</v>
+      </c>
+      <c r="D626" t="s">
+        <v>109</v>
+      </c>
+      <c r="E626" t="s">
+        <v>109</v>
+      </c>
+      <c r="F626" t="s">
+        <v>109</v>
+      </c>
+      <c r="G626" t="s">
+        <v>60</v>
+      </c>
+      <c r="H626" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A627">
+        <v>20250320</v>
+      </c>
+      <c r="B627" t="s">
+        <v>5</v>
+      </c>
+      <c r="C627" t="s">
+        <v>118</v>
+      </c>
+      <c r="D627" t="s">
+        <v>109</v>
+      </c>
+      <c r="E627" t="s">
+        <v>109</v>
+      </c>
+      <c r="F627" t="s">
+        <v>109</v>
+      </c>
+      <c r="G627" t="s">
+        <v>61</v>
+      </c>
+      <c r="H627" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A628">
+        <v>20250320</v>
+      </c>
+      <c r="B628" t="s">
+        <v>5</v>
+      </c>
+      <c r="C628" t="s">
+        <v>118</v>
+      </c>
+      <c r="D628" t="s">
+        <v>109</v>
+      </c>
+      <c r="E628" t="s">
+        <v>109</v>
+      </c>
+      <c r="F628" t="s">
+        <v>109</v>
+      </c>
+      <c r="G628" t="s">
+        <v>62</v>
+      </c>
+      <c r="H628" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A629">
+        <v>20250320</v>
+      </c>
+      <c r="B629" t="s">
+        <v>5</v>
+      </c>
+      <c r="C629" t="s">
+        <v>118</v>
+      </c>
+      <c r="D629" t="s">
+        <v>111</v>
+      </c>
+      <c r="E629" t="s">
+        <v>113</v>
+      </c>
+      <c r="F629" t="s">
+        <v>117</v>
+      </c>
+      <c r="G629" t="s">
+        <v>63</v>
+      </c>
+      <c r="H629" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A630">
+        <v>20250320</v>
+      </c>
+      <c r="B630" t="s">
+        <v>5</v>
+      </c>
+      <c r="C630" t="s">
+        <v>118</v>
+      </c>
+      <c r="D630" t="s">
+        <v>111</v>
+      </c>
+      <c r="E630" t="s">
+        <v>113</v>
+      </c>
+      <c r="F630" t="s">
+        <v>117</v>
+      </c>
+      <c r="G630" t="s">
+        <v>64</v>
+      </c>
+      <c r="H630" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A631">
+        <v>20250320</v>
+      </c>
+      <c r="B631" t="s">
+        <v>5</v>
+      </c>
+      <c r="C631" t="s">
+        <v>118</v>
+      </c>
+      <c r="D631" t="s">
+        <v>111</v>
+      </c>
+      <c r="E631" t="s">
+        <v>113</v>
+      </c>
+      <c r="F631" t="s">
+        <v>117</v>
+      </c>
+      <c r="G631" t="s">
+        <v>65</v>
+      </c>
+      <c r="H631" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A632">
+        <v>20250320</v>
+      </c>
+      <c r="B632" t="s">
+        <v>5</v>
+      </c>
+      <c r="C632" t="s">
+        <v>118</v>
+      </c>
+      <c r="D632" t="s">
+        <v>111</v>
+      </c>
+      <c r="E632" t="s">
+        <v>113</v>
+      </c>
+      <c r="F632" t="s">
+        <v>117</v>
+      </c>
+      <c r="G632" t="s">
+        <v>66</v>
+      </c>
+      <c r="H632" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A633">
+        <v>20250320</v>
+      </c>
+      <c r="B633" t="s">
+        <v>5</v>
+      </c>
+      <c r="C633" t="s">
+        <v>118</v>
+      </c>
+      <c r="D633" t="s">
+        <v>111</v>
+      </c>
+      <c r="E633" t="s">
+        <v>113</v>
+      </c>
+      <c r="F633" t="s">
+        <v>117</v>
+      </c>
+      <c r="G633" t="s">
+        <v>67</v>
+      </c>
+      <c r="H633" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A634">
+        <v>20250320</v>
+      </c>
+      <c r="B634" t="s">
+        <v>5</v>
+      </c>
+      <c r="C634" t="s">
+        <v>118</v>
+      </c>
+      <c r="D634" t="s">
+        <v>111</v>
+      </c>
+      <c r="E634" t="s">
+        <v>113</v>
+      </c>
+      <c r="F634" t="s">
+        <v>117</v>
+      </c>
+      <c r="G634" t="s">
+        <v>68</v>
+      </c>
+      <c r="H634" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A635">
+        <v>20250320</v>
+      </c>
+      <c r="B635" t="s">
+        <v>5</v>
+      </c>
+      <c r="C635" t="s">
+        <v>118</v>
+      </c>
+      <c r="D635" t="s">
+        <v>111</v>
+      </c>
+      <c r="E635" t="s">
+        <v>113</v>
+      </c>
+      <c r="F635" t="s">
+        <v>117</v>
+      </c>
+      <c r="G635" t="s">
+        <v>69</v>
+      </c>
+      <c r="H635" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A636">
+        <v>20250320</v>
+      </c>
+      <c r="B636" t="s">
+        <v>5</v>
+      </c>
+      <c r="C636" t="s">
+        <v>118</v>
+      </c>
+      <c r="D636" t="s">
+        <v>111</v>
+      </c>
+      <c r="E636" t="s">
+        <v>113</v>
+      </c>
+      <c r="F636" t="s">
+        <v>117</v>
+      </c>
+      <c r="G636" t="s">
+        <v>70</v>
+      </c>
+      <c r="H636" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A637">
+        <v>20250320</v>
+      </c>
+      <c r="B637" t="s">
+        <v>5</v>
+      </c>
+      <c r="C637" t="s">
+        <v>118</v>
+      </c>
+      <c r="D637" t="s">
+        <v>111</v>
+      </c>
+      <c r="E637" t="s">
+        <v>113</v>
+      </c>
+      <c r="F637" t="s">
+        <v>117</v>
+      </c>
+      <c r="G637" t="s">
+        <v>71</v>
+      </c>
+      <c r="H637" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A638">
+        <v>20250320</v>
+      </c>
+      <c r="B638" t="s">
+        <v>5</v>
+      </c>
+      <c r="C638" t="s">
+        <v>118</v>
+      </c>
+      <c r="D638" t="s">
+        <v>111</v>
+      </c>
+      <c r="E638" t="s">
+        <v>113</v>
+      </c>
+      <c r="F638" t="s">
+        <v>117</v>
+      </c>
+      <c r="G638" t="s">
+        <v>72</v>
+      </c>
+      <c r="H638" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A639">
+        <v>20250320</v>
+      </c>
+      <c r="B639" t="s">
+        <v>5</v>
+      </c>
+      <c r="C639" t="s">
+        <v>118</v>
+      </c>
+      <c r="D639" t="s">
+        <v>111</v>
+      </c>
+      <c r="E639" t="s">
+        <v>113</v>
+      </c>
+      <c r="F639" t="s">
+        <v>117</v>
+      </c>
+      <c r="G639" t="s">
+        <v>73</v>
+      </c>
+      <c r="H639" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A640">
+        <v>20250320</v>
+      </c>
+      <c r="B640" t="s">
+        <v>5</v>
+      </c>
+      <c r="C640" t="s">
+        <v>118</v>
+      </c>
+      <c r="D640" t="s">
+        <v>111</v>
+      </c>
+      <c r="E640" t="s">
+        <v>113</v>
+      </c>
+      <c r="F640" t="s">
+        <v>117</v>
+      </c>
+      <c r="G640" t="s">
+        <v>74</v>
+      </c>
+      <c r="H640" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A641">
+        <v>20250320</v>
+      </c>
+      <c r="B641" t="s">
+        <v>5</v>
+      </c>
+      <c r="C641" t="s">
+        <v>118</v>
+      </c>
+      <c r="D641" t="s">
+        <v>111</v>
+      </c>
+      <c r="E641" t="s">
+        <v>113</v>
+      </c>
+      <c r="F641" t="s">
+        <v>117</v>
+      </c>
+      <c r="G641" t="s">
+        <v>75</v>
+      </c>
+      <c r="H641" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A642">
+        <v>20250320</v>
+      </c>
+      <c r="B642" t="s">
+        <v>5</v>
+      </c>
+      <c r="C642" t="s">
+        <v>118</v>
+      </c>
+      <c r="D642" t="s">
+        <v>111</v>
+      </c>
+      <c r="E642" t="s">
+        <v>113</v>
+      </c>
+      <c r="F642" t="s">
+        <v>117</v>
+      </c>
+      <c r="G642" t="s">
+        <v>76</v>
+      </c>
+      <c r="H642" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A643">
+        <v>20250320</v>
+      </c>
+      <c r="B643" t="s">
+        <v>5</v>
+      </c>
+      <c r="C643" t="s">
+        <v>118</v>
+      </c>
+      <c r="D643" t="s">
+        <v>111</v>
+      </c>
+      <c r="E643" t="s">
+        <v>113</v>
+      </c>
+      <c r="F643" t="s">
+        <v>117</v>
+      </c>
+      <c r="G643" t="s">
+        <v>77</v>
+      </c>
+      <c r="H643" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A644">
+        <v>20250320</v>
+      </c>
+      <c r="B644" t="s">
+        <v>5</v>
+      </c>
+      <c r="C644" t="s">
+        <v>118</v>
+      </c>
+      <c r="D644" t="s">
+        <v>111</v>
+      </c>
+      <c r="E644" t="s">
+        <v>113</v>
+      </c>
+      <c r="F644" t="s">
+        <v>117</v>
+      </c>
+      <c r="G644" t="s">
+        <v>78</v>
+      </c>
+      <c r="H644" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A645">
+        <v>20250320</v>
+      </c>
+      <c r="B645" t="s">
+        <v>5</v>
+      </c>
+      <c r="C645" t="s">
+        <v>118</v>
+      </c>
+      <c r="D645" t="s">
+        <v>111</v>
+      </c>
+      <c r="E645" t="s">
+        <v>113</v>
+      </c>
+      <c r="F645" t="s">
+        <v>117</v>
+      </c>
+      <c r="G645" t="s">
+        <v>79</v>
+      </c>
+      <c r="H645" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A646">
+        <v>20250320</v>
+      </c>
+      <c r="B646" t="s">
+        <v>5</v>
+      </c>
+      <c r="C646" t="s">
+        <v>118</v>
+      </c>
+      <c r="D646" t="s">
+        <v>111</v>
+      </c>
+      <c r="E646" t="s">
+        <v>113</v>
+      </c>
+      <c r="F646" t="s">
+        <v>117</v>
+      </c>
+      <c r="G646" t="s">
+        <v>80</v>
+      </c>
+      <c r="H646" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A647">
+        <v>20250320</v>
+      </c>
+      <c r="B647" t="s">
+        <v>5</v>
+      </c>
+      <c r="C647" t="s">
+        <v>118</v>
+      </c>
+      <c r="D647" t="s">
+        <v>111</v>
+      </c>
+      <c r="E647" t="s">
+        <v>113</v>
+      </c>
+      <c r="F647" t="s">
+        <v>117</v>
+      </c>
+      <c r="G647" t="s">
+        <v>81</v>
+      </c>
+      <c r="H647" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A648">
+        <v>20250320</v>
+      </c>
+      <c r="B648" t="s">
+        <v>5</v>
+      </c>
+      <c r="C648" t="s">
+        <v>118</v>
+      </c>
+      <c r="D648" t="s">
+        <v>111</v>
+      </c>
+      <c r="E648" t="s">
+        <v>113</v>
+      </c>
+      <c r="F648" t="s">
+        <v>117</v>
+      </c>
+      <c r="G648" t="s">
+        <v>82</v>
+      </c>
+      <c r="H648" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A649">
+        <v>20250320</v>
+      </c>
+      <c r="B649" t="s">
+        <v>5</v>
+      </c>
+      <c r="C649" t="s">
+        <v>118</v>
+      </c>
+      <c r="D649" t="s">
+        <v>111</v>
+      </c>
+      <c r="E649" t="s">
+        <v>113</v>
+      </c>
+      <c r="F649" t="s">
+        <v>117</v>
+      </c>
+      <c r="G649" t="s">
+        <v>83</v>
+      </c>
+      <c r="H649" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A650">
+        <v>20250320</v>
+      </c>
+      <c r="B650" t="s">
+        <v>5</v>
+      </c>
+      <c r="C650" t="s">
+        <v>118</v>
+      </c>
+      <c r="D650" t="s">
+        <v>109</v>
+      </c>
+      <c r="E650" t="s">
+        <v>109</v>
+      </c>
+      <c r="F650" t="s">
+        <v>109</v>
+      </c>
+      <c r="G650" t="s">
+        <v>84</v>
+      </c>
+      <c r="H650" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A651">
+        <v>20250320</v>
+      </c>
+      <c r="B651" t="s">
+        <v>5</v>
+      </c>
+      <c r="C651" t="s">
+        <v>118</v>
+      </c>
+      <c r="D651" t="s">
+        <v>109</v>
+      </c>
+      <c r="E651" t="s">
+        <v>109</v>
+      </c>
+      <c r="F651" t="s">
+        <v>109</v>
+      </c>
+      <c r="G651" t="s">
+        <v>85</v>
+      </c>
+      <c r="H651" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A652">
+        <v>20250320</v>
+      </c>
+      <c r="B652" t="s">
+        <v>5</v>
+      </c>
+      <c r="C652" t="s">
+        <v>118</v>
+      </c>
+      <c r="D652" t="s">
+        <v>109</v>
+      </c>
+      <c r="E652" t="s">
+        <v>109</v>
+      </c>
+      <c r="F652" t="s">
+        <v>109</v>
+      </c>
+      <c r="G652" t="s">
+        <v>86</v>
+      </c>
+      <c r="H652" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A653">
+        <v>20250320</v>
+      </c>
+      <c r="B653" t="s">
+        <v>5</v>
+      </c>
+      <c r="C653" t="s">
+        <v>118</v>
+      </c>
+      <c r="D653" t="s">
+        <v>6</v>
+      </c>
+      <c r="E653" t="s">
+        <v>110</v>
+      </c>
+      <c r="F653" t="s">
+        <v>117</v>
+      </c>
+      <c r="G653" t="s">
+        <v>87</v>
+      </c>
+      <c r="H653" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A654">
+        <v>20250320</v>
+      </c>
+      <c r="B654" t="s">
+        <v>5</v>
+      </c>
+      <c r="C654" t="s">
+        <v>118</v>
+      </c>
+      <c r="D654" t="s">
+        <v>6</v>
+      </c>
+      <c r="E654" t="s">
+        <v>110</v>
+      </c>
+      <c r="F654" t="s">
+        <v>117</v>
+      </c>
+      <c r="G654" t="s">
+        <v>88</v>
+      </c>
+      <c r="H654" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A655">
+        <v>20250320</v>
+      </c>
+      <c r="B655" t="s">
+        <v>5</v>
+      </c>
+      <c r="C655" t="s">
+        <v>118</v>
+      </c>
+      <c r="D655" t="s">
+        <v>6</v>
+      </c>
+      <c r="E655" t="s">
+        <v>110</v>
+      </c>
+      <c r="F655" t="s">
+        <v>117</v>
+      </c>
+      <c r="G655" t="s">
+        <v>89</v>
+      </c>
+      <c r="H655" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A656">
+        <v>20250320</v>
+      </c>
+      <c r="B656" t="s">
+        <v>5</v>
+      </c>
+      <c r="C656" t="s">
+        <v>118</v>
+      </c>
+      <c r="D656" t="s">
+        <v>6</v>
+      </c>
+      <c r="E656" t="s">
+        <v>110</v>
+      </c>
+      <c r="F656" t="s">
+        <v>117</v>
+      </c>
+      <c r="G656" t="s">
+        <v>90</v>
+      </c>
+      <c r="H656" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A657">
+        <v>20250320</v>
+      </c>
+      <c r="B657" t="s">
+        <v>5</v>
+      </c>
+      <c r="C657" t="s">
+        <v>118</v>
+      </c>
+      <c r="D657" t="s">
+        <v>6</v>
+      </c>
+      <c r="E657" t="s">
+        <v>110</v>
+      </c>
+      <c r="F657" t="s">
+        <v>117</v>
+      </c>
+      <c r="G657" t="s">
+        <v>91</v>
+      </c>
+      <c r="H657" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A658">
+        <v>20250320</v>
+      </c>
+      <c r="B658" t="s">
+        <v>5</v>
+      </c>
+      <c r="C658" t="s">
+        <v>118</v>
+      </c>
+      <c r="D658" t="s">
+        <v>6</v>
+      </c>
+      <c r="E658" t="s">
+        <v>110</v>
+      </c>
+      <c r="F658" t="s">
+        <v>117</v>
+      </c>
+      <c r="G658" t="s">
+        <v>92</v>
+      </c>
+      <c r="H658" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A659">
+        <v>20250320</v>
+      </c>
+      <c r="B659" t="s">
+        <v>5</v>
+      </c>
+      <c r="C659" t="s">
+        <v>118</v>
+      </c>
+      <c r="D659" t="s">
+        <v>6</v>
+      </c>
+      <c r="E659" t="s">
+        <v>110</v>
+      </c>
+      <c r="F659" t="s">
+        <v>117</v>
+      </c>
+      <c r="G659" t="s">
+        <v>93</v>
+      </c>
+      <c r="H659" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A660">
+        <v>20250320</v>
+      </c>
+      <c r="B660" t="s">
+        <v>5</v>
+      </c>
+      <c r="C660" t="s">
+        <v>118</v>
+      </c>
+      <c r="D660" t="s">
+        <v>6</v>
+      </c>
+      <c r="E660" t="s">
+        <v>110</v>
+      </c>
+      <c r="F660" t="s">
+        <v>117</v>
+      </c>
+      <c r="G660" t="s">
+        <v>94</v>
+      </c>
+      <c r="H660" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A661">
+        <v>20250320</v>
+      </c>
+      <c r="B661" t="s">
+        <v>5</v>
+      </c>
+      <c r="C661" t="s">
+        <v>118</v>
+      </c>
+      <c r="D661" t="s">
+        <v>6</v>
+      </c>
+      <c r="E661" t="s">
+        <v>110</v>
+      </c>
+      <c r="F661" t="s">
+        <v>117</v>
+      </c>
+      <c r="G661" t="s">
+        <v>95</v>
+      </c>
+      <c r="H661" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A662">
+        <v>20250320</v>
+      </c>
+      <c r="B662" t="s">
+        <v>5</v>
+      </c>
+      <c r="C662" t="s">
+        <v>118</v>
+      </c>
+      <c r="D662" t="s">
+        <v>6</v>
+      </c>
+      <c r="E662" t="s">
+        <v>110</v>
+      </c>
+      <c r="F662" t="s">
+        <v>117</v>
+      </c>
+      <c r="G662" t="s">
+        <v>96</v>
+      </c>
+      <c r="H662" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A663">
+        <v>20250320</v>
+      </c>
+      <c r="B663" t="s">
+        <v>5</v>
+      </c>
+      <c r="C663" t="s">
+        <v>118</v>
+      </c>
+      <c r="D663" t="s">
+        <v>6</v>
+      </c>
+      <c r="E663" t="s">
+        <v>110</v>
+      </c>
+      <c r="F663" t="s">
+        <v>117</v>
+      </c>
+      <c r="G663" t="s">
+        <v>97</v>
+      </c>
+      <c r="H663" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A664">
+        <v>20250320</v>
+      </c>
+      <c r="B664" t="s">
+        <v>5</v>
+      </c>
+      <c r="C664" t="s">
+        <v>118</v>
+      </c>
+      <c r="D664" t="s">
+        <v>6</v>
+      </c>
+      <c r="E664" t="s">
+        <v>110</v>
+      </c>
+      <c r="F664" t="s">
+        <v>117</v>
+      </c>
+      <c r="G664" t="s">
+        <v>98</v>
+      </c>
+      <c r="H664" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A665">
+        <v>20250320</v>
+      </c>
+      <c r="B665" t="s">
+        <v>5</v>
+      </c>
+      <c r="C665" t="s">
+        <v>118</v>
+      </c>
+      <c r="D665" t="s">
+        <v>6</v>
+      </c>
+      <c r="E665" t="s">
+        <v>110</v>
+      </c>
+      <c r="F665" t="s">
+        <v>117</v>
+      </c>
+      <c r="G665" t="s">
+        <v>99</v>
+      </c>
+      <c r="H665" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A666">
+        <v>20250320</v>
+      </c>
+      <c r="B666" t="s">
+        <v>5</v>
+      </c>
+      <c r="C666" t="s">
+        <v>118</v>
+      </c>
+      <c r="D666" t="s">
+        <v>6</v>
+      </c>
+      <c r="E666" t="s">
+        <v>110</v>
+      </c>
+      <c r="F666" t="s">
+        <v>117</v>
+      </c>
+      <c r="G666" t="s">
+        <v>100</v>
+      </c>
+      <c r="H666" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A667">
+        <v>20250320</v>
+      </c>
+      <c r="B667" t="s">
+        <v>5</v>
+      </c>
+      <c r="C667" t="s">
+        <v>118</v>
+      </c>
+      <c r="D667" t="s">
+        <v>6</v>
+      </c>
+      <c r="E667" t="s">
+        <v>110</v>
+      </c>
+      <c r="F667" t="s">
+        <v>117</v>
+      </c>
+      <c r="G667" t="s">
+        <v>101</v>
+      </c>
+      <c r="H667" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A668">
+        <v>20250320</v>
+      </c>
+      <c r="B668" t="s">
+        <v>5</v>
+      </c>
+      <c r="C668" t="s">
+        <v>118</v>
+      </c>
+      <c r="D668" t="s">
+        <v>6</v>
+      </c>
+      <c r="E668" t="s">
+        <v>110</v>
+      </c>
+      <c r="F668" t="s">
+        <v>117</v>
+      </c>
+      <c r="G668" t="s">
+        <v>102</v>
+      </c>
+      <c r="H668" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A669">
+        <v>20250320</v>
+      </c>
+      <c r="B669" t="s">
+        <v>5</v>
+      </c>
+      <c r="C669" t="s">
+        <v>118</v>
+      </c>
+      <c r="D669" t="s">
+        <v>6</v>
+      </c>
+      <c r="E669" t="s">
+        <v>110</v>
+      </c>
+      <c r="F669" t="s">
+        <v>117</v>
+      </c>
+      <c r="G669" t="s">
+        <v>103</v>
+      </c>
+      <c r="H669" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A670">
+        <v>20250320</v>
+      </c>
+      <c r="B670" t="s">
+        <v>5</v>
+      </c>
+      <c r="C670" t="s">
+        <v>118</v>
+      </c>
+      <c r="D670" t="s">
+        <v>6</v>
+      </c>
+      <c r="E670" t="s">
+        <v>110</v>
+      </c>
+      <c r="F670" t="s">
+        <v>117</v>
+      </c>
+      <c r="G670" t="s">
+        <v>104</v>
+      </c>
+      <c r="H670" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A671">
+        <v>20250320</v>
+      </c>
+      <c r="B671" t="s">
+        <v>5</v>
+      </c>
+      <c r="C671" t="s">
+        <v>118</v>
+      </c>
+      <c r="D671" t="s">
+        <v>6</v>
+      </c>
+      <c r="E671" t="s">
+        <v>110</v>
+      </c>
+      <c r="F671" t="s">
+        <v>117</v>
+      </c>
+      <c r="G671" t="s">
+        <v>105</v>
+      </c>
+      <c r="H671" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A672">
+        <v>20250320</v>
+      </c>
+      <c r="B672" t="s">
+        <v>5</v>
+      </c>
+      <c r="C672" t="s">
+        <v>118</v>
+      </c>
+      <c r="D672" t="s">
+        <v>6</v>
+      </c>
+      <c r="E672" t="s">
+        <v>110</v>
+      </c>
+      <c r="F672" t="s">
+        <v>117</v>
+      </c>
+      <c r="G672" t="s">
+        <v>106</v>
+      </c>
+      <c r="H672" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A673">
+        <v>20250320</v>
+      </c>
+      <c r="B673" t="s">
+        <v>5</v>
+      </c>
+      <c r="C673" t="s">
+        <v>118</v>
+      </c>
+      <c r="D673" t="s">
+        <v>6</v>
+      </c>
+      <c r="E673" t="s">
+        <v>110</v>
+      </c>
+      <c r="F673" t="s">
+        <v>117</v>
+      </c>
+      <c r="G673" t="s">
+        <v>107</v>
+      </c>
+      <c r="H673" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A674">
+        <v>20250320</v>
+      </c>
+      <c r="B674" t="s">
+        <v>45</v>
+      </c>
+      <c r="C674" t="s">
+        <v>121</v>
+      </c>
+      <c r="D674" t="s">
+        <v>109</v>
+      </c>
+      <c r="E674" t="s">
+        <v>109</v>
+      </c>
+      <c r="F674" t="s">
+        <v>109</v>
+      </c>
+      <c r="G674" t="s">
+        <v>8</v>
+      </c>
+      <c r="H674" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A675">
+        <v>20250320</v>
+      </c>
+      <c r="B675" t="s">
+        <v>45</v>
+      </c>
+      <c r="C675" t="s">
+        <v>121</v>
+      </c>
+      <c r="D675" t="s">
+        <v>109</v>
+      </c>
+      <c r="E675" t="s">
+        <v>109</v>
+      </c>
+      <c r="F675" t="s">
+        <v>109</v>
+      </c>
+      <c r="G675" t="s">
+        <v>9</v>
+      </c>
+      <c r="H675" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A676">
+        <v>20250320</v>
+      </c>
+      <c r="B676" t="s">
+        <v>45</v>
+      </c>
+      <c r="C676" t="s">
+        <v>121</v>
+      </c>
+      <c r="D676" t="s">
+        <v>109</v>
+      </c>
+      <c r="E676" t="s">
+        <v>109</v>
+      </c>
+      <c r="F676" t="s">
+        <v>109</v>
+      </c>
+      <c r="G676" t="s">
+        <v>10</v>
+      </c>
+      <c r="H676" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A677">
+        <v>20250320</v>
+      </c>
+      <c r="B677" t="s">
+        <v>45</v>
+      </c>
+      <c r="C677" t="s">
+        <v>121</v>
+      </c>
+      <c r="D677" t="s">
+        <v>111</v>
+      </c>
+      <c r="E677" t="s">
+        <v>112</v>
+      </c>
+      <c r="F677" t="s">
+        <v>116</v>
+      </c>
+      <c r="G677" t="s">
+        <v>11</v>
+      </c>
+      <c r="H677" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A678">
+        <v>20250320</v>
+      </c>
+      <c r="B678" t="s">
+        <v>45</v>
+      </c>
+      <c r="C678" t="s">
+        <v>121</v>
+      </c>
+      <c r="D678" t="s">
+        <v>111</v>
+      </c>
+      <c r="E678" t="s">
+        <v>112</v>
+      </c>
+      <c r="F678" t="s">
+        <v>116</v>
+      </c>
+      <c r="G678" t="s">
+        <v>12</v>
+      </c>
+      <c r="H678" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A679">
+        <v>20250320</v>
+      </c>
+      <c r="B679" t="s">
+        <v>45</v>
+      </c>
+      <c r="C679" t="s">
+        <v>121</v>
+      </c>
+      <c r="D679" t="s">
+        <v>111</v>
+      </c>
+      <c r="E679" t="s">
+        <v>112</v>
+      </c>
+      <c r="F679" t="s">
+        <v>116</v>
+      </c>
+      <c r="G679" t="s">
+        <v>13</v>
+      </c>
+      <c r="H679" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A680">
+        <v>20250320</v>
+      </c>
+      <c r="B680" t="s">
+        <v>45</v>
+      </c>
+      <c r="C680" t="s">
+        <v>121</v>
+      </c>
+      <c r="D680" t="s">
+        <v>111</v>
+      </c>
+      <c r="E680" t="s">
+        <v>112</v>
+      </c>
+      <c r="F680" t="s">
+        <v>116</v>
+      </c>
+      <c r="G680" t="s">
+        <v>14</v>
+      </c>
+      <c r="H680" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A681">
+        <v>20250320</v>
+      </c>
+      <c r="B681" t="s">
+        <v>45</v>
+      </c>
+      <c r="C681" t="s">
+        <v>121</v>
+      </c>
+      <c r="D681" t="s">
+        <v>111</v>
+      </c>
+      <c r="E681" t="s">
+        <v>112</v>
+      </c>
+      <c r="F681" t="s">
+        <v>116</v>
+      </c>
+      <c r="G681" t="s">
+        <v>15</v>
+      </c>
+      <c r="H681" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A682">
+        <v>20250320</v>
+      </c>
+      <c r="B682" t="s">
+        <v>45</v>
+      </c>
+      <c r="C682" t="s">
+        <v>121</v>
+      </c>
+      <c r="D682" t="s">
+        <v>111</v>
+      </c>
+      <c r="E682" t="s">
+        <v>112</v>
+      </c>
+      <c r="F682" t="s">
+        <v>116</v>
+      </c>
+      <c r="G682" t="s">
+        <v>16</v>
+      </c>
+      <c r="H682" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A683">
+        <v>20250320</v>
+      </c>
+      <c r="B683" t="s">
+        <v>45</v>
+      </c>
+      <c r="C683" t="s">
+        <v>121</v>
+      </c>
+      <c r="D683" t="s">
+        <v>111</v>
+      </c>
+      <c r="E683" t="s">
+        <v>112</v>
+      </c>
+      <c r="F683" t="s">
+        <v>116</v>
+      </c>
+      <c r="G683" t="s">
+        <v>17</v>
+      </c>
+      <c r="H683" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A684">
+        <v>20250320</v>
+      </c>
+      <c r="B684" t="s">
+        <v>45</v>
+      </c>
+      <c r="C684" t="s">
+        <v>121</v>
+      </c>
+      <c r="D684" t="s">
+        <v>111</v>
+      </c>
+      <c r="E684" t="s">
+        <v>112</v>
+      </c>
+      <c r="F684" t="s">
+        <v>116</v>
+      </c>
+      <c r="G684" t="s">
+        <v>18</v>
+      </c>
+      <c r="H684" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A685">
+        <v>20250320</v>
+      </c>
+      <c r="B685" t="s">
+        <v>45</v>
+      </c>
+      <c r="C685" t="s">
+        <v>121</v>
+      </c>
+      <c r="D685" t="s">
+        <v>111</v>
+      </c>
+      <c r="E685" t="s">
+        <v>112</v>
+      </c>
+      <c r="F685" t="s">
+        <v>116</v>
+      </c>
+      <c r="G685" t="s">
+        <v>19</v>
+      </c>
+      <c r="H685" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A686">
+        <v>20250320</v>
+      </c>
+      <c r="B686" t="s">
+        <v>45</v>
+      </c>
+      <c r="C686" t="s">
+        <v>121</v>
+      </c>
+      <c r="D686" t="s">
+        <v>111</v>
+      </c>
+      <c r="E686" t="s">
+        <v>112</v>
+      </c>
+      <c r="F686" t="s">
+        <v>116</v>
+      </c>
+      <c r="G686" t="s">
+        <v>20</v>
+      </c>
+      <c r="H686" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A687">
+        <v>20250320</v>
+      </c>
+      <c r="B687" t="s">
+        <v>45</v>
+      </c>
+      <c r="C687" t="s">
+        <v>121</v>
+      </c>
+      <c r="D687" t="s">
+        <v>111</v>
+      </c>
+      <c r="E687" t="s">
+        <v>112</v>
+      </c>
+      <c r="F687" t="s">
+        <v>116</v>
+      </c>
+      <c r="G687" t="s">
+        <v>21</v>
+      </c>
+      <c r="H687" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A688">
+        <v>20250320</v>
+      </c>
+      <c r="B688" t="s">
+        <v>45</v>
+      </c>
+      <c r="C688" t="s">
+        <v>121</v>
+      </c>
+      <c r="D688" t="s">
+        <v>111</v>
+      </c>
+      <c r="E688" t="s">
+        <v>112</v>
+      </c>
+      <c r="F688" t="s">
+        <v>116</v>
+      </c>
+      <c r="G688" t="s">
+        <v>22</v>
+      </c>
+      <c r="H688" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A689">
+        <v>20250320</v>
+      </c>
+      <c r="B689" t="s">
+        <v>45</v>
+      </c>
+      <c r="C689" t="s">
+        <v>121</v>
+      </c>
+      <c r="D689" t="s">
+        <v>111</v>
+      </c>
+      <c r="E689" t="s">
+        <v>112</v>
+      </c>
+      <c r="F689" t="s">
+        <v>116</v>
+      </c>
+      <c r="G689" t="s">
+        <v>23</v>
+      </c>
+      <c r="H689" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A690">
+        <v>20250320</v>
+      </c>
+      <c r="B690" t="s">
+        <v>45</v>
+      </c>
+      <c r="C690" t="s">
+        <v>121</v>
+      </c>
+      <c r="D690" t="s">
+        <v>111</v>
+      </c>
+      <c r="E690" t="s">
+        <v>112</v>
+      </c>
+      <c r="F690" t="s">
+        <v>116</v>
+      </c>
+      <c r="G690" t="s">
+        <v>24</v>
+      </c>
+      <c r="H690" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A691">
+        <v>20250320</v>
+      </c>
+      <c r="B691" t="s">
+        <v>45</v>
+      </c>
+      <c r="C691" t="s">
+        <v>121</v>
+      </c>
+      <c r="D691" t="s">
+        <v>111</v>
+      </c>
+      <c r="E691" t="s">
+        <v>112</v>
+      </c>
+      <c r="F691" t="s">
+        <v>116</v>
+      </c>
+      <c r="G691" t="s">
+        <v>25</v>
+      </c>
+      <c r="H691" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A692">
+        <v>20250320</v>
+      </c>
+      <c r="B692" t="s">
+        <v>45</v>
+      </c>
+      <c r="C692" t="s">
+        <v>121</v>
+      </c>
+      <c r="D692" t="s">
+        <v>111</v>
+      </c>
+      <c r="E692" t="s">
+        <v>112</v>
+      </c>
+      <c r="F692" t="s">
+        <v>116</v>
+      </c>
+      <c r="G692" t="s">
+        <v>26</v>
+      </c>
+      <c r="H692" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="693" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A693">
+        <v>20250320</v>
+      </c>
+      <c r="B693" t="s">
+        <v>45</v>
+      </c>
+      <c r="C693" t="s">
+        <v>121</v>
+      </c>
+      <c r="D693" t="s">
+        <v>111</v>
+      </c>
+      <c r="E693" t="s">
+        <v>112</v>
+      </c>
+      <c r="F693" t="s">
+        <v>116</v>
+      </c>
+      <c r="G693" t="s">
+        <v>27</v>
+      </c>
+      <c r="H693" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="694" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A694">
+        <v>20250320</v>
+      </c>
+      <c r="B694" t="s">
+        <v>45</v>
+      </c>
+      <c r="C694" t="s">
+        <v>121</v>
+      </c>
+      <c r="D694" t="s">
+        <v>111</v>
+      </c>
+      <c r="E694" t="s">
+        <v>112</v>
+      </c>
+      <c r="F694" t="s">
+        <v>116</v>
+      </c>
+      <c r="G694" t="s">
+        <v>28</v>
+      </c>
+      <c r="H694" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="695" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A695">
+        <v>20250320</v>
+      </c>
+      <c r="B695" t="s">
+        <v>45</v>
+      </c>
+      <c r="C695" t="s">
+        <v>121</v>
+      </c>
+      <c r="D695" t="s">
+        <v>111</v>
+      </c>
+      <c r="E695" t="s">
+        <v>112</v>
+      </c>
+      <c r="F695" t="s">
+        <v>116</v>
+      </c>
+      <c r="G695" t="s">
+        <v>29</v>
+      </c>
+      <c r="H695" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="696" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A696">
+        <v>20250320</v>
+      </c>
+      <c r="B696" t="s">
+        <v>45</v>
+      </c>
+      <c r="C696" t="s">
+        <v>121</v>
+      </c>
+      <c r="D696" t="s">
+        <v>111</v>
+      </c>
+      <c r="E696" t="s">
+        <v>112</v>
+      </c>
+      <c r="F696" t="s">
+        <v>116</v>
+      </c>
+      <c r="G696" t="s">
+        <v>30</v>
+      </c>
+      <c r="H696" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="697" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A697">
+        <v>20250320</v>
+      </c>
+      <c r="B697" t="s">
+        <v>45</v>
+      </c>
+      <c r="C697" t="s">
+        <v>121</v>
+      </c>
+      <c r="D697" t="s">
+        <v>111</v>
+      </c>
+      <c r="E697" t="s">
+        <v>112</v>
+      </c>
+      <c r="F697" t="s">
+        <v>116</v>
+      </c>
+      <c r="G697" t="s">
+        <v>31</v>
+      </c>
+      <c r="H697" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="698" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A698">
+        <v>20250320</v>
+      </c>
+      <c r="B698" t="s">
+        <v>45</v>
+      </c>
+      <c r="C698" t="s">
+        <v>121</v>
+      </c>
+      <c r="D698" t="s">
+        <v>109</v>
+      </c>
+      <c r="E698" t="s">
+        <v>109</v>
+      </c>
+      <c r="F698" t="s">
+        <v>109</v>
+      </c>
+      <c r="G698" t="s">
+        <v>32</v>
+      </c>
+      <c r="H698" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="699" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A699">
+        <v>20250320</v>
+      </c>
+      <c r="B699" t="s">
+        <v>45</v>
+      </c>
+      <c r="C699" t="s">
+        <v>121</v>
+      </c>
+      <c r="D699" t="s">
+        <v>109</v>
+      </c>
+      <c r="E699" t="s">
+        <v>109</v>
+      </c>
+      <c r="F699" t="s">
+        <v>109</v>
+      </c>
+      <c r="G699" t="s">
+        <v>33</v>
+      </c>
+      <c r="H699" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="700" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A700">
+        <v>20250320</v>
+      </c>
+      <c r="B700" t="s">
+        <v>45</v>
+      </c>
+      <c r="C700" t="s">
+        <v>121</v>
+      </c>
+      <c r="D700" t="s">
+        <v>109</v>
+      </c>
+      <c r="E700" t="s">
+        <v>109</v>
+      </c>
+      <c r="F700" t="s">
+        <v>109</v>
+      </c>
+      <c r="G700" t="s">
+        <v>34</v>
+      </c>
+      <c r="H700" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="701" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A701">
+        <v>20250320</v>
+      </c>
+      <c r="B701" t="s">
+        <v>45</v>
+      </c>
+      <c r="C701" t="s">
+        <v>121</v>
+      </c>
+      <c r="D701" t="s">
+        <v>6</v>
+      </c>
+      <c r="E701" t="s">
+        <v>108</v>
+      </c>
+      <c r="F701" t="s">
+        <v>116</v>
+      </c>
+      <c r="G701" t="s">
+        <v>35</v>
+      </c>
+      <c r="H701" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="702" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A702">
+        <v>20250320</v>
+      </c>
+      <c r="B702" t="s">
+        <v>45</v>
+      </c>
+      <c r="C702" t="s">
+        <v>121</v>
+      </c>
+      <c r="D702" t="s">
+        <v>6</v>
+      </c>
+      <c r="E702" t="s">
+        <v>108</v>
+      </c>
+      <c r="F702" t="s">
+        <v>116</v>
+      </c>
+      <c r="G702" t="s">
+        <v>36</v>
+      </c>
+      <c r="H702" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="703" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A703">
+        <v>20250320</v>
+      </c>
+      <c r="B703" t="s">
+        <v>45</v>
+      </c>
+      <c r="C703" t="s">
+        <v>121</v>
+      </c>
+      <c r="D703" t="s">
+        <v>6</v>
+      </c>
+      <c r="E703" t="s">
+        <v>108</v>
+      </c>
+      <c r="F703" t="s">
+        <v>116</v>
+      </c>
+      <c r="G703" t="s">
+        <v>37</v>
+      </c>
+      <c r="H703" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="704" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A704">
+        <v>20250320</v>
+      </c>
+      <c r="B704" t="s">
+        <v>45</v>
+      </c>
+      <c r="C704" t="s">
+        <v>121</v>
+      </c>
+      <c r="D704" t="s">
+        <v>6</v>
+      </c>
+      <c r="E704" t="s">
+        <v>108</v>
+      </c>
+      <c r="F704" t="s">
+        <v>116</v>
+      </c>
+      <c r="G704" t="s">
+        <v>38</v>
+      </c>
+      <c r="H704" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A705">
+        <v>20250320</v>
+      </c>
+      <c r="B705" t="s">
+        <v>45</v>
+      </c>
+      <c r="C705" t="s">
+        <v>121</v>
+      </c>
+      <c r="D705" t="s">
+        <v>6</v>
+      </c>
+      <c r="E705" t="s">
+        <v>108</v>
+      </c>
+      <c r="F705" t="s">
+        <v>116</v>
+      </c>
+      <c r="G705" t="s">
+        <v>39</v>
+      </c>
+      <c r="H705" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A706">
+        <v>20250320</v>
+      </c>
+      <c r="B706" t="s">
+        <v>45</v>
+      </c>
+      <c r="C706" t="s">
+        <v>121</v>
+      </c>
+      <c r="D706" t="s">
+        <v>6</v>
+      </c>
+      <c r="E706" t="s">
+        <v>108</v>
+      </c>
+      <c r="F706" t="s">
+        <v>116</v>
+      </c>
+      <c r="G706" t="s">
+        <v>40</v>
+      </c>
+      <c r="H706" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A707">
+        <v>20250320</v>
+      </c>
+      <c r="B707" t="s">
+        <v>45</v>
+      </c>
+      <c r="C707" t="s">
+        <v>121</v>
+      </c>
+      <c r="D707" t="s">
+        <v>6</v>
+      </c>
+      <c r="E707" t="s">
+        <v>108</v>
+      </c>
+      <c r="F707" t="s">
+        <v>116</v>
+      </c>
+      <c r="G707" t="s">
+        <v>41</v>
+      </c>
+      <c r="H707" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A708">
+        <v>20250320</v>
+      </c>
+      <c r="B708" t="s">
+        <v>45</v>
+      </c>
+      <c r="C708" t="s">
+        <v>121</v>
+      </c>
+      <c r="D708" t="s">
+        <v>6</v>
+      </c>
+      <c r="E708" t="s">
+        <v>108</v>
+      </c>
+      <c r="F708" t="s">
+        <v>116</v>
+      </c>
+      <c r="G708" t="s">
+        <v>42</v>
+      </c>
+      <c r="H708" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A709">
+        <v>20250320</v>
+      </c>
+      <c r="B709" t="s">
+        <v>45</v>
+      </c>
+      <c r="C709" t="s">
+        <v>121</v>
+      </c>
+      <c r="D709" t="s">
+        <v>6</v>
+      </c>
+      <c r="E709" t="s">
+        <v>108</v>
+      </c>
+      <c r="F709" t="s">
+        <v>116</v>
+      </c>
+      <c r="G709" t="s">
+        <v>43</v>
+      </c>
+      <c r="H709" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A710">
+        <v>20250320</v>
+      </c>
+      <c r="B710" t="s">
+        <v>45</v>
+      </c>
+      <c r="C710" t="s">
+        <v>121</v>
+      </c>
+      <c r="D710" t="s">
+        <v>6</v>
+      </c>
+      <c r="E710" t="s">
+        <v>108</v>
+      </c>
+      <c r="F710" t="s">
+        <v>116</v>
+      </c>
+      <c r="G710" t="s">
+        <v>48</v>
+      </c>
+      <c r="H710" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A711">
+        <v>20250320</v>
+      </c>
+      <c r="B711" t="s">
+        <v>45</v>
+      </c>
+      <c r="C711" t="s">
+        <v>121</v>
+      </c>
+      <c r="D711" t="s">
+        <v>6</v>
+      </c>
+      <c r="E711" t="s">
+        <v>108</v>
+      </c>
+      <c r="F711" t="s">
+        <v>116</v>
+      </c>
+      <c r="G711" t="s">
+        <v>49</v>
+      </c>
+      <c r="H711" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A712">
+        <v>20250320</v>
+      </c>
+      <c r="B712" t="s">
+        <v>45</v>
+      </c>
+      <c r="C712" t="s">
+        <v>121</v>
+      </c>
+      <c r="D712" t="s">
+        <v>6</v>
+      </c>
+      <c r="E712" t="s">
+        <v>108</v>
+      </c>
+      <c r="F712" t="s">
+        <v>116</v>
+      </c>
+      <c r="G712" t="s">
+        <v>50</v>
+      </c>
+      <c r="H712" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A713">
+        <v>20250320</v>
+      </c>
+      <c r="B713" t="s">
+        <v>45</v>
+      </c>
+      <c r="C713" t="s">
+        <v>121</v>
+      </c>
+      <c r="D713" t="s">
+        <v>6</v>
+      </c>
+      <c r="E713" t="s">
+        <v>108</v>
+      </c>
+      <c r="F713" t="s">
+        <v>116</v>
+      </c>
+      <c r="G713" t="s">
+        <v>51</v>
+      </c>
+      <c r="H713" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A714">
+        <v>20250320</v>
+      </c>
+      <c r="B714" t="s">
+        <v>45</v>
+      </c>
+      <c r="C714" t="s">
+        <v>121</v>
+      </c>
+      <c r="D714" t="s">
+        <v>6</v>
+      </c>
+      <c r="E714" t="s">
+        <v>108</v>
+      </c>
+      <c r="F714" t="s">
+        <v>116</v>
+      </c>
+      <c r="G714" t="s">
+        <v>52</v>
+      </c>
+      <c r="H714" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A715">
+        <v>20250320</v>
+      </c>
+      <c r="B715" t="s">
+        <v>45</v>
+      </c>
+      <c r="C715" t="s">
+        <v>121</v>
+      </c>
+      <c r="D715" t="s">
+        <v>6</v>
+      </c>
+      <c r="E715" t="s">
+        <v>108</v>
+      </c>
+      <c r="F715" t="s">
+        <v>116</v>
+      </c>
+      <c r="G715" t="s">
+        <v>53</v>
+      </c>
+      <c r="H715" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A716">
+        <v>20250320</v>
+      </c>
+      <c r="B716" t="s">
+        <v>45</v>
+      </c>
+      <c r="C716" t="s">
+        <v>121</v>
+      </c>
+      <c r="D716" t="s">
+        <v>6</v>
+      </c>
+      <c r="E716" t="s">
+        <v>108</v>
+      </c>
+      <c r="F716" t="s">
+        <v>116</v>
+      </c>
+      <c r="G716" t="s">
+        <v>54</v>
+      </c>
+      <c r="H716" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A717">
+        <v>20250320</v>
+      </c>
+      <c r="B717" t="s">
+        <v>45</v>
+      </c>
+      <c r="C717" t="s">
+        <v>121</v>
+      </c>
+      <c r="D717" t="s">
+        <v>6</v>
+      </c>
+      <c r="E717" t="s">
+        <v>108</v>
+      </c>
+      <c r="F717" t="s">
+        <v>116</v>
+      </c>
+      <c r="G717" t="s">
+        <v>55</v>
+      </c>
+      <c r="H717" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A718">
+        <v>20250320</v>
+      </c>
+      <c r="B718" t="s">
+        <v>45</v>
+      </c>
+      <c r="C718" t="s">
+        <v>121</v>
+      </c>
+      <c r="D718" t="s">
+        <v>6</v>
+      </c>
+      <c r="E718" t="s">
+        <v>108</v>
+      </c>
+      <c r="F718" t="s">
+        <v>116</v>
+      </c>
+      <c r="G718" t="s">
+        <v>56</v>
+      </c>
+      <c r="H718" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A719">
+        <v>20250320</v>
+      </c>
+      <c r="B719" t="s">
+        <v>45</v>
+      </c>
+      <c r="C719" t="s">
+        <v>121</v>
+      </c>
+      <c r="D719" t="s">
+        <v>6</v>
+      </c>
+      <c r="E719" t="s">
+        <v>108</v>
+      </c>
+      <c r="F719" t="s">
+        <v>116</v>
+      </c>
+      <c r="G719" t="s">
+        <v>57</v>
+      </c>
+      <c r="H719" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A720">
+        <v>20250320</v>
+      </c>
+      <c r="B720" t="s">
+        <v>45</v>
+      </c>
+      <c r="C720" t="s">
+        <v>121</v>
+      </c>
+      <c r="D720" t="s">
+        <v>6</v>
+      </c>
+      <c r="E720" t="s">
+        <v>108</v>
+      </c>
+      <c r="F720" t="s">
+        <v>116</v>
+      </c>
+      <c r="G720" t="s">
+        <v>58</v>
+      </c>
+      <c r="H720" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A721">
+        <v>20250320</v>
+      </c>
+      <c r="B721" t="s">
+        <v>45</v>
+      </c>
+      <c r="C721" t="s">
+        <v>121</v>
+      </c>
+      <c r="D721" t="s">
+        <v>6</v>
+      </c>
+      <c r="E721" t="s">
+        <v>108</v>
+      </c>
+      <c r="F721" t="s">
+        <v>116</v>
+      </c>
+      <c r="G721" t="s">
+        <v>59</v>
+      </c>
+      <c r="H721" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A722">
+        <v>20250320</v>
+      </c>
+      <c r="B722" t="s">
+        <v>45</v>
+      </c>
+      <c r="C722" t="s">
+        <v>121</v>
+      </c>
+      <c r="D722" t="s">
+        <v>109</v>
+      </c>
+      <c r="E722" t="s">
+        <v>109</v>
+      </c>
+      <c r="F722" t="s">
+        <v>109</v>
+      </c>
+      <c r="G722" t="s">
+        <v>60</v>
+      </c>
+      <c r="H722" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A723">
+        <v>20250320</v>
+      </c>
+      <c r="B723" t="s">
+        <v>45</v>
+      </c>
+      <c r="C723" t="s">
+        <v>121</v>
+      </c>
+      <c r="D723" t="s">
+        <v>109</v>
+      </c>
+      <c r="E723" t="s">
+        <v>109</v>
+      </c>
+      <c r="F723" t="s">
+        <v>109</v>
+      </c>
+      <c r="G723" t="s">
+        <v>61</v>
+      </c>
+      <c r="H723" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A724">
+        <v>20250320</v>
+      </c>
+      <c r="B724" t="s">
+        <v>45</v>
+      </c>
+      <c r="C724" t="s">
+        <v>121</v>
+      </c>
+      <c r="D724" t="s">
+        <v>109</v>
+      </c>
+      <c r="E724" t="s">
+        <v>109</v>
+      </c>
+      <c r="F724" t="s">
+        <v>109</v>
+      </c>
+      <c r="G724" t="s">
+        <v>62</v>
+      </c>
+      <c r="H724" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A725">
+        <v>20250320</v>
+      </c>
+      <c r="B725" t="s">
+        <v>45</v>
+      </c>
+      <c r="C725" t="s">
+        <v>121</v>
+      </c>
+      <c r="D725" t="s">
+        <v>111</v>
+      </c>
+      <c r="E725" t="s">
+        <v>113</v>
+      </c>
+      <c r="F725" t="s">
+        <v>117</v>
+      </c>
+      <c r="G725" t="s">
+        <v>63</v>
+      </c>
+      <c r="H725" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A726">
+        <v>20250320</v>
+      </c>
+      <c r="B726" t="s">
+        <v>45</v>
+      </c>
+      <c r="C726" t="s">
+        <v>121</v>
+      </c>
+      <c r="D726" t="s">
+        <v>111</v>
+      </c>
+      <c r="E726" t="s">
+        <v>113</v>
+      </c>
+      <c r="F726" t="s">
+        <v>117</v>
+      </c>
+      <c r="G726" t="s">
+        <v>64</v>
+      </c>
+      <c r="H726" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A727">
+        <v>20250320</v>
+      </c>
+      <c r="B727" t="s">
+        <v>45</v>
+      </c>
+      <c r="C727" t="s">
+        <v>121</v>
+      </c>
+      <c r="D727" t="s">
+        <v>111</v>
+      </c>
+      <c r="E727" t="s">
+        <v>113</v>
+      </c>
+      <c r="F727" t="s">
+        <v>117</v>
+      </c>
+      <c r="G727" t="s">
+        <v>65</v>
+      </c>
+      <c r="H727" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A728">
+        <v>20250320</v>
+      </c>
+      <c r="B728" t="s">
+        <v>45</v>
+      </c>
+      <c r="C728" t="s">
+        <v>121</v>
+      </c>
+      <c r="D728" t="s">
+        <v>111</v>
+      </c>
+      <c r="E728" t="s">
+        <v>113</v>
+      </c>
+      <c r="F728" t="s">
+        <v>117</v>
+      </c>
+      <c r="G728" t="s">
+        <v>66</v>
+      </c>
+      <c r="H728" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A729">
+        <v>20250320</v>
+      </c>
+      <c r="B729" t="s">
+        <v>45</v>
+      </c>
+      <c r="C729" t="s">
+        <v>121</v>
+      </c>
+      <c r="D729" t="s">
+        <v>111</v>
+      </c>
+      <c r="E729" t="s">
+        <v>113</v>
+      </c>
+      <c r="F729" t="s">
+        <v>117</v>
+      </c>
+      <c r="G729" t="s">
+        <v>67</v>
+      </c>
+      <c r="H729" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A730">
+        <v>20250320</v>
+      </c>
+      <c r="B730" t="s">
+        <v>45</v>
+      </c>
+      <c r="C730" t="s">
+        <v>121</v>
+      </c>
+      <c r="D730" t="s">
+        <v>111</v>
+      </c>
+      <c r="E730" t="s">
+        <v>113</v>
+      </c>
+      <c r="F730" t="s">
+        <v>117</v>
+      </c>
+      <c r="G730" t="s">
+        <v>68</v>
+      </c>
+      <c r="H730" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A731">
+        <v>20250320</v>
+      </c>
+      <c r="B731" t="s">
+        <v>45</v>
+      </c>
+      <c r="C731" t="s">
+        <v>121</v>
+      </c>
+      <c r="D731" t="s">
+        <v>111</v>
+      </c>
+      <c r="E731" t="s">
+        <v>113</v>
+      </c>
+      <c r="F731" t="s">
+        <v>117</v>
+      </c>
+      <c r="G731" t="s">
+        <v>69</v>
+      </c>
+      <c r="H731" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A732">
+        <v>20250320</v>
+      </c>
+      <c r="B732" t="s">
+        <v>45</v>
+      </c>
+      <c r="C732" t="s">
+        <v>121</v>
+      </c>
+      <c r="D732" t="s">
+        <v>111</v>
+      </c>
+      <c r="E732" t="s">
+        <v>113</v>
+      </c>
+      <c r="F732" t="s">
+        <v>117</v>
+      </c>
+      <c r="G732" t="s">
+        <v>70</v>
+      </c>
+      <c r="H732" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A733">
+        <v>20250320</v>
+      </c>
+      <c r="B733" t="s">
+        <v>45</v>
+      </c>
+      <c r="C733" t="s">
+        <v>121</v>
+      </c>
+      <c r="D733" t="s">
+        <v>111</v>
+      </c>
+      <c r="E733" t="s">
+        <v>113</v>
+      </c>
+      <c r="F733" t="s">
+        <v>117</v>
+      </c>
+      <c r="G733" t="s">
+        <v>71</v>
+      </c>
+      <c r="H733" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A734">
+        <v>20250320</v>
+      </c>
+      <c r="B734" t="s">
+        <v>45</v>
+      </c>
+      <c r="C734" t="s">
+        <v>121</v>
+      </c>
+      <c r="D734" t="s">
+        <v>111</v>
+      </c>
+      <c r="E734" t="s">
+        <v>113</v>
+      </c>
+      <c r="F734" t="s">
+        <v>117</v>
+      </c>
+      <c r="G734" t="s">
+        <v>72</v>
+      </c>
+      <c r="H734" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A735">
+        <v>20250320</v>
+      </c>
+      <c r="B735" t="s">
+        <v>45</v>
+      </c>
+      <c r="C735" t="s">
+        <v>121</v>
+      </c>
+      <c r="D735" t="s">
+        <v>111</v>
+      </c>
+      <c r="E735" t="s">
+        <v>113</v>
+      </c>
+      <c r="F735" t="s">
+        <v>117</v>
+      </c>
+      <c r="G735" t="s">
+        <v>73</v>
+      </c>
+      <c r="H735" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A736">
+        <v>20250320</v>
+      </c>
+      <c r="B736" t="s">
+        <v>45</v>
+      </c>
+      <c r="C736" t="s">
+        <v>121</v>
+      </c>
+      <c r="D736" t="s">
+        <v>111</v>
+      </c>
+      <c r="E736" t="s">
+        <v>113</v>
+      </c>
+      <c r="F736" t="s">
+        <v>117</v>
+      </c>
+      <c r="G736" t="s">
+        <v>74</v>
+      </c>
+      <c r="H736" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A737">
+        <v>20250320</v>
+      </c>
+      <c r="B737" t="s">
+        <v>45</v>
+      </c>
+      <c r="C737" t="s">
+        <v>121</v>
+      </c>
+      <c r="D737" t="s">
+        <v>111</v>
+      </c>
+      <c r="E737" t="s">
+        <v>113</v>
+      </c>
+      <c r="F737" t="s">
+        <v>117</v>
+      </c>
+      <c r="G737" t="s">
+        <v>75</v>
+      </c>
+      <c r="H737" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A738">
+        <v>20250320</v>
+      </c>
+      <c r="B738" t="s">
+        <v>45</v>
+      </c>
+      <c r="C738" t="s">
+        <v>121</v>
+      </c>
+      <c r="D738" t="s">
+        <v>111</v>
+      </c>
+      <c r="E738" t="s">
+        <v>113</v>
+      </c>
+      <c r="F738" t="s">
+        <v>117</v>
+      </c>
+      <c r="G738" t="s">
+        <v>76</v>
+      </c>
+      <c r="H738" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A739">
+        <v>20250320</v>
+      </c>
+      <c r="B739" t="s">
+        <v>45</v>
+      </c>
+      <c r="C739" t="s">
+        <v>121</v>
+      </c>
+      <c r="D739" t="s">
+        <v>111</v>
+      </c>
+      <c r="E739" t="s">
+        <v>113</v>
+      </c>
+      <c r="F739" t="s">
+        <v>117</v>
+      </c>
+      <c r="G739" t="s">
+        <v>77</v>
+      </c>
+      <c r="H739" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A740">
+        <v>20250320</v>
+      </c>
+      <c r="B740" t="s">
+        <v>45</v>
+      </c>
+      <c r="C740" t="s">
+        <v>121</v>
+      </c>
+      <c r="D740" t="s">
+        <v>111</v>
+      </c>
+      <c r="E740" t="s">
+        <v>113</v>
+      </c>
+      <c r="F740" t="s">
+        <v>117</v>
+      </c>
+      <c r="G740" t="s">
+        <v>78</v>
+      </c>
+      <c r="H740" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A741">
+        <v>20250320</v>
+      </c>
+      <c r="B741" t="s">
+        <v>45</v>
+      </c>
+      <c r="C741" t="s">
+        <v>121</v>
+      </c>
+      <c r="D741" t="s">
+        <v>111</v>
+      </c>
+      <c r="E741" t="s">
+        <v>113</v>
+      </c>
+      <c r="F741" t="s">
+        <v>117</v>
+      </c>
+      <c r="G741" t="s">
+        <v>79</v>
+      </c>
+      <c r="H741" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A742">
+        <v>20250320</v>
+      </c>
+      <c r="B742" t="s">
+        <v>45</v>
+      </c>
+      <c r="C742" t="s">
+        <v>121</v>
+      </c>
+      <c r="D742" t="s">
+        <v>111</v>
+      </c>
+      <c r="E742" t="s">
+        <v>113</v>
+      </c>
+      <c r="F742" t="s">
+        <v>117</v>
+      </c>
+      <c r="G742" t="s">
+        <v>80</v>
+      </c>
+      <c r="H742" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="743" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A743">
+        <v>20250320</v>
+      </c>
+      <c r="B743" t="s">
+        <v>45</v>
+      </c>
+      <c r="C743" t="s">
+        <v>121</v>
+      </c>
+      <c r="D743" t="s">
+        <v>111</v>
+      </c>
+      <c r="E743" t="s">
+        <v>113</v>
+      </c>
+      <c r="F743" t="s">
+        <v>117</v>
+      </c>
+      <c r="G743" t="s">
+        <v>81</v>
+      </c>
+      <c r="H743" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="744" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A744">
+        <v>20250320</v>
+      </c>
+      <c r="B744" t="s">
+        <v>45</v>
+      </c>
+      <c r="C744" t="s">
+        <v>121</v>
+      </c>
+      <c r="D744" t="s">
+        <v>111</v>
+      </c>
+      <c r="E744" t="s">
+        <v>113</v>
+      </c>
+      <c r="F744" t="s">
+        <v>117</v>
+      </c>
+      <c r="G744" t="s">
+        <v>82</v>
+      </c>
+      <c r="H744" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="745" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A745">
+        <v>20250320</v>
+      </c>
+      <c r="B745" t="s">
+        <v>45</v>
+      </c>
+      <c r="C745" t="s">
+        <v>121</v>
+      </c>
+      <c r="D745" t="s">
+        <v>111</v>
+      </c>
+      <c r="E745" t="s">
+        <v>113</v>
+      </c>
+      <c r="F745" t="s">
+        <v>117</v>
+      </c>
+      <c r="G745" t="s">
+        <v>83</v>
+      </c>
+      <c r="H745" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="746" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A746">
+        <v>20250320</v>
+      </c>
+      <c r="B746" t="s">
+        <v>45</v>
+      </c>
+      <c r="C746" t="s">
+        <v>121</v>
+      </c>
+      <c r="D746" t="s">
+        <v>109</v>
+      </c>
+      <c r="E746" t="s">
+        <v>109</v>
+      </c>
+      <c r="F746" t="s">
+        <v>109</v>
+      </c>
+      <c r="G746" t="s">
+        <v>84</v>
+      </c>
+      <c r="H746" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="747" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A747">
+        <v>20250320</v>
+      </c>
+      <c r="B747" t="s">
+        <v>45</v>
+      </c>
+      <c r="C747" t="s">
+        <v>121</v>
+      </c>
+      <c r="D747" t="s">
+        <v>109</v>
+      </c>
+      <c r="E747" t="s">
+        <v>109</v>
+      </c>
+      <c r="F747" t="s">
+        <v>109</v>
+      </c>
+      <c r="G747" t="s">
+        <v>85</v>
+      </c>
+      <c r="H747" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="748" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A748">
+        <v>20250320</v>
+      </c>
+      <c r="B748" t="s">
+        <v>45</v>
+      </c>
+      <c r="C748" t="s">
+        <v>121</v>
+      </c>
+      <c r="D748" t="s">
+        <v>109</v>
+      </c>
+      <c r="E748" t="s">
+        <v>109</v>
+      </c>
+      <c r="F748" t="s">
+        <v>109</v>
+      </c>
+      <c r="G748" t="s">
+        <v>86</v>
+      </c>
+      <c r="H748" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="749" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A749">
+        <v>20250320</v>
+      </c>
+      <c r="B749" t="s">
+        <v>45</v>
+      </c>
+      <c r="C749" t="s">
+        <v>121</v>
+      </c>
+      <c r="D749" t="s">
+        <v>6</v>
+      </c>
+      <c r="E749" t="s">
+        <v>110</v>
+      </c>
+      <c r="F749" t="s">
+        <v>117</v>
+      </c>
+      <c r="G749" t="s">
+        <v>87</v>
+      </c>
+      <c r="H749" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="750" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A750">
+        <v>20250320</v>
+      </c>
+      <c r="B750" t="s">
+        <v>45</v>
+      </c>
+      <c r="C750" t="s">
+        <v>121</v>
+      </c>
+      <c r="D750" t="s">
+        <v>6</v>
+      </c>
+      <c r="E750" t="s">
+        <v>110</v>
+      </c>
+      <c r="F750" t="s">
+        <v>117</v>
+      </c>
+      <c r="G750" t="s">
+        <v>88</v>
+      </c>
+      <c r="H750" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="751" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A751">
+        <v>20250320</v>
+      </c>
+      <c r="B751" t="s">
+        <v>45</v>
+      </c>
+      <c r="C751" t="s">
+        <v>121</v>
+      </c>
+      <c r="D751" t="s">
+        <v>6</v>
+      </c>
+      <c r="E751" t="s">
+        <v>110</v>
+      </c>
+      <c r="F751" t="s">
+        <v>117</v>
+      </c>
+      <c r="G751" t="s">
+        <v>89</v>
+      </c>
+      <c r="H751" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="752" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A752">
+        <v>20250320</v>
+      </c>
+      <c r="B752" t="s">
+        <v>45</v>
+      </c>
+      <c r="C752" t="s">
+        <v>121</v>
+      </c>
+      <c r="D752" t="s">
+        <v>6</v>
+      </c>
+      <c r="E752" t="s">
+        <v>110</v>
+      </c>
+      <c r="F752" t="s">
+        <v>117</v>
+      </c>
+      <c r="G752" t="s">
+        <v>90</v>
+      </c>
+      <c r="H752" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="753" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A753">
+        <v>20250320</v>
+      </c>
+      <c r="B753" t="s">
+        <v>45</v>
+      </c>
+      <c r="C753" t="s">
+        <v>121</v>
+      </c>
+      <c r="D753" t="s">
+        <v>6</v>
+      </c>
+      <c r="E753" t="s">
+        <v>110</v>
+      </c>
+      <c r="F753" t="s">
+        <v>117</v>
+      </c>
+      <c r="G753" t="s">
+        <v>91</v>
+      </c>
+      <c r="H753" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="754" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A754">
+        <v>20250320</v>
+      </c>
+      <c r="B754" t="s">
+        <v>45</v>
+      </c>
+      <c r="C754" t="s">
+        <v>121</v>
+      </c>
+      <c r="D754" t="s">
+        <v>6</v>
+      </c>
+      <c r="E754" t="s">
+        <v>110</v>
+      </c>
+      <c r="F754" t="s">
+        <v>117</v>
+      </c>
+      <c r="G754" t="s">
+        <v>92</v>
+      </c>
+      <c r="H754" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="755" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A755">
+        <v>20250320</v>
+      </c>
+      <c r="B755" t="s">
+        <v>45</v>
+      </c>
+      <c r="C755" t="s">
+        <v>121</v>
+      </c>
+      <c r="D755" t="s">
+        <v>6</v>
+      </c>
+      <c r="E755" t="s">
+        <v>110</v>
+      </c>
+      <c r="F755" t="s">
+        <v>117</v>
+      </c>
+      <c r="G755" t="s">
+        <v>93</v>
+      </c>
+      <c r="H755" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="756" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A756">
+        <v>20250320</v>
+      </c>
+      <c r="B756" t="s">
+        <v>45</v>
+      </c>
+      <c r="C756" t="s">
+        <v>121</v>
+      </c>
+      <c r="D756" t="s">
+        <v>6</v>
+      </c>
+      <c r="E756" t="s">
+        <v>110</v>
+      </c>
+      <c r="F756" t="s">
+        <v>117</v>
+      </c>
+      <c r="G756" t="s">
+        <v>94</v>
+      </c>
+      <c r="H756" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="757" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A757">
+        <v>20250320</v>
+      </c>
+      <c r="B757" t="s">
+        <v>45</v>
+      </c>
+      <c r="C757" t="s">
+        <v>121</v>
+      </c>
+      <c r="D757" t="s">
+        <v>6</v>
+      </c>
+      <c r="E757" t="s">
+        <v>110</v>
+      </c>
+      <c r="F757" t="s">
+        <v>117</v>
+      </c>
+      <c r="G757" t="s">
+        <v>95</v>
+      </c>
+      <c r="H757" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="758" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A758">
+        <v>20250320</v>
+      </c>
+      <c r="B758" t="s">
+        <v>45</v>
+      </c>
+      <c r="C758" t="s">
+        <v>121</v>
+      </c>
+      <c r="D758" t="s">
+        <v>6</v>
+      </c>
+      <c r="E758" t="s">
+        <v>110</v>
+      </c>
+      <c r="F758" t="s">
+        <v>117</v>
+      </c>
+      <c r="G758" t="s">
+        <v>96</v>
+      </c>
+      <c r="H758" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="759" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A759">
+        <v>20250320</v>
+      </c>
+      <c r="B759" t="s">
+        <v>45</v>
+      </c>
+      <c r="C759" t="s">
+        <v>121</v>
+      </c>
+      <c r="D759" t="s">
+        <v>6</v>
+      </c>
+      <c r="E759" t="s">
+        <v>110</v>
+      </c>
+      <c r="F759" t="s">
+        <v>117</v>
+      </c>
+      <c r="G759" t="s">
+        <v>97</v>
+      </c>
+      <c r="H759" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="760" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A760">
+        <v>20250320</v>
+      </c>
+      <c r="B760" t="s">
+        <v>45</v>
+      </c>
+      <c r="C760" t="s">
+        <v>121</v>
+      </c>
+      <c r="D760" t="s">
+        <v>6</v>
+      </c>
+      <c r="E760" t="s">
+        <v>110</v>
+      </c>
+      <c r="F760" t="s">
+        <v>117</v>
+      </c>
+      <c r="G760" t="s">
+        <v>98</v>
+      </c>
+      <c r="H760" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="761" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A761">
+        <v>20250320</v>
+      </c>
+      <c r="B761" t="s">
+        <v>45</v>
+      </c>
+      <c r="C761" t="s">
+        <v>121</v>
+      </c>
+      <c r="D761" t="s">
+        <v>6</v>
+      </c>
+      <c r="E761" t="s">
+        <v>110</v>
+      </c>
+      <c r="F761" t="s">
+        <v>117</v>
+      </c>
+      <c r="G761" t="s">
+        <v>99</v>
+      </c>
+      <c r="H761" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="762" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A762">
+        <v>20250320</v>
+      </c>
+      <c r="B762" t="s">
+        <v>45</v>
+      </c>
+      <c r="C762" t="s">
+        <v>121</v>
+      </c>
+      <c r="D762" t="s">
+        <v>6</v>
+      </c>
+      <c r="E762" t="s">
+        <v>110</v>
+      </c>
+      <c r="F762" t="s">
+        <v>117</v>
+      </c>
+      <c r="G762" t="s">
+        <v>100</v>
+      </c>
+      <c r="H762" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="763" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A763">
+        <v>20250320</v>
+      </c>
+      <c r="B763" t="s">
+        <v>45</v>
+      </c>
+      <c r="C763" t="s">
+        <v>121</v>
+      </c>
+      <c r="D763" t="s">
+        <v>6</v>
+      </c>
+      <c r="E763" t="s">
+        <v>110</v>
+      </c>
+      <c r="F763" t="s">
+        <v>117</v>
+      </c>
+      <c r="G763" t="s">
+        <v>101</v>
+      </c>
+      <c r="H763" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="764" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A764">
+        <v>20250320</v>
+      </c>
+      <c r="B764" t="s">
+        <v>45</v>
+      </c>
+      <c r="C764" t="s">
+        <v>121</v>
+      </c>
+      <c r="D764" t="s">
+        <v>6</v>
+      </c>
+      <c r="E764" t="s">
+        <v>110</v>
+      </c>
+      <c r="F764" t="s">
+        <v>117</v>
+      </c>
+      <c r="G764" t="s">
+        <v>102</v>
+      </c>
+      <c r="H764" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="765" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A765">
+        <v>20250320</v>
+      </c>
+      <c r="B765" t="s">
+        <v>45</v>
+      </c>
+      <c r="C765" t="s">
+        <v>121</v>
+      </c>
+      <c r="D765" t="s">
+        <v>6</v>
+      </c>
+      <c r="E765" t="s">
+        <v>110</v>
+      </c>
+      <c r="F765" t="s">
+        <v>117</v>
+      </c>
+      <c r="G765" t="s">
+        <v>103</v>
+      </c>
+      <c r="H765" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="766" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A766">
+        <v>20250320</v>
+      </c>
+      <c r="B766" t="s">
+        <v>45</v>
+      </c>
+      <c r="C766" t="s">
+        <v>121</v>
+      </c>
+      <c r="D766" t="s">
+        <v>6</v>
+      </c>
+      <c r="E766" t="s">
+        <v>110</v>
+      </c>
+      <c r="F766" t="s">
+        <v>117</v>
+      </c>
+      <c r="G766" t="s">
+        <v>104</v>
+      </c>
+      <c r="H766" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="767" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A767">
+        <v>20250320</v>
+      </c>
+      <c r="B767" t="s">
+        <v>45</v>
+      </c>
+      <c r="C767" t="s">
+        <v>121</v>
+      </c>
+      <c r="D767" t="s">
+        <v>6</v>
+      </c>
+      <c r="E767" t="s">
+        <v>110</v>
+      </c>
+      <c r="F767" t="s">
+        <v>117</v>
+      </c>
+      <c r="G767" t="s">
+        <v>105</v>
+      </c>
+      <c r="H767" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="768" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A768">
+        <v>20250320</v>
+      </c>
+      <c r="B768" t="s">
+        <v>45</v>
+      </c>
+      <c r="C768" t="s">
+        <v>121</v>
+      </c>
+      <c r="D768" t="s">
+        <v>6</v>
+      </c>
+      <c r="E768" t="s">
+        <v>110</v>
+      </c>
+      <c r="F768" t="s">
+        <v>117</v>
+      </c>
+      <c r="G768" t="s">
+        <v>106</v>
+      </c>
+      <c r="H768" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="769" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A769">
+        <v>20250320</v>
+      </c>
+      <c r="B769" t="s">
+        <v>45</v>
+      </c>
+      <c r="C769" t="s">
+        <v>121</v>
+      </c>
+      <c r="D769" t="s">
+        <v>6</v>
+      </c>
+      <c r="E769" t="s">
+        <v>110</v>
+      </c>
+      <c r="F769" t="s">
+        <v>117</v>
+      </c>
+      <c r="G769" t="s">
+        <v>107</v>
+      </c>
+      <c r="H769" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
